--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -711,25 +711,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1308500</v>
+        <v>1299500</v>
       </c>
       <c r="E8" s="3">
-        <v>1082600</v>
+        <v>1075200</v>
       </c>
       <c r="F8" s="3">
-        <v>837800</v>
+        <v>832000</v>
       </c>
       <c r="G8" s="3">
-        <v>865800</v>
+        <v>859800</v>
       </c>
       <c r="H8" s="3">
-        <v>782600</v>
+        <v>777300</v>
       </c>
       <c r="I8" s="3">
-        <v>569000</v>
+        <v>565100</v>
       </c>
       <c r="J8" s="3">
-        <v>567400</v>
+        <v>563500</v>
       </c>
       <c r="K8" s="3"/>
     </row>
@@ -738,25 +738,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>512800</v>
+        <v>509300</v>
       </c>
       <c r="E9" s="3">
-        <v>523300</v>
+        <v>519700</v>
       </c>
       <c r="F9" s="3">
-        <v>469300</v>
+        <v>466100</v>
       </c>
       <c r="G9" s="3">
-        <v>532300</v>
+        <v>528600</v>
       </c>
       <c r="H9" s="3">
-        <v>486900</v>
+        <v>483500</v>
       </c>
       <c r="I9" s="3">
-        <v>119400</v>
+        <v>118600</v>
       </c>
       <c r="J9" s="3">
-        <v>93500</v>
+        <v>92900</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -765,25 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>795700</v>
+        <v>790300</v>
       </c>
       <c r="E10" s="3">
-        <v>559300</v>
+        <v>555500</v>
       </c>
       <c r="F10" s="3">
-        <v>368500</v>
+        <v>366000</v>
       </c>
       <c r="G10" s="3">
-        <v>333500</v>
+        <v>331200</v>
       </c>
       <c r="H10" s="3">
-        <v>295800</v>
+        <v>293700</v>
       </c>
       <c r="I10" s="3">
-        <v>449600</v>
+        <v>446500</v>
       </c>
       <c r="J10" s="3">
-        <v>473900</v>
+        <v>470700</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -817,10 +817,10 @@
         <v>4600</v>
       </c>
       <c r="H12" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I12" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="J12" s="3">
         <v>2800</v>
@@ -859,25 +859,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>336200</v>
+        <v>333900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>97500</v>
+        <v>96800</v>
       </c>
       <c r="G14" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="H14" s="3">
-        <v>68500</v>
+        <v>68000</v>
       </c>
       <c r="I14" s="3">
-        <v>83200</v>
+        <v>82700</v>
       </c>
       <c r="J14" s="3">
-        <v>40400</v>
+        <v>40100</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -901,10 +901,10 @@
         <v>8</v>
       </c>
       <c r="I15" s="3">
-        <v>277400</v>
+        <v>275500</v>
       </c>
       <c r="J15" s="3">
-        <v>209200</v>
+        <v>207800</v>
       </c>
       <c r="K15" s="3"/>
     </row>
@@ -923,25 +923,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>876900</v>
+        <v>870900</v>
       </c>
       <c r="E17" s="3">
-        <v>556500</v>
+        <v>552700</v>
       </c>
       <c r="F17" s="3">
-        <v>595600</v>
+        <v>591600</v>
       </c>
       <c r="G17" s="3">
-        <v>569600</v>
+        <v>565700</v>
       </c>
       <c r="H17" s="3">
-        <v>583300</v>
+        <v>579300</v>
       </c>
       <c r="I17" s="3">
-        <v>502900</v>
+        <v>499500</v>
       </c>
       <c r="J17" s="3">
-        <v>367000</v>
+        <v>364400</v>
       </c>
       <c r="K17" s="3"/>
     </row>
@@ -950,25 +950,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>431600</v>
+        <v>428600</v>
       </c>
       <c r="E18" s="3">
-        <v>526100</v>
+        <v>522500</v>
       </c>
       <c r="F18" s="3">
-        <v>242200</v>
+        <v>240500</v>
       </c>
       <c r="G18" s="3">
-        <v>296200</v>
+        <v>294100</v>
       </c>
       <c r="H18" s="3">
-        <v>199300</v>
+        <v>197900</v>
       </c>
       <c r="I18" s="3">
-        <v>66100</v>
+        <v>65600</v>
       </c>
       <c r="J18" s="3">
-        <v>200500</v>
+        <v>199100</v>
       </c>
       <c r="K18" s="3"/>
     </row>
@@ -993,7 +993,7 @@
         <v>5600</v>
       </c>
       <c r="E20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
@@ -1002,7 +1002,7 @@
         <v>6500</v>
       </c>
       <c r="H20" s="3">
-        <v>16000</v>
+        <v>15900</v>
       </c>
       <c r="I20" s="3">
         <v>-3800</v>
@@ -1017,25 +1017,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>742200</v>
+        <v>742400</v>
       </c>
       <c r="E21" s="3">
-        <v>864600</v>
+        <v>864400</v>
       </c>
       <c r="F21" s="3">
-        <v>556000</v>
+        <v>557600</v>
       </c>
       <c r="G21" s="3">
-        <v>648200</v>
+        <v>649700</v>
       </c>
       <c r="H21" s="3">
-        <v>561800</v>
+        <v>564000</v>
       </c>
       <c r="I21" s="3">
-        <v>335900</v>
+        <v>338300</v>
       </c>
       <c r="J21" s="3">
-        <v>407800</v>
+        <v>408500</v>
       </c>
       <c r="K21" s="3"/>
     </row>
@@ -1047,7 +1047,7 @@
         <v>1800</v>
       </c>
       <c r="E22" s="3">
-        <v>10900</v>
+        <v>10800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
@@ -1071,25 +1071,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>435400</v>
+        <v>432500</v>
       </c>
       <c r="E23" s="3">
-        <v>520600</v>
+        <v>517000</v>
       </c>
       <c r="F23" s="3">
-        <v>242500</v>
+        <v>240900</v>
       </c>
       <c r="G23" s="3">
-        <v>302700</v>
+        <v>300600</v>
       </c>
       <c r="H23" s="3">
-        <v>215300</v>
+        <v>213900</v>
       </c>
       <c r="I23" s="3">
-        <v>62200</v>
+        <v>61800</v>
       </c>
       <c r="J23" s="3">
-        <v>201400</v>
+        <v>200000</v>
       </c>
       <c r="K23" s="3"/>
     </row>
@@ -1098,25 +1098,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>17100</v>
+        <v>16900</v>
       </c>
       <c r="E24" s="3">
-        <v>79300</v>
+        <v>78700</v>
       </c>
       <c r="F24" s="3">
-        <v>61700</v>
+        <v>61300</v>
       </c>
       <c r="G24" s="3">
-        <v>43900</v>
+        <v>43600</v>
       </c>
       <c r="H24" s="3">
-        <v>58600</v>
+        <v>58200</v>
       </c>
       <c r="I24" s="3">
-        <v>30700</v>
+        <v>30400</v>
       </c>
       <c r="J24" s="3">
-        <v>64500</v>
+        <v>64100</v>
       </c>
       <c r="K24" s="3"/>
     </row>
@@ -1152,25 +1152,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>418400</v>
+        <v>415500</v>
       </c>
       <c r="E26" s="3">
-        <v>441300</v>
+        <v>438300</v>
       </c>
       <c r="F26" s="3">
-        <v>180800</v>
+        <v>179600</v>
       </c>
       <c r="G26" s="3">
-        <v>258800</v>
+        <v>257100</v>
       </c>
       <c r="H26" s="3">
-        <v>156700</v>
+        <v>155700</v>
       </c>
       <c r="I26" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="J26" s="3">
-        <v>136900</v>
+        <v>135900</v>
       </c>
       <c r="K26" s="3"/>
     </row>
@@ -1179,25 +1179,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>418400</v>
+        <v>415500</v>
       </c>
       <c r="E27" s="3">
-        <v>441300</v>
+        <v>438300</v>
       </c>
       <c r="F27" s="3">
-        <v>180800</v>
+        <v>179600</v>
       </c>
       <c r="G27" s="3">
-        <v>258800</v>
+        <v>257100</v>
       </c>
       <c r="H27" s="3">
-        <v>156700</v>
+        <v>155700</v>
       </c>
       <c r="I27" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="J27" s="3">
-        <v>136900</v>
+        <v>135900</v>
       </c>
       <c r="K27" s="3"/>
     </row>
@@ -1239,10 +1239,10 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="G29" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1317,7 +1317,7 @@
         <v>-5600</v>
       </c>
       <c r="E32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
@@ -1326,7 +1326,7 @@
         <v>-6500</v>
       </c>
       <c r="H32" s="3">
-        <v>-16000</v>
+        <v>-15900</v>
       </c>
       <c r="I32" s="3">
         <v>3800</v>
@@ -1341,25 +1341,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>418400</v>
+        <v>415500</v>
       </c>
       <c r="E33" s="3">
-        <v>441300</v>
+        <v>438300</v>
       </c>
       <c r="F33" s="3">
-        <v>178300</v>
+        <v>177100</v>
       </c>
       <c r="G33" s="3">
-        <v>249700</v>
+        <v>248000</v>
       </c>
       <c r="H33" s="3">
-        <v>156700</v>
+        <v>155700</v>
       </c>
       <c r="I33" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="J33" s="3">
-        <v>136900</v>
+        <v>135900</v>
       </c>
       <c r="K33" s="3"/>
     </row>
@@ -1395,25 +1395,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>418400</v>
+        <v>415500</v>
       </c>
       <c r="E35" s="3">
-        <v>441300</v>
+        <v>438300</v>
       </c>
       <c r="F35" s="3">
-        <v>178300</v>
+        <v>177100</v>
       </c>
       <c r="G35" s="3">
-        <v>249700</v>
+        <v>248000</v>
       </c>
       <c r="H35" s="3">
-        <v>156700</v>
+        <v>155700</v>
       </c>
       <c r="I35" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="J35" s="3">
-        <v>136900</v>
+        <v>135900</v>
       </c>
       <c r="K35" s="3"/>
     </row>
@@ -1480,25 +1480,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>685200</v>
+        <v>680500</v>
       </c>
       <c r="E41" s="3">
-        <v>169400</v>
+        <v>168300</v>
       </c>
       <c r="F41" s="3">
-        <v>89400</v>
+        <v>88800</v>
       </c>
       <c r="G41" s="3">
-        <v>655500</v>
+        <v>651000</v>
       </c>
       <c r="H41" s="3">
-        <v>324500</v>
+        <v>322300</v>
       </c>
       <c r="I41" s="3">
-        <v>191400</v>
+        <v>190100</v>
       </c>
       <c r="J41" s="3">
-        <v>759900</v>
+        <v>754700</v>
       </c>
       <c r="K41" s="3"/>
     </row>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="3">
-        <v>24100</v>
+        <v>23900</v>
       </c>
       <c r="J42" s="3">
         <v>0</v>
@@ -1534,25 +1534,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>119800</v>
+        <v>119000</v>
       </c>
       <c r="E43" s="3">
-        <v>125400</v>
+        <v>124600</v>
       </c>
       <c r="F43" s="3">
-        <v>96800</v>
+        <v>96200</v>
       </c>
       <c r="G43" s="3">
-        <v>84500</v>
+        <v>83900</v>
       </c>
       <c r="H43" s="3">
-        <v>91200</v>
+        <v>90600</v>
       </c>
       <c r="I43" s="3">
-        <v>83500</v>
+        <v>82900</v>
       </c>
       <c r="J43" s="3">
-        <v>92500</v>
+        <v>91800</v>
       </c>
       <c r="K43" s="3"/>
     </row>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>9100</v>
+        <v>9000</v>
       </c>
       <c r="H44" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
@@ -1588,25 +1588,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>46300</v>
+        <v>46000</v>
       </c>
       <c r="E45" s="3">
-        <v>62600</v>
+        <v>62200</v>
       </c>
       <c r="F45" s="3">
-        <v>42700</v>
+        <v>42400</v>
       </c>
       <c r="G45" s="3">
-        <v>41400</v>
+        <v>41100</v>
       </c>
       <c r="H45" s="3">
-        <v>44100</v>
+        <v>43800</v>
       </c>
       <c r="I45" s="3">
-        <v>53400</v>
+        <v>53000</v>
       </c>
       <c r="J45" s="3">
-        <v>44000</v>
+        <v>43700</v>
       </c>
       <c r="K45" s="3"/>
     </row>
@@ -1615,25 +1615,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>851300</v>
+        <v>845400</v>
       </c>
       <c r="E46" s="3">
-        <v>357500</v>
+        <v>355000</v>
       </c>
       <c r="F46" s="3">
-        <v>228900</v>
+        <v>227400</v>
       </c>
       <c r="G46" s="3">
-        <v>790600</v>
+        <v>785200</v>
       </c>
       <c r="H46" s="3">
-        <v>463300</v>
+        <v>460100</v>
       </c>
       <c r="I46" s="3">
-        <v>352300</v>
+        <v>349900</v>
       </c>
       <c r="J46" s="3">
-        <v>896400</v>
+        <v>890300</v>
       </c>
       <c r="K46" s="3"/>
     </row>
@@ -1642,25 +1642,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>298500</v>
+        <v>296400</v>
       </c>
       <c r="E47" s="3">
-        <v>231100</v>
+        <v>229500</v>
       </c>
       <c r="F47" s="3">
-        <v>216800</v>
+        <v>215300</v>
       </c>
       <c r="G47" s="3">
-        <v>259500</v>
+        <v>257700</v>
       </c>
       <c r="H47" s="3">
-        <v>187900</v>
+        <v>186600</v>
       </c>
       <c r="I47" s="3">
-        <v>121500</v>
+        <v>120600</v>
       </c>
       <c r="J47" s="3">
-        <v>85300</v>
+        <v>84700</v>
       </c>
       <c r="K47" s="3"/>
     </row>
@@ -1669,25 +1669,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5950600</v>
+        <v>5909800</v>
       </c>
       <c r="E48" s="3">
-        <v>6169300</v>
+        <v>6127000</v>
       </c>
       <c r="F48" s="3">
-        <v>5856700</v>
+        <v>5816600</v>
       </c>
       <c r="G48" s="3">
-        <v>5069500</v>
+        <v>5034700</v>
       </c>
       <c r="H48" s="3">
-        <v>4723800</v>
+        <v>4691400</v>
       </c>
       <c r="I48" s="3">
-        <v>4200000</v>
+        <v>4171200</v>
       </c>
       <c r="J48" s="3">
-        <v>3382100</v>
+        <v>3358900</v>
       </c>
       <c r="K48" s="3"/>
     </row>
@@ -1777,25 +1777,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>73100</v>
+        <v>72600</v>
       </c>
       <c r="E52" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="F52" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="G52" s="3">
-        <v>22100</v>
+        <v>21900</v>
       </c>
       <c r="H52" s="3">
-        <v>39600</v>
+        <v>39400</v>
       </c>
       <c r="I52" s="3">
-        <v>38900</v>
+        <v>38600</v>
       </c>
       <c r="J52" s="3">
-        <v>82900</v>
+        <v>82300</v>
       </c>
       <c r="K52" s="3"/>
     </row>
@@ -1831,25 +1831,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7173500</v>
+        <v>7124200</v>
       </c>
       <c r="E54" s="3">
-        <v>6772900</v>
+        <v>6726400</v>
       </c>
       <c r="F54" s="3">
-        <v>6325500</v>
+        <v>6282100</v>
       </c>
       <c r="G54" s="3">
-        <v>6141600</v>
+        <v>6099500</v>
       </c>
       <c r="H54" s="3">
-        <v>5414600</v>
+        <v>5377500</v>
       </c>
       <c r="I54" s="3">
-        <v>4712700</v>
+        <v>4680300</v>
       </c>
       <c r="J54" s="3">
-        <v>4446600</v>
+        <v>4416100</v>
       </c>
       <c r="K54" s="3"/>
     </row>
@@ -1890,19 +1890,19 @@
         <v>8700</v>
       </c>
       <c r="F57" s="3">
-        <v>9400</v>
+        <v>9300</v>
       </c>
       <c r="G57" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="H57" s="3">
-        <v>12300</v>
+        <v>12200</v>
       </c>
       <c r="I57" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="J57" s="3">
-        <v>8000</v>
+        <v>7900</v>
       </c>
       <c r="K57" s="3"/>
     </row>
@@ -1938,25 +1938,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>63700</v>
+        <v>63300</v>
       </c>
       <c r="E59" s="3">
-        <v>59800</v>
+        <v>59400</v>
       </c>
       <c r="F59" s="3">
-        <v>22700</v>
+        <v>22500</v>
       </c>
       <c r="G59" s="3">
-        <v>21000</v>
+        <v>20900</v>
       </c>
       <c r="H59" s="3">
-        <v>35900</v>
+        <v>35700</v>
       </c>
       <c r="I59" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="J59" s="3">
-        <v>19100</v>
+        <v>19000</v>
       </c>
       <c r="K59" s="3"/>
     </row>
@@ -1965,25 +1965,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>68200</v>
+        <v>67800</v>
       </c>
       <c r="E60" s="3">
-        <v>68500</v>
+        <v>68000</v>
       </c>
       <c r="F60" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="G60" s="3">
-        <v>29000</v>
+        <v>28800</v>
       </c>
       <c r="H60" s="3">
-        <v>48200</v>
+        <v>47900</v>
       </c>
       <c r="I60" s="3">
-        <v>26700</v>
+        <v>26500</v>
       </c>
       <c r="J60" s="3">
-        <v>27100</v>
+        <v>26900</v>
       </c>
       <c r="K60" s="3"/>
     </row>
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>105900</v>
+        <v>105200</v>
       </c>
       <c r="F61" s="3">
-        <v>266300</v>
+        <v>264400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>586500</v>
+        <v>582500</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2019,25 +2019,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>123000</v>
+        <v>122200</v>
       </c>
       <c r="E62" s="3">
-        <v>105700</v>
+        <v>105000</v>
       </c>
       <c r="F62" s="3">
-        <v>86300</v>
+        <v>85700</v>
       </c>
       <c r="G62" s="3">
-        <v>77300</v>
+        <v>76800</v>
       </c>
       <c r="H62" s="3">
-        <v>48100</v>
+        <v>47800</v>
       </c>
       <c r="I62" s="3">
-        <v>42600</v>
+        <v>42300</v>
       </c>
       <c r="J62" s="3">
-        <v>51700</v>
+        <v>51300</v>
       </c>
       <c r="K62" s="3"/>
     </row>
@@ -2127,25 +2127,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>191200</v>
+        <v>189900</v>
       </c>
       <c r="E66" s="3">
-        <v>280100</v>
+        <v>278200</v>
       </c>
       <c r="F66" s="3">
-        <v>384700</v>
+        <v>382000</v>
       </c>
       <c r="G66" s="3">
-        <v>106300</v>
+        <v>105600</v>
       </c>
       <c r="H66" s="3">
-        <v>96300</v>
+        <v>95700</v>
       </c>
       <c r="I66" s="3">
-        <v>655800</v>
+        <v>651300</v>
       </c>
       <c r="J66" s="3">
-        <v>78800</v>
+        <v>78200</v>
       </c>
       <c r="K66" s="3"/>
     </row>
@@ -2275,25 +2275,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-44100</v>
+        <v>-43800</v>
       </c>
       <c r="E72" s="3">
-        <v>-210900</v>
+        <v>-209400</v>
       </c>
       <c r="F72" s="3">
-        <v>-412600</v>
+        <v>-409800</v>
       </c>
       <c r="G72" s="3">
-        <v>-397600</v>
+        <v>-394900</v>
       </c>
       <c r="H72" s="3">
-        <v>-432000</v>
+        <v>-429000</v>
       </c>
       <c r="I72" s="3">
-        <v>-387600</v>
+        <v>-384900</v>
       </c>
       <c r="J72" s="3">
-        <v>-253700</v>
+        <v>-252000</v>
       </c>
       <c r="K72" s="3"/>
     </row>
@@ -2383,25 +2383,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6982200</v>
+        <v>6934300</v>
       </c>
       <c r="E76" s="3">
-        <v>6492800</v>
+        <v>6448200</v>
       </c>
       <c r="F76" s="3">
-        <v>5940900</v>
+        <v>5900100</v>
       </c>
       <c r="G76" s="3">
-        <v>6035300</v>
+        <v>5993900</v>
       </c>
       <c r="H76" s="3">
-        <v>5318300</v>
+        <v>5281800</v>
       </c>
       <c r="I76" s="3">
-        <v>4056900</v>
+        <v>4029000</v>
       </c>
       <c r="J76" s="3">
-        <v>4367900</v>
+        <v>4337900</v>
       </c>
       <c r="K76" s="3"/>
     </row>
@@ -2469,25 +2469,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>418400</v>
+        <v>415500</v>
       </c>
       <c r="E81" s="3">
-        <v>441300</v>
+        <v>438300</v>
       </c>
       <c r="F81" s="3">
-        <v>178300</v>
+        <v>177100</v>
       </c>
       <c r="G81" s="3">
-        <v>249700</v>
+        <v>248000</v>
       </c>
       <c r="H81" s="3">
-        <v>156700</v>
+        <v>155700</v>
       </c>
       <c r="I81" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="J81" s="3">
-        <v>136900</v>
+        <v>135900</v>
       </c>
       <c r="K81" s="3"/>
     </row>
@@ -2509,25 +2509,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>309100</v>
+        <v>307000</v>
       </c>
       <c r="E83" s="3">
-        <v>337600</v>
+        <v>335300</v>
       </c>
       <c r="F83" s="3">
-        <v>317700</v>
+        <v>315500</v>
       </c>
       <c r="G83" s="3">
-        <v>350100</v>
+        <v>347700</v>
       </c>
       <c r="H83" s="3">
-        <v>351200</v>
+        <v>348800</v>
       </c>
       <c r="I83" s="3">
-        <v>277400</v>
+        <v>275500</v>
       </c>
       <c r="J83" s="3">
-        <v>209200</v>
+        <v>207800</v>
       </c>
       <c r="K83" s="3"/>
     </row>
@@ -2671,25 +2671,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1031100</v>
+        <v>1024000</v>
       </c>
       <c r="E89" s="3">
-        <v>792300</v>
+        <v>786800</v>
       </c>
       <c r="F89" s="3">
-        <v>609000</v>
+        <v>604800</v>
       </c>
       <c r="G89" s="3">
-        <v>626700</v>
+        <v>622400</v>
       </c>
       <c r="H89" s="3">
-        <v>604100</v>
+        <v>600000</v>
       </c>
       <c r="I89" s="3">
-        <v>403100</v>
+        <v>400400</v>
       </c>
       <c r="J89" s="3">
-        <v>342500</v>
+        <v>340100</v>
       </c>
       <c r="K89" s="3"/>
     </row>
@@ -2711,25 +2711,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400900</v>
+        <v>-398200</v>
       </c>
       <c r="E91" s="3">
-        <v>-571000</v>
+        <v>-567100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1269300</v>
+        <v>-1260600</v>
       </c>
       <c r="G91" s="3">
-        <v>-642800</v>
+        <v>-638400</v>
       </c>
       <c r="H91" s="3">
-        <v>-958200</v>
+        <v>-951700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1308800</v>
+        <v>-1299800</v>
       </c>
       <c r="J91" s="3">
-        <v>-1143700</v>
+        <v>-1135800</v>
       </c>
       <c r="K91" s="3"/>
     </row>
@@ -2792,25 +2792,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-396300</v>
+        <v>-393600</v>
       </c>
       <c r="E94" s="3">
-        <v>-559300</v>
+        <v>-555500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1268100</v>
+        <v>-1259400</v>
       </c>
       <c r="G94" s="3">
-        <v>-642500</v>
+        <v>-638000</v>
       </c>
       <c r="H94" s="3">
-        <v>-884700</v>
+        <v>-878700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1418700</v>
+        <v>-1409000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1046500</v>
+        <v>-1039300</v>
       </c>
       <c r="K94" s="3"/>
     </row>
@@ -2832,25 +2832,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-198700</v>
+        <v>-197300</v>
       </c>
       <c r="E96" s="3">
-        <v>-177300</v>
+        <v>-176000</v>
       </c>
       <c r="F96" s="3">
-        <v>-174600</v>
+        <v>-173400</v>
       </c>
       <c r="G96" s="3">
-        <v>-161400</v>
+        <v>-160200</v>
       </c>
       <c r="H96" s="3">
-        <v>-151500</v>
+        <v>-150400</v>
       </c>
       <c r="I96" s="3">
-        <v>-120700</v>
+        <v>-119900</v>
       </c>
       <c r="J96" s="3">
-        <v>-116300</v>
+        <v>-115500</v>
       </c>
       <c r="K96" s="3"/>
     </row>
@@ -2940,25 +2940,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-117700</v>
+        <v>-116900</v>
       </c>
       <c r="E100" s="3">
-        <v>-153700</v>
+        <v>-152600</v>
       </c>
       <c r="F100" s="3">
-        <v>99500</v>
+        <v>98800</v>
       </c>
       <c r="G100" s="3">
-        <v>307400</v>
+        <v>305300</v>
       </c>
       <c r="H100" s="3">
-        <v>412600</v>
+        <v>409800</v>
       </c>
       <c r="I100" s="3">
-        <v>479800</v>
+        <v>476500</v>
       </c>
       <c r="J100" s="3">
-        <v>506200</v>
+        <v>502800</v>
       </c>
       <c r="K100" s="3"/>
     </row>
@@ -2976,16 +2976,16 @@
         <v>-6500</v>
       </c>
       <c r="G101" s="3">
-        <v>39400</v>
+        <v>39100</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I101" s="3">
-        <v>-32800</v>
+        <v>-32600</v>
       </c>
       <c r="J101" s="3">
-        <v>-29900</v>
+        <v>-29700</v>
       </c>
       <c r="K101" s="3"/>
     </row>
@@ -2994,25 +2994,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>515700</v>
+        <v>512200</v>
       </c>
       <c r="E102" s="3">
-        <v>80000</v>
+        <v>79500</v>
       </c>
       <c r="F102" s="3">
-        <v>-566100</v>
+        <v>-562300</v>
       </c>
       <c r="G102" s="3">
-        <v>331000</v>
+        <v>328800</v>
       </c>
       <c r="H102" s="3">
-        <v>133100</v>
+        <v>132200</v>
       </c>
       <c r="I102" s="3">
-        <v>-568600</v>
+        <v>-564700</v>
       </c>
       <c r="J102" s="3">
-        <v>-227700</v>
+        <v>-226100</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,141 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1299500</v>
+        <v>1656600</v>
       </c>
       <c r="E8" s="3">
-        <v>1075200</v>
+        <v>1300000</v>
       </c>
       <c r="F8" s="3">
-        <v>832000</v>
+        <v>1075600</v>
       </c>
       <c r="G8" s="3">
-        <v>859800</v>
+        <v>832400</v>
       </c>
       <c r="H8" s="3">
-        <v>777300</v>
+        <v>860200</v>
       </c>
       <c r="I8" s="3">
-        <v>565100</v>
+        <v>777600</v>
       </c>
       <c r="J8" s="3">
+        <v>565300</v>
+      </c>
+      <c r="K8" s="3">
         <v>563500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>509300</v>
+        <v>609000</v>
       </c>
       <c r="E9" s="3">
-        <v>519700</v>
+        <v>509500</v>
       </c>
       <c r="F9" s="3">
-        <v>466100</v>
+        <v>519900</v>
       </c>
       <c r="G9" s="3">
-        <v>528600</v>
+        <v>466300</v>
       </c>
       <c r="H9" s="3">
-        <v>483500</v>
+        <v>528800</v>
       </c>
       <c r="I9" s="3">
+        <v>483700</v>
+      </c>
+      <c r="J9" s="3">
         <v>118600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>92900</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>790300</v>
+        <v>1047600</v>
       </c>
       <c r="E10" s="3">
-        <v>555500</v>
+        <v>790600</v>
       </c>
       <c r="F10" s="3">
-        <v>366000</v>
+        <v>555700</v>
       </c>
       <c r="G10" s="3">
-        <v>331200</v>
+        <v>366100</v>
       </c>
       <c r="H10" s="3">
-        <v>293700</v>
+        <v>331300</v>
       </c>
       <c r="I10" s="3">
-        <v>446500</v>
+        <v>293900</v>
       </c>
       <c r="J10" s="3">
+        <v>446600</v>
+      </c>
+      <c r="K10" s="3">
         <v>470700</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +811,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,21 +826,24 @@
       <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3">
         <v>4600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2800</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,36 +868,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>333900</v>
+        <v>-86700</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>334000</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>96800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>68000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>82700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>40100</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -900,15 +922,18 @@
       <c r="H15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
-        <v>275500</v>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J15" s="3">
+        <v>275600</v>
+      </c>
+      <c r="K15" s="3">
         <v>207800</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +942,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>870900</v>
+        <v>559800</v>
       </c>
       <c r="E17" s="3">
-        <v>552700</v>
+        <v>871200</v>
       </c>
       <c r="F17" s="3">
-        <v>591600</v>
+        <v>552900</v>
       </c>
       <c r="G17" s="3">
-        <v>565700</v>
+        <v>591800</v>
       </c>
       <c r="H17" s="3">
-        <v>579300</v>
+        <v>565900</v>
       </c>
       <c r="I17" s="3">
-        <v>499500</v>
+        <v>579600</v>
       </c>
       <c r="J17" s="3">
+        <v>499700</v>
+      </c>
+      <c r="K17" s="3">
         <v>364400</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>428600</v>
+        <v>1096800</v>
       </c>
       <c r="E18" s="3">
-        <v>522500</v>
+        <v>428800</v>
       </c>
       <c r="F18" s="3">
-        <v>240500</v>
+        <v>522700</v>
       </c>
       <c r="G18" s="3">
-        <v>294100</v>
+        <v>240600</v>
       </c>
       <c r="H18" s="3">
-        <v>197900</v>
+        <v>294200</v>
       </c>
       <c r="I18" s="3">
+        <v>198000</v>
+      </c>
+      <c r="J18" s="3">
         <v>65600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>199100</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,62 +1016,69 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>5600</v>
       </c>
-      <c r="E20" s="3">
-        <v>5300</v>
-      </c>
       <c r="F20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>6500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>742400</v>
+        <v>1478500</v>
       </c>
       <c r="E21" s="3">
-        <v>864400</v>
+        <v>743000</v>
       </c>
       <c r="F21" s="3">
-        <v>557600</v>
+        <v>865100</v>
       </c>
       <c r="G21" s="3">
-        <v>649700</v>
+        <v>558100</v>
       </c>
       <c r="H21" s="3">
-        <v>564000</v>
+        <v>650300</v>
       </c>
       <c r="I21" s="3">
-        <v>338300</v>
+        <v>564500</v>
       </c>
       <c r="J21" s="3">
+        <v>338800</v>
+      </c>
+      <c r="K21" s="3">
         <v>408500</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1047,10 +1086,10 @@
         <v>1800</v>
       </c>
       <c r="E22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F22" s="3">
         <v>10800</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1064,63 +1103,72 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>432500</v>
+        <v>1093100</v>
       </c>
       <c r="E23" s="3">
-        <v>517000</v>
+        <v>432600</v>
       </c>
       <c r="F23" s="3">
-        <v>240900</v>
+        <v>517200</v>
       </c>
       <c r="G23" s="3">
-        <v>300600</v>
+        <v>241000</v>
       </c>
       <c r="H23" s="3">
-        <v>213900</v>
+        <v>300700</v>
       </c>
       <c r="I23" s="3">
+        <v>214000</v>
+      </c>
+      <c r="J23" s="3">
         <v>61800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200000</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>158100</v>
+      </c>
+      <c r="E24" s="3">
         <v>16900</v>
       </c>
-      <c r="E24" s="3">
-        <v>78700</v>
-      </c>
       <c r="F24" s="3">
+        <v>78800</v>
+      </c>
+      <c r="G24" s="3">
         <v>61300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>43600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>58200</v>
       </c>
-      <c r="I24" s="3">
-        <v>30400</v>
-      </c>
       <c r="J24" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K24" s="3">
         <v>64100</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1193,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>415500</v>
+        <v>935000</v>
       </c>
       <c r="E26" s="3">
-        <v>438300</v>
+        <v>415700</v>
       </c>
       <c r="F26" s="3">
-        <v>179600</v>
+        <v>438500</v>
       </c>
       <c r="G26" s="3">
-        <v>257100</v>
+        <v>179700</v>
       </c>
       <c r="H26" s="3">
+        <v>257200</v>
+      </c>
+      <c r="I26" s="3">
         <v>155700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>135900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>415500</v>
+        <v>935000</v>
       </c>
       <c r="E27" s="3">
-        <v>438300</v>
+        <v>415700</v>
       </c>
       <c r="F27" s="3">
-        <v>179600</v>
+        <v>438500</v>
       </c>
       <c r="G27" s="3">
-        <v>257100</v>
+        <v>179700</v>
       </c>
       <c r="H27" s="3">
+        <v>257200</v>
+      </c>
+      <c r="I27" s="3">
         <v>155700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>135900</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,9 +1283,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1238,14 +1298,14 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="3">
         <v>-2500</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-9000</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1313,12 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1343,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1373,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5600</v>
       </c>
-      <c r="E32" s="3">
-        <v>-5300</v>
-      </c>
       <c r="F32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-6500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>415500</v>
+        <v>935000</v>
       </c>
       <c r="E33" s="3">
-        <v>438300</v>
+        <v>415700</v>
       </c>
       <c r="F33" s="3">
+        <v>438500</v>
+      </c>
+      <c r="G33" s="3">
         <v>177100</v>
       </c>
-      <c r="G33" s="3">
-        <v>248000</v>
-      </c>
       <c r="H33" s="3">
+        <v>248100</v>
+      </c>
+      <c r="I33" s="3">
         <v>155700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>135900</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1463,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>415500</v>
+        <v>935000</v>
       </c>
       <c r="E35" s="3">
-        <v>438300</v>
+        <v>415700</v>
       </c>
       <c r="F35" s="3">
+        <v>438500</v>
+      </c>
+      <c r="G35" s="3">
         <v>177100</v>
       </c>
-      <c r="G35" s="3">
-        <v>248000</v>
-      </c>
       <c r="H35" s="3">
+        <v>248100</v>
+      </c>
+      <c r="I35" s="3">
         <v>155700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>135900</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1545,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,35 +1559,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>680500</v>
+        <v>687200</v>
       </c>
       <c r="E41" s="3">
+        <v>680700</v>
+      </c>
+      <c r="F41" s="3">
         <v>168300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>88800</v>
       </c>
-      <c r="G41" s="3">
-        <v>651000</v>
-      </c>
       <c r="H41" s="3">
-        <v>322300</v>
+        <v>651300</v>
       </c>
       <c r="I41" s="3">
+        <v>322400</v>
+      </c>
+      <c r="J41" s="3">
         <v>190100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>754700</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1518,45 +1607,51 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>23900</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+        <v>24000</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E43" s="3">
         <v>119000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>124600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>96200</v>
       </c>
-      <c r="G43" s="3">
-        <v>83900</v>
-      </c>
       <c r="H43" s="3">
+        <v>84000</v>
+      </c>
+      <c r="I43" s="3">
         <v>90600</v>
       </c>
-      <c r="I43" s="3">
-        <v>82900</v>
-      </c>
       <c r="J43" s="3">
+        <v>83000</v>
+      </c>
+      <c r="K43" s="3">
         <v>91800</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1566,132 +1661,147 @@
       <c r="E44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>9000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>3400</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E45" s="3">
         <v>46000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>62200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42400</v>
       </c>
-      <c r="G45" s="3">
-        <v>41100</v>
-      </c>
       <c r="H45" s="3">
+        <v>41200</v>
+      </c>
+      <c r="I45" s="3">
         <v>43800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>53000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>43700</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>845400</v>
+        <v>957500</v>
       </c>
       <c r="E46" s="3">
-        <v>355000</v>
+        <v>845800</v>
       </c>
       <c r="F46" s="3">
-        <v>227400</v>
+        <v>355100</v>
       </c>
       <c r="G46" s="3">
-        <v>785200</v>
+        <v>227500</v>
       </c>
       <c r="H46" s="3">
-        <v>460100</v>
+        <v>785500</v>
       </c>
       <c r="I46" s="3">
-        <v>349900</v>
+        <v>460300</v>
       </c>
       <c r="J46" s="3">
+        <v>350100</v>
+      </c>
+      <c r="K46" s="3">
         <v>890300</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>296400</v>
+        <v>299600</v>
       </c>
       <c r="E47" s="3">
-        <v>229500</v>
+        <v>296500</v>
       </c>
       <c r="F47" s="3">
-        <v>215300</v>
+        <v>229600</v>
       </c>
       <c r="G47" s="3">
-        <v>257700</v>
+        <v>215400</v>
       </c>
       <c r="H47" s="3">
-        <v>186600</v>
+        <v>257800</v>
       </c>
       <c r="I47" s="3">
-        <v>120600</v>
+        <v>186700</v>
       </c>
       <c r="J47" s="3">
+        <v>120700</v>
+      </c>
+      <c r="K47" s="3">
         <v>84700</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5909800</v>
+        <v>6570800</v>
       </c>
       <c r="E48" s="3">
-        <v>6127000</v>
+        <v>5912100</v>
       </c>
       <c r="F48" s="3">
-        <v>5816600</v>
+        <v>6129400</v>
       </c>
       <c r="G48" s="3">
-        <v>5034700</v>
+        <v>5818800</v>
       </c>
       <c r="H48" s="3">
-        <v>4691400</v>
+        <v>5036700</v>
       </c>
       <c r="I48" s="3">
-        <v>4171200</v>
+        <v>4693200</v>
       </c>
       <c r="J48" s="3">
+        <v>4172800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3358900</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1716,9 +1826,12 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1856,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +1886,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E52" s="3">
         <v>72600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>22900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>39400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>82300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +1946,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7124200</v>
+        <v>7913300</v>
       </c>
       <c r="E54" s="3">
-        <v>6726400</v>
+        <v>7127000</v>
       </c>
       <c r="F54" s="3">
-        <v>6282100</v>
+        <v>6729100</v>
       </c>
       <c r="G54" s="3">
-        <v>6099500</v>
+        <v>6284600</v>
       </c>
       <c r="H54" s="3">
-        <v>5377500</v>
+        <v>6101900</v>
       </c>
       <c r="I54" s="3">
-        <v>4680300</v>
+        <v>5379600</v>
       </c>
       <c r="J54" s="3">
+        <v>4682200</v>
+      </c>
+      <c r="K54" s="3">
         <v>4416100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +1993,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,35 +2007,39 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>9300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>12200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>7900</v>
       </c>
       <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>7900</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1931,63 +2064,72 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E59" s="3">
         <v>63300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59400</v>
       </c>
-      <c r="F59" s="3">
-        <v>22500</v>
-      </c>
       <c r="G59" s="3">
+        <v>22600</v>
+      </c>
+      <c r="H59" s="3">
         <v>20900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>35700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>18600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E60" s="3">
         <v>67800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>68000</v>
       </c>
-      <c r="F60" s="3">
-        <v>31800</v>
-      </c>
       <c r="G60" s="3">
+        <v>31900</v>
+      </c>
+      <c r="H60" s="3">
         <v>28800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>47900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>26500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>26900</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -1995,53 +2137,59 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>105200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>264400</v>
+        <v>105300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>264500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>582500</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+        <v>582700</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>180300</v>
+      </c>
+      <c r="E62" s="3">
         <v>122200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>105000</v>
       </c>
-      <c r="F62" s="3">
-        <v>85700</v>
-      </c>
       <c r="G62" s="3">
+        <v>85800</v>
+      </c>
+      <c r="H62" s="3">
         <v>76800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>47800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>42300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>51300</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2214,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2244,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2274,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>189900</v>
+        <v>235400</v>
       </c>
       <c r="E66" s="3">
-        <v>278200</v>
+        <v>190000</v>
       </c>
       <c r="F66" s="3">
-        <v>382000</v>
+        <v>278300</v>
       </c>
       <c r="G66" s="3">
+        <v>382200</v>
+      </c>
+      <c r="H66" s="3">
         <v>105600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>95700</v>
       </c>
-      <c r="I66" s="3">
-        <v>651300</v>
-      </c>
       <c r="J66" s="3">
+        <v>651500</v>
+      </c>
+      <c r="K66" s="3">
         <v>78200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2321,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2348,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,9 +2378,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2241,9 +2408,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2438,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>617900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-43800</v>
       </c>
-      <c r="E72" s="3">
-        <v>-209400</v>
-      </c>
       <c r="F72" s="3">
-        <v>-409800</v>
+        <v>-209500</v>
       </c>
       <c r="G72" s="3">
-        <v>-394900</v>
+        <v>-409900</v>
       </c>
       <c r="H72" s="3">
-        <v>-429000</v>
+        <v>-395000</v>
       </c>
       <c r="I72" s="3">
-        <v>-384900</v>
+        <v>-429200</v>
       </c>
       <c r="J72" s="3">
+        <v>-385100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-252000</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2498,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2528,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2558,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6934300</v>
+        <v>7677900</v>
       </c>
       <c r="E76" s="3">
-        <v>6448200</v>
+        <v>6937000</v>
       </c>
       <c r="F76" s="3">
-        <v>5900100</v>
+        <v>6450800</v>
       </c>
       <c r="G76" s="3">
-        <v>5993900</v>
+        <v>5902400</v>
       </c>
       <c r="H76" s="3">
-        <v>5281800</v>
+        <v>5996200</v>
       </c>
       <c r="I76" s="3">
-        <v>4029000</v>
+        <v>5283900</v>
       </c>
       <c r="J76" s="3">
+        <v>4030600</v>
+      </c>
+      <c r="K76" s="3">
         <v>4337900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2618,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>415500</v>
+        <v>935000</v>
       </c>
       <c r="E81" s="3">
-        <v>438300</v>
+        <v>415700</v>
       </c>
       <c r="F81" s="3">
+        <v>438500</v>
+      </c>
+      <c r="G81" s="3">
         <v>177100</v>
       </c>
-      <c r="G81" s="3">
-        <v>248000</v>
-      </c>
       <c r="H81" s="3">
+        <v>248100</v>
+      </c>
+      <c r="I81" s="3">
         <v>155700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>135900</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2700,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>307000</v>
+        <v>381800</v>
       </c>
       <c r="E83" s="3">
-        <v>335300</v>
+        <v>307100</v>
       </c>
       <c r="F83" s="3">
-        <v>315500</v>
+        <v>335400</v>
       </c>
       <c r="G83" s="3">
-        <v>347700</v>
+        <v>315600</v>
       </c>
       <c r="H83" s="3">
-        <v>348800</v>
+        <v>347900</v>
       </c>
       <c r="I83" s="3">
-        <v>275500</v>
+        <v>348900</v>
       </c>
       <c r="J83" s="3">
+        <v>275600</v>
+      </c>
+      <c r="K83" s="3">
         <v>207800</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2757,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2787,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +2817,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +2847,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +2877,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1024000</v>
+        <v>1217500</v>
       </c>
       <c r="E89" s="3">
-        <v>786800</v>
+        <v>1024400</v>
       </c>
       <c r="F89" s="3">
-        <v>604800</v>
+        <v>787100</v>
       </c>
       <c r="G89" s="3">
-        <v>622400</v>
+        <v>605000</v>
       </c>
       <c r="H89" s="3">
-        <v>600000</v>
+        <v>622600</v>
       </c>
       <c r="I89" s="3">
-        <v>400400</v>
+        <v>600200</v>
       </c>
       <c r="J89" s="3">
+        <v>400500</v>
+      </c>
+      <c r="K89" s="3">
         <v>340100</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +2924,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-398200</v>
+        <v>-969100</v>
       </c>
       <c r="E91" s="3">
-        <v>-567100</v>
+        <v>-398300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1260600</v>
+        <v>-567300</v>
       </c>
       <c r="G91" s="3">
-        <v>-638400</v>
+        <v>-1261000</v>
       </c>
       <c r="H91" s="3">
-        <v>-951700</v>
+        <v>-638700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1299800</v>
+        <v>-952000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1300300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1135800</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +2981,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3011,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-393600</v>
+        <v>-974800</v>
       </c>
       <c r="E94" s="3">
-        <v>-555500</v>
+        <v>-393800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1259400</v>
+        <v>-555700</v>
       </c>
       <c r="G94" s="3">
-        <v>-638000</v>
+        <v>-1259900</v>
       </c>
       <c r="H94" s="3">
-        <v>-878700</v>
+        <v>-638300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1409000</v>
+        <v>-879000</v>
       </c>
       <c r="J94" s="3">
+        <v>-1409500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1039300</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3058,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-197300</v>
+        <v>-228900</v>
       </c>
       <c r="E96" s="3">
-        <v>-176000</v>
+        <v>-197400</v>
       </c>
       <c r="F96" s="3">
+        <v>-176100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-173400</v>
       </c>
-      <c r="G96" s="3">
-        <v>-160200</v>
-      </c>
       <c r="H96" s="3">
-        <v>-150400</v>
+        <v>-160300</v>
       </c>
       <c r="I96" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-119900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-115500</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3115,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3145,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3175,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-116900</v>
+        <v>-229600</v>
       </c>
       <c r="E100" s="3">
-        <v>-152600</v>
+        <v>-117000</v>
       </c>
       <c r="F100" s="3">
-        <v>98800</v>
+        <v>-152700</v>
       </c>
       <c r="G100" s="3">
-        <v>305300</v>
+        <v>98900</v>
       </c>
       <c r="H100" s="3">
-        <v>409800</v>
+        <v>305400</v>
       </c>
       <c r="I100" s="3">
-        <v>476500</v>
+        <v>409900</v>
       </c>
       <c r="J100" s="3">
+        <v>476700</v>
+      </c>
+      <c r="K100" s="3">
         <v>502800</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>39100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-32600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-29700</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>512200</v>
+        <v>6500</v>
       </c>
       <c r="E102" s="3">
+        <v>512400</v>
+      </c>
+      <c r="F102" s="3">
         <v>79500</v>
       </c>
-      <c r="F102" s="3">
-        <v>-562300</v>
-      </c>
       <c r="G102" s="3">
-        <v>328800</v>
+        <v>-562500</v>
       </c>
       <c r="H102" s="3">
-        <v>132200</v>
+        <v>328900</v>
       </c>
       <c r="I102" s="3">
-        <v>-564700</v>
+        <v>132300</v>
       </c>
       <c r="J102" s="3">
+        <v>-564900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-226100</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1656600</v>
+        <v>1695700</v>
       </c>
       <c r="E8" s="3">
-        <v>1300000</v>
+        <v>1330700</v>
       </c>
       <c r="F8" s="3">
-        <v>1075600</v>
+        <v>1101000</v>
       </c>
       <c r="G8" s="3">
-        <v>832400</v>
+        <v>852000</v>
       </c>
       <c r="H8" s="3">
-        <v>860200</v>
+        <v>880500</v>
       </c>
       <c r="I8" s="3">
-        <v>777600</v>
+        <v>795900</v>
       </c>
       <c r="J8" s="3">
-        <v>565300</v>
+        <v>578600</v>
       </c>
       <c r="K8" s="3">
         <v>563500</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>609000</v>
+        <v>623400</v>
       </c>
       <c r="E9" s="3">
-        <v>509500</v>
+        <v>521500</v>
       </c>
       <c r="F9" s="3">
-        <v>519900</v>
+        <v>532200</v>
       </c>
       <c r="G9" s="3">
-        <v>466300</v>
+        <v>477300</v>
       </c>
       <c r="H9" s="3">
-        <v>528800</v>
+        <v>541300</v>
       </c>
       <c r="I9" s="3">
-        <v>483700</v>
+        <v>495200</v>
       </c>
       <c r="J9" s="3">
-        <v>118600</v>
+        <v>121400</v>
       </c>
       <c r="K9" s="3">
         <v>92900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1047600</v>
+        <v>1072300</v>
       </c>
       <c r="E10" s="3">
-        <v>790600</v>
+        <v>809200</v>
       </c>
       <c r="F10" s="3">
-        <v>555700</v>
+        <v>568800</v>
       </c>
       <c r="G10" s="3">
-        <v>366100</v>
+        <v>374800</v>
       </c>
       <c r="H10" s="3">
-        <v>331300</v>
+        <v>339100</v>
       </c>
       <c r="I10" s="3">
-        <v>293900</v>
+        <v>300800</v>
       </c>
       <c r="J10" s="3">
-        <v>446600</v>
+        <v>457200</v>
       </c>
       <c r="K10" s="3">
         <v>470700</v>
@@ -830,13 +830,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I12" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J12" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K12" s="3">
         <v>2800</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-86700</v>
+        <v>-88700</v>
       </c>
       <c r="E14" s="3">
-        <v>334000</v>
+        <v>341900</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>96800</v>
+        <v>99100</v>
       </c>
       <c r="H14" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="I14" s="3">
-        <v>68000</v>
+        <v>69700</v>
       </c>
       <c r="J14" s="3">
-        <v>82700</v>
+        <v>84700</v>
       </c>
       <c r="K14" s="3">
         <v>40100</v>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>275600</v>
+        <v>282100</v>
       </c>
       <c r="K15" s="3">
         <v>207800</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>559800</v>
+        <v>573000</v>
       </c>
       <c r="E17" s="3">
-        <v>871200</v>
+        <v>891800</v>
       </c>
       <c r="F17" s="3">
-        <v>552900</v>
+        <v>566000</v>
       </c>
       <c r="G17" s="3">
-        <v>591800</v>
+        <v>605800</v>
       </c>
       <c r="H17" s="3">
-        <v>565900</v>
+        <v>579300</v>
       </c>
       <c r="I17" s="3">
-        <v>579600</v>
+        <v>593200</v>
       </c>
       <c r="J17" s="3">
-        <v>499700</v>
+        <v>511500</v>
       </c>
       <c r="K17" s="3">
         <v>364400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1096800</v>
+        <v>1122700</v>
       </c>
       <c r="E18" s="3">
-        <v>428800</v>
+        <v>438900</v>
       </c>
       <c r="F18" s="3">
-        <v>522700</v>
+        <v>535100</v>
       </c>
       <c r="G18" s="3">
-        <v>240600</v>
+        <v>246300</v>
       </c>
       <c r="H18" s="3">
-        <v>294200</v>
+        <v>301200</v>
       </c>
       <c r="I18" s="3">
-        <v>198000</v>
+        <v>202700</v>
       </c>
       <c r="J18" s="3">
-        <v>65600</v>
+        <v>67200</v>
       </c>
       <c r="K18" s="3">
         <v>199100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="I20" s="3">
-        <v>15900</v>
+        <v>16300</v>
       </c>
       <c r="J20" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1478500</v>
+        <v>1510000</v>
       </c>
       <c r="E21" s="3">
-        <v>743000</v>
+        <v>757800</v>
       </c>
       <c r="F21" s="3">
-        <v>865100</v>
+        <v>882500</v>
       </c>
       <c r="G21" s="3">
-        <v>558100</v>
+        <v>568500</v>
       </c>
       <c r="H21" s="3">
-        <v>650300</v>
+        <v>662500</v>
       </c>
       <c r="I21" s="3">
-        <v>564500</v>
+        <v>574800</v>
       </c>
       <c r="J21" s="3">
-        <v>338800</v>
+        <v>344300</v>
       </c>
       <c r="K21" s="3">
         <v>408500</v>
@@ -1089,7 +1089,7 @@
         <v>1800</v>
       </c>
       <c r="F22" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1093100</v>
+        <v>1118900</v>
       </c>
       <c r="E23" s="3">
-        <v>432600</v>
+        <v>442800</v>
       </c>
       <c r="F23" s="3">
-        <v>517200</v>
+        <v>529500</v>
       </c>
       <c r="G23" s="3">
-        <v>241000</v>
+        <v>246700</v>
       </c>
       <c r="H23" s="3">
-        <v>300700</v>
+        <v>307800</v>
       </c>
       <c r="I23" s="3">
-        <v>214000</v>
+        <v>219000</v>
       </c>
       <c r="J23" s="3">
-        <v>61800</v>
+        <v>63300</v>
       </c>
       <c r="K23" s="3">
         <v>200000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>158100</v>
+        <v>161900</v>
       </c>
       <c r="E24" s="3">
-        <v>16900</v>
+        <v>17300</v>
       </c>
       <c r="F24" s="3">
-        <v>78800</v>
+        <v>80600</v>
       </c>
       <c r="G24" s="3">
-        <v>61300</v>
+        <v>62700</v>
       </c>
       <c r="H24" s="3">
-        <v>43600</v>
+        <v>44600</v>
       </c>
       <c r="I24" s="3">
-        <v>58200</v>
+        <v>59600</v>
       </c>
       <c r="J24" s="3">
-        <v>30500</v>
+        <v>31200</v>
       </c>
       <c r="K24" s="3">
         <v>64100</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>935000</v>
+        <v>957000</v>
       </c>
       <c r="E26" s="3">
-        <v>415700</v>
+        <v>425500</v>
       </c>
       <c r="F26" s="3">
-        <v>438500</v>
+        <v>448800</v>
       </c>
       <c r="G26" s="3">
-        <v>179700</v>
+        <v>183900</v>
       </c>
       <c r="H26" s="3">
-        <v>257200</v>
+        <v>263200</v>
       </c>
       <c r="I26" s="3">
-        <v>155700</v>
+        <v>159400</v>
       </c>
       <c r="J26" s="3">
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="K26" s="3">
         <v>135900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>935000</v>
+        <v>957000</v>
       </c>
       <c r="E27" s="3">
-        <v>415700</v>
+        <v>425500</v>
       </c>
       <c r="F27" s="3">
-        <v>438500</v>
+        <v>448800</v>
       </c>
       <c r="G27" s="3">
-        <v>179700</v>
+        <v>183900</v>
       </c>
       <c r="H27" s="3">
-        <v>257200</v>
+        <v>263200</v>
       </c>
       <c r="I27" s="3">
-        <v>155700</v>
+        <v>159400</v>
       </c>
       <c r="J27" s="3">
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="K27" s="3">
         <v>135900</v>
@@ -1302,10 +1302,10 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="H29" s="3">
-        <v>-9000</v>
+        <v>-9300</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5600</v>
+        <v>-5700</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="I32" s="3">
-        <v>-15900</v>
+        <v>-16300</v>
       </c>
       <c r="J32" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>935000</v>
+        <v>957000</v>
       </c>
       <c r="E33" s="3">
-        <v>415700</v>
+        <v>425500</v>
       </c>
       <c r="F33" s="3">
-        <v>438500</v>
+        <v>448800</v>
       </c>
       <c r="G33" s="3">
-        <v>177100</v>
+        <v>181300</v>
       </c>
       <c r="H33" s="3">
-        <v>248100</v>
+        <v>254000</v>
       </c>
       <c r="I33" s="3">
-        <v>155700</v>
+        <v>159400</v>
       </c>
       <c r="J33" s="3">
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="K33" s="3">
         <v>135900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>935000</v>
+        <v>957000</v>
       </c>
       <c r="E35" s="3">
-        <v>415700</v>
+        <v>425500</v>
       </c>
       <c r="F35" s="3">
-        <v>438500</v>
+        <v>448800</v>
       </c>
       <c r="G35" s="3">
-        <v>177100</v>
+        <v>181300</v>
       </c>
       <c r="H35" s="3">
-        <v>248100</v>
+        <v>254000</v>
       </c>
       <c r="I35" s="3">
-        <v>155700</v>
+        <v>159400</v>
       </c>
       <c r="J35" s="3">
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="K35" s="3">
         <v>135900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>687200</v>
+        <v>703500</v>
       </c>
       <c r="E41" s="3">
-        <v>680700</v>
+        <v>696800</v>
       </c>
       <c r="F41" s="3">
-        <v>168300</v>
+        <v>172300</v>
       </c>
       <c r="G41" s="3">
-        <v>88800</v>
+        <v>90900</v>
       </c>
       <c r="H41" s="3">
-        <v>651300</v>
+        <v>666700</v>
       </c>
       <c r="I41" s="3">
-        <v>322400</v>
+        <v>330000</v>
       </c>
       <c r="J41" s="3">
-        <v>190100</v>
+        <v>194600</v>
       </c>
       <c r="K41" s="3">
         <v>754700</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>203300</v>
+        <v>208100</v>
       </c>
       <c r="E43" s="3">
-        <v>119000</v>
+        <v>121800</v>
       </c>
       <c r="F43" s="3">
-        <v>124600</v>
+        <v>127600</v>
       </c>
       <c r="G43" s="3">
-        <v>96200</v>
+        <v>98500</v>
       </c>
       <c r="H43" s="3">
-        <v>84000</v>
+        <v>86000</v>
       </c>
       <c r="I43" s="3">
-        <v>90600</v>
+        <v>92700</v>
       </c>
       <c r="J43" s="3">
-        <v>83000</v>
+        <v>84900</v>
       </c>
       <c r="K43" s="3">
         <v>91800</v>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="I44" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67000</v>
+        <v>68600</v>
       </c>
       <c r="E45" s="3">
-        <v>46000</v>
+        <v>47100</v>
       </c>
       <c r="F45" s="3">
-        <v>62200</v>
+        <v>63700</v>
       </c>
       <c r="G45" s="3">
-        <v>42400</v>
+        <v>43400</v>
       </c>
       <c r="H45" s="3">
-        <v>41200</v>
+        <v>42100</v>
       </c>
       <c r="I45" s="3">
-        <v>43800</v>
+        <v>44900</v>
       </c>
       <c r="J45" s="3">
-        <v>53000</v>
+        <v>54300</v>
       </c>
       <c r="K45" s="3">
         <v>43700</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>957500</v>
+        <v>980100</v>
       </c>
       <c r="E46" s="3">
-        <v>845800</v>
+        <v>865700</v>
       </c>
       <c r="F46" s="3">
-        <v>355100</v>
+        <v>363500</v>
       </c>
       <c r="G46" s="3">
-        <v>227500</v>
+        <v>232800</v>
       </c>
       <c r="H46" s="3">
-        <v>785500</v>
+        <v>804000</v>
       </c>
       <c r="I46" s="3">
-        <v>460300</v>
+        <v>471100</v>
       </c>
       <c r="J46" s="3">
-        <v>350100</v>
+        <v>358300</v>
       </c>
       <c r="K46" s="3">
         <v>890300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>299600</v>
+        <v>306700</v>
       </c>
       <c r="E47" s="3">
-        <v>296500</v>
+        <v>303500</v>
       </c>
       <c r="F47" s="3">
-        <v>229600</v>
+        <v>235100</v>
       </c>
       <c r="G47" s="3">
-        <v>215400</v>
+        <v>220400</v>
       </c>
       <c r="H47" s="3">
-        <v>257800</v>
+        <v>263900</v>
       </c>
       <c r="I47" s="3">
-        <v>186700</v>
+        <v>191100</v>
       </c>
       <c r="J47" s="3">
-        <v>120700</v>
+        <v>123500</v>
       </c>
       <c r="K47" s="3">
         <v>84700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6570800</v>
+        <v>6726000</v>
       </c>
       <c r="E48" s="3">
-        <v>5912100</v>
+        <v>6051800</v>
       </c>
       <c r="F48" s="3">
-        <v>6129400</v>
+        <v>6274200</v>
       </c>
       <c r="G48" s="3">
-        <v>5818800</v>
+        <v>5956300</v>
       </c>
       <c r="H48" s="3">
-        <v>5036700</v>
+        <v>5155600</v>
       </c>
       <c r="I48" s="3">
-        <v>4693200</v>
+        <v>4804100</v>
       </c>
       <c r="J48" s="3">
-        <v>4172800</v>
+        <v>4271400</v>
       </c>
       <c r="K48" s="3">
         <v>3358900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>85400</v>
+        <v>87400</v>
       </c>
       <c r="E52" s="3">
-        <v>72600</v>
+        <v>74400</v>
       </c>
       <c r="F52" s="3">
-        <v>14900</v>
+        <v>15300</v>
       </c>
       <c r="G52" s="3">
-        <v>22900</v>
+        <v>23500</v>
       </c>
       <c r="H52" s="3">
-        <v>21900</v>
+        <v>22400</v>
       </c>
       <c r="I52" s="3">
-        <v>39400</v>
+        <v>40300</v>
       </c>
       <c r="J52" s="3">
-        <v>38600</v>
+        <v>39500</v>
       </c>
       <c r="K52" s="3">
         <v>82300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7913300</v>
+        <v>8100200</v>
       </c>
       <c r="E54" s="3">
-        <v>7127000</v>
+        <v>7295400</v>
       </c>
       <c r="F54" s="3">
-        <v>6729100</v>
+        <v>6888000</v>
       </c>
       <c r="G54" s="3">
-        <v>6284600</v>
+        <v>6433000</v>
       </c>
       <c r="H54" s="3">
-        <v>6101900</v>
+        <v>6246000</v>
       </c>
       <c r="I54" s="3">
-        <v>5379600</v>
+        <v>5506700</v>
       </c>
       <c r="J54" s="3">
-        <v>4682200</v>
+        <v>4792800</v>
       </c>
       <c r="K54" s="3">
         <v>4416100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10800</v>
+        <v>11100</v>
       </c>
       <c r="E57" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F57" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="G57" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="H57" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="I57" s="3">
-        <v>12200</v>
+        <v>12500</v>
       </c>
       <c r="J57" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="K57" s="3">
         <v>7900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44200</v>
+        <v>45300</v>
       </c>
       <c r="E59" s="3">
-        <v>63300</v>
+        <v>64800</v>
       </c>
       <c r="F59" s="3">
-        <v>59400</v>
+        <v>60800</v>
       </c>
       <c r="G59" s="3">
-        <v>22600</v>
+        <v>23100</v>
       </c>
       <c r="H59" s="3">
-        <v>20900</v>
+        <v>21400</v>
       </c>
       <c r="I59" s="3">
-        <v>35700</v>
+        <v>36500</v>
       </c>
       <c r="J59" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="K59" s="3">
         <v>19000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55000</v>
+        <v>56400</v>
       </c>
       <c r="E60" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="F60" s="3">
-        <v>68000</v>
+        <v>69700</v>
       </c>
       <c r="G60" s="3">
-        <v>31900</v>
+        <v>32600</v>
       </c>
       <c r="H60" s="3">
-        <v>28800</v>
+        <v>29500</v>
       </c>
       <c r="I60" s="3">
-        <v>47900</v>
+        <v>49000</v>
       </c>
       <c r="J60" s="3">
-        <v>26500</v>
+        <v>27100</v>
       </c>
       <c r="K60" s="3">
         <v>26900</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>105300</v>
+        <v>107700</v>
       </c>
       <c r="G61" s="3">
-        <v>264500</v>
+        <v>270800</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>582700</v>
+        <v>596500</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>180300</v>
+        <v>184600</v>
       </c>
       <c r="E62" s="3">
-        <v>122200</v>
+        <v>125100</v>
       </c>
       <c r="F62" s="3">
-        <v>105000</v>
+        <v>107500</v>
       </c>
       <c r="G62" s="3">
-        <v>85800</v>
+        <v>87800</v>
       </c>
       <c r="H62" s="3">
-        <v>76800</v>
+        <v>78700</v>
       </c>
       <c r="I62" s="3">
-        <v>47800</v>
+        <v>48900</v>
       </c>
       <c r="J62" s="3">
-        <v>42300</v>
+        <v>43300</v>
       </c>
       <c r="K62" s="3">
         <v>51300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235400</v>
+        <v>240900</v>
       </c>
       <c r="E66" s="3">
-        <v>190000</v>
+        <v>194500</v>
       </c>
       <c r="F66" s="3">
-        <v>278300</v>
+        <v>284900</v>
       </c>
       <c r="G66" s="3">
-        <v>382200</v>
+        <v>391200</v>
       </c>
       <c r="H66" s="3">
-        <v>105600</v>
+        <v>108100</v>
       </c>
       <c r="I66" s="3">
-        <v>95700</v>
+        <v>98000</v>
       </c>
       <c r="J66" s="3">
-        <v>651500</v>
+        <v>666900</v>
       </c>
       <c r="K66" s="3">
         <v>78200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>617900</v>
+        <v>632500</v>
       </c>
       <c r="E72" s="3">
-        <v>-43800</v>
+        <v>-44900</v>
       </c>
       <c r="F72" s="3">
-        <v>-209500</v>
+        <v>-214400</v>
       </c>
       <c r="G72" s="3">
-        <v>-409900</v>
+        <v>-419600</v>
       </c>
       <c r="H72" s="3">
-        <v>-395000</v>
+        <v>-404400</v>
       </c>
       <c r="I72" s="3">
-        <v>-429200</v>
+        <v>-439300</v>
       </c>
       <c r="J72" s="3">
-        <v>-385100</v>
+        <v>-394200</v>
       </c>
       <c r="K72" s="3">
         <v>-252000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7677900</v>
+        <v>7859300</v>
       </c>
       <c r="E76" s="3">
-        <v>6937000</v>
+        <v>7100900</v>
       </c>
       <c r="F76" s="3">
-        <v>6450800</v>
+        <v>6603100</v>
       </c>
       <c r="G76" s="3">
-        <v>5902400</v>
+        <v>6041900</v>
       </c>
       <c r="H76" s="3">
-        <v>5996200</v>
+        <v>6137900</v>
       </c>
       <c r="I76" s="3">
-        <v>5283900</v>
+        <v>5408700</v>
       </c>
       <c r="J76" s="3">
-        <v>4030600</v>
+        <v>4125800</v>
       </c>
       <c r="K76" s="3">
         <v>4337900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>935000</v>
+        <v>957000</v>
       </c>
       <c r="E81" s="3">
-        <v>415700</v>
+        <v>425500</v>
       </c>
       <c r="F81" s="3">
-        <v>438500</v>
+        <v>448800</v>
       </c>
       <c r="G81" s="3">
-        <v>177100</v>
+        <v>181300</v>
       </c>
       <c r="H81" s="3">
-        <v>248100</v>
+        <v>254000</v>
       </c>
       <c r="I81" s="3">
-        <v>155700</v>
+        <v>159400</v>
       </c>
       <c r="J81" s="3">
-        <v>31300</v>
+        <v>32100</v>
       </c>
       <c r="K81" s="3">
         <v>135900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>381800</v>
+        <v>390800</v>
       </c>
       <c r="E83" s="3">
-        <v>307100</v>
+        <v>314400</v>
       </c>
       <c r="F83" s="3">
-        <v>335400</v>
+        <v>343300</v>
       </c>
       <c r="G83" s="3">
-        <v>315600</v>
+        <v>323100</v>
       </c>
       <c r="H83" s="3">
-        <v>347900</v>
+        <v>356100</v>
       </c>
       <c r="I83" s="3">
-        <v>348900</v>
+        <v>357100</v>
       </c>
       <c r="J83" s="3">
-        <v>275600</v>
+        <v>282100</v>
       </c>
       <c r="K83" s="3">
         <v>207800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1217500</v>
+        <v>1246200</v>
       </c>
       <c r="E89" s="3">
-        <v>1024400</v>
+        <v>1048600</v>
       </c>
       <c r="F89" s="3">
-        <v>787100</v>
+        <v>805700</v>
       </c>
       <c r="G89" s="3">
-        <v>605000</v>
+        <v>619300</v>
       </c>
       <c r="H89" s="3">
-        <v>622600</v>
+        <v>637300</v>
       </c>
       <c r="I89" s="3">
-        <v>600200</v>
+        <v>614400</v>
       </c>
       <c r="J89" s="3">
-        <v>400500</v>
+        <v>410000</v>
       </c>
       <c r="K89" s="3">
         <v>340100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-969100</v>
+        <v>-992000</v>
       </c>
       <c r="E91" s="3">
-        <v>-398300</v>
+        <v>-407800</v>
       </c>
       <c r="F91" s="3">
-        <v>-567300</v>
+        <v>-580700</v>
       </c>
       <c r="G91" s="3">
-        <v>-1261000</v>
+        <v>-1290800</v>
       </c>
       <c r="H91" s="3">
-        <v>-638700</v>
+        <v>-653800</v>
       </c>
       <c r="I91" s="3">
-        <v>-952000</v>
+        <v>-974500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300300</v>
+        <v>-1331000</v>
       </c>
       <c r="K91" s="3">
         <v>-1135800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-974800</v>
+        <v>-997900</v>
       </c>
       <c r="E94" s="3">
-        <v>-393800</v>
+        <v>-403100</v>
       </c>
       <c r="F94" s="3">
-        <v>-555700</v>
+        <v>-568800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1259900</v>
+        <v>-1289700</v>
       </c>
       <c r="H94" s="3">
-        <v>-638300</v>
+        <v>-653400</v>
       </c>
       <c r="I94" s="3">
-        <v>-879000</v>
+        <v>-899800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1409500</v>
+        <v>-1442800</v>
       </c>
       <c r="K94" s="3">
         <v>-1039300</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-228900</v>
+        <v>-234300</v>
       </c>
       <c r="E96" s="3">
-        <v>-197400</v>
+        <v>-202100</v>
       </c>
       <c r="F96" s="3">
-        <v>-176100</v>
+        <v>-180300</v>
       </c>
       <c r="G96" s="3">
-        <v>-173400</v>
+        <v>-177500</v>
       </c>
       <c r="H96" s="3">
-        <v>-160300</v>
+        <v>-164100</v>
       </c>
       <c r="I96" s="3">
-        <v>-150500</v>
+        <v>-154000</v>
       </c>
       <c r="J96" s="3">
-        <v>-119900</v>
+        <v>-122700</v>
       </c>
       <c r="K96" s="3">
         <v>-115500</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-229600</v>
+        <v>-235100</v>
       </c>
       <c r="E100" s="3">
-        <v>-117000</v>
+        <v>-119700</v>
       </c>
       <c r="F100" s="3">
-        <v>-152700</v>
+        <v>-156300</v>
       </c>
       <c r="G100" s="3">
-        <v>98900</v>
+        <v>101200</v>
       </c>
       <c r="H100" s="3">
-        <v>305400</v>
+        <v>312700</v>
       </c>
       <c r="I100" s="3">
-        <v>409900</v>
+        <v>419600</v>
       </c>
       <c r="J100" s="3">
-        <v>476700</v>
+        <v>488000</v>
       </c>
       <c r="K100" s="3">
         <v>502800</v>
@@ -3215,7 +3215,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="E101" s="3">
         <v>-1300</v>
@@ -3224,16 +3224,16 @@
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-6500</v>
+        <v>-6700</v>
       </c>
       <c r="H101" s="3">
-        <v>39100</v>
+        <v>40000</v>
       </c>
       <c r="I101" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-32600</v>
+        <v>-33400</v>
       </c>
       <c r="K101" s="3">
         <v>-29700</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="E102" s="3">
-        <v>512400</v>
+        <v>524500</v>
       </c>
       <c r="F102" s="3">
-        <v>79500</v>
+        <v>81400</v>
       </c>
       <c r="G102" s="3">
-        <v>-562500</v>
+        <v>-575800</v>
       </c>
       <c r="H102" s="3">
-        <v>328900</v>
+        <v>336700</v>
       </c>
       <c r="I102" s="3">
-        <v>132300</v>
+        <v>135400</v>
       </c>
       <c r="J102" s="3">
-        <v>-564900</v>
+        <v>-578200</v>
       </c>
       <c r="K102" s="3">
         <v>-226100</v>

--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1695700</v>
+        <v>1680100</v>
       </c>
       <c r="E8" s="3">
-        <v>1330700</v>
+        <v>1318500</v>
       </c>
       <c r="F8" s="3">
-        <v>1101000</v>
+        <v>1090900</v>
       </c>
       <c r="G8" s="3">
-        <v>852000</v>
+        <v>844200</v>
       </c>
       <c r="H8" s="3">
-        <v>880500</v>
+        <v>872400</v>
       </c>
       <c r="I8" s="3">
-        <v>795900</v>
+        <v>788600</v>
       </c>
       <c r="J8" s="3">
-        <v>578600</v>
+        <v>573300</v>
       </c>
       <c r="K8" s="3">
         <v>563500</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>623400</v>
+        <v>617600</v>
       </c>
       <c r="E9" s="3">
-        <v>521500</v>
+        <v>516700</v>
       </c>
       <c r="F9" s="3">
-        <v>532200</v>
+        <v>527300</v>
       </c>
       <c r="G9" s="3">
-        <v>477300</v>
+        <v>472900</v>
       </c>
       <c r="H9" s="3">
-        <v>541300</v>
+        <v>536300</v>
       </c>
       <c r="I9" s="3">
-        <v>495200</v>
+        <v>490600</v>
       </c>
       <c r="J9" s="3">
-        <v>121400</v>
+        <v>120300</v>
       </c>
       <c r="K9" s="3">
         <v>92900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1072300</v>
+        <v>1062500</v>
       </c>
       <c r="E10" s="3">
-        <v>809200</v>
+        <v>801800</v>
       </c>
       <c r="F10" s="3">
-        <v>568800</v>
+        <v>563600</v>
       </c>
       <c r="G10" s="3">
-        <v>374800</v>
+        <v>371300</v>
       </c>
       <c r="H10" s="3">
-        <v>339100</v>
+        <v>336000</v>
       </c>
       <c r="I10" s="3">
-        <v>300800</v>
+        <v>298000</v>
       </c>
       <c r="J10" s="3">
-        <v>457200</v>
+        <v>453000</v>
       </c>
       <c r="K10" s="3">
         <v>470700</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-88700</v>
+        <v>-87900</v>
       </c>
       <c r="E14" s="3">
-        <v>341900</v>
+        <v>338700</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>99100</v>
+        <v>98200</v>
       </c>
       <c r="H14" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="I14" s="3">
-        <v>69700</v>
+        <v>69000</v>
       </c>
       <c r="J14" s="3">
-        <v>84700</v>
+        <v>83900</v>
       </c>
       <c r="K14" s="3">
         <v>40100</v>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>282100</v>
+        <v>279500</v>
       </c>
       <c r="K15" s="3">
         <v>207800</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>573000</v>
+        <v>567800</v>
       </c>
       <c r="E17" s="3">
-        <v>891800</v>
+        <v>883600</v>
       </c>
       <c r="F17" s="3">
-        <v>566000</v>
+        <v>560800</v>
       </c>
       <c r="G17" s="3">
-        <v>605800</v>
+        <v>600200</v>
       </c>
       <c r="H17" s="3">
-        <v>579300</v>
+        <v>574000</v>
       </c>
       <c r="I17" s="3">
-        <v>593200</v>
+        <v>587800</v>
       </c>
       <c r="J17" s="3">
-        <v>511500</v>
+        <v>506800</v>
       </c>
       <c r="K17" s="3">
         <v>364400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1122700</v>
+        <v>1112400</v>
       </c>
       <c r="E18" s="3">
-        <v>438900</v>
+        <v>434900</v>
       </c>
       <c r="F18" s="3">
-        <v>535100</v>
+        <v>530100</v>
       </c>
       <c r="G18" s="3">
-        <v>246300</v>
+        <v>244000</v>
       </c>
       <c r="H18" s="3">
-        <v>301200</v>
+        <v>298400</v>
       </c>
       <c r="I18" s="3">
-        <v>202700</v>
+        <v>200800</v>
       </c>
       <c r="J18" s="3">
-        <v>67200</v>
+        <v>66600</v>
       </c>
       <c r="K18" s="3">
         <v>199100</v>
@@ -1023,22 +1023,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="E20" s="3">
         <v>5700</v>
       </c>
       <c r="F20" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="I20" s="3">
-        <v>16300</v>
+        <v>16200</v>
       </c>
       <c r="J20" s="3">
         <v>-3900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1510000</v>
+        <v>1498900</v>
       </c>
       <c r="E21" s="3">
-        <v>757800</v>
+        <v>753000</v>
       </c>
       <c r="F21" s="3">
-        <v>882500</v>
+        <v>876800</v>
       </c>
       <c r="G21" s="3">
-        <v>568500</v>
+        <v>565500</v>
       </c>
       <c r="H21" s="3">
-        <v>662500</v>
+        <v>659000</v>
       </c>
       <c r="I21" s="3">
-        <v>574800</v>
+        <v>572000</v>
       </c>
       <c r="J21" s="3">
-        <v>344300</v>
+        <v>343100</v>
       </c>
       <c r="K21" s="3">
         <v>408500</v>
@@ -1089,7 +1089,7 @@
         <v>1800</v>
       </c>
       <c r="F22" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1118900</v>
+        <v>1108600</v>
       </c>
       <c r="E23" s="3">
-        <v>442800</v>
+        <v>438800</v>
       </c>
       <c r="F23" s="3">
-        <v>529500</v>
+        <v>524600</v>
       </c>
       <c r="G23" s="3">
-        <v>246700</v>
+        <v>244400</v>
       </c>
       <c r="H23" s="3">
-        <v>307800</v>
+        <v>305000</v>
       </c>
       <c r="I23" s="3">
-        <v>219000</v>
+        <v>217000</v>
       </c>
       <c r="J23" s="3">
-        <v>63300</v>
+        <v>62700</v>
       </c>
       <c r="K23" s="3">
         <v>200000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>161900</v>
+        <v>160400</v>
       </c>
       <c r="E24" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="F24" s="3">
-        <v>80600</v>
+        <v>79900</v>
       </c>
       <c r="G24" s="3">
-        <v>62700</v>
+        <v>62200</v>
       </c>
       <c r="H24" s="3">
-        <v>44600</v>
+        <v>44200</v>
       </c>
       <c r="I24" s="3">
-        <v>59600</v>
+        <v>59100</v>
       </c>
       <c r="J24" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="K24" s="3">
         <v>64100</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>957000</v>
+        <v>948200</v>
       </c>
       <c r="E26" s="3">
-        <v>425500</v>
+        <v>421600</v>
       </c>
       <c r="F26" s="3">
-        <v>448800</v>
+        <v>444700</v>
       </c>
       <c r="G26" s="3">
-        <v>183900</v>
+        <v>182200</v>
       </c>
       <c r="H26" s="3">
-        <v>263200</v>
+        <v>260800</v>
       </c>
       <c r="I26" s="3">
-        <v>159400</v>
+        <v>157900</v>
       </c>
       <c r="J26" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="K26" s="3">
         <v>135900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>957000</v>
+        <v>948200</v>
       </c>
       <c r="E27" s="3">
-        <v>425500</v>
+        <v>421600</v>
       </c>
       <c r="F27" s="3">
-        <v>448800</v>
+        <v>444700</v>
       </c>
       <c r="G27" s="3">
-        <v>183900</v>
+        <v>182200</v>
       </c>
       <c r="H27" s="3">
-        <v>263200</v>
+        <v>260800</v>
       </c>
       <c r="I27" s="3">
-        <v>159400</v>
+        <v>157900</v>
       </c>
       <c r="J27" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="K27" s="3">
         <v>135900</v>
@@ -1305,7 +1305,7 @@
         <v>-2600</v>
       </c>
       <c r="H29" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1383,22 +1383,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E32" s="3">
         <v>-5700</v>
       </c>
       <c r="F32" s="3">
-        <v>-5500</v>
+        <v>-5400</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="I32" s="3">
-        <v>-16300</v>
+        <v>-16200</v>
       </c>
       <c r="J32" s="3">
         <v>3900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>957000</v>
+        <v>948200</v>
       </c>
       <c r="E33" s="3">
-        <v>425500</v>
+        <v>421600</v>
       </c>
       <c r="F33" s="3">
-        <v>448800</v>
+        <v>444700</v>
       </c>
       <c r="G33" s="3">
-        <v>181300</v>
+        <v>179600</v>
       </c>
       <c r="H33" s="3">
-        <v>254000</v>
+        <v>251600</v>
       </c>
       <c r="I33" s="3">
-        <v>159400</v>
+        <v>157900</v>
       </c>
       <c r="J33" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="K33" s="3">
         <v>135900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>957000</v>
+        <v>948200</v>
       </c>
       <c r="E35" s="3">
-        <v>425500</v>
+        <v>421600</v>
       </c>
       <c r="F35" s="3">
-        <v>448800</v>
+        <v>444700</v>
       </c>
       <c r="G35" s="3">
-        <v>181300</v>
+        <v>179600</v>
       </c>
       <c r="H35" s="3">
-        <v>254000</v>
+        <v>251600</v>
       </c>
       <c r="I35" s="3">
-        <v>159400</v>
+        <v>157900</v>
       </c>
       <c r="J35" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="K35" s="3">
         <v>135900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>703500</v>
+        <v>697000</v>
       </c>
       <c r="E41" s="3">
-        <v>696800</v>
+        <v>690400</v>
       </c>
       <c r="F41" s="3">
-        <v>172300</v>
+        <v>170700</v>
       </c>
       <c r="G41" s="3">
-        <v>90900</v>
+        <v>90100</v>
       </c>
       <c r="H41" s="3">
-        <v>666700</v>
+        <v>660500</v>
       </c>
       <c r="I41" s="3">
-        <v>330000</v>
+        <v>327000</v>
       </c>
       <c r="J41" s="3">
-        <v>194600</v>
+        <v>192800</v>
       </c>
       <c r="K41" s="3">
         <v>754700</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>24500</v>
+        <v>24300</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>208100</v>
+        <v>206100</v>
       </c>
       <c r="E43" s="3">
-        <v>121800</v>
+        <v>120700</v>
       </c>
       <c r="F43" s="3">
-        <v>127600</v>
+        <v>126400</v>
       </c>
       <c r="G43" s="3">
-        <v>98500</v>
+        <v>97600</v>
       </c>
       <c r="H43" s="3">
-        <v>86000</v>
+        <v>85200</v>
       </c>
       <c r="I43" s="3">
-        <v>92700</v>
+        <v>91900</v>
       </c>
       <c r="J43" s="3">
-        <v>84900</v>
+        <v>84100</v>
       </c>
       <c r="K43" s="3">
         <v>91800</v>
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>9300</v>
+        <v>9200</v>
       </c>
       <c r="I44" s="3">
         <v>3500</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68600</v>
+        <v>68000</v>
       </c>
       <c r="E45" s="3">
-        <v>47100</v>
+        <v>46700</v>
       </c>
       <c r="F45" s="3">
-        <v>63700</v>
+        <v>63100</v>
       </c>
       <c r="G45" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="H45" s="3">
-        <v>42100</v>
+        <v>41700</v>
       </c>
       <c r="I45" s="3">
-        <v>44900</v>
+        <v>44500</v>
       </c>
       <c r="J45" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="K45" s="3">
         <v>43700</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>980100</v>
+        <v>971100</v>
       </c>
       <c r="E46" s="3">
-        <v>865700</v>
+        <v>857800</v>
       </c>
       <c r="F46" s="3">
-        <v>363500</v>
+        <v>360200</v>
       </c>
       <c r="G46" s="3">
-        <v>232800</v>
+        <v>230700</v>
       </c>
       <c r="H46" s="3">
-        <v>804000</v>
+        <v>796600</v>
       </c>
       <c r="I46" s="3">
-        <v>471100</v>
+        <v>466800</v>
       </c>
       <c r="J46" s="3">
-        <v>358300</v>
+        <v>355000</v>
       </c>
       <c r="K46" s="3">
         <v>890300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>306700</v>
+        <v>303800</v>
       </c>
       <c r="E47" s="3">
-        <v>303500</v>
+        <v>300700</v>
       </c>
       <c r="F47" s="3">
-        <v>235100</v>
+        <v>232900</v>
       </c>
       <c r="G47" s="3">
-        <v>220400</v>
+        <v>218400</v>
       </c>
       <c r="H47" s="3">
-        <v>263900</v>
+        <v>261500</v>
       </c>
       <c r="I47" s="3">
-        <v>191100</v>
+        <v>189300</v>
       </c>
       <c r="J47" s="3">
-        <v>123500</v>
+        <v>122400</v>
       </c>
       <c r="K47" s="3">
         <v>84700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6726000</v>
+        <v>6664100</v>
       </c>
       <c r="E48" s="3">
-        <v>6051800</v>
+        <v>5996100</v>
       </c>
       <c r="F48" s="3">
-        <v>6274200</v>
+        <v>6216400</v>
       </c>
       <c r="G48" s="3">
-        <v>5956300</v>
+        <v>5901500</v>
       </c>
       <c r="H48" s="3">
-        <v>5155600</v>
+        <v>5108200</v>
       </c>
       <c r="I48" s="3">
-        <v>4804100</v>
+        <v>4759900</v>
       </c>
       <c r="J48" s="3">
-        <v>4271400</v>
+        <v>4232100</v>
       </c>
       <c r="K48" s="3">
         <v>3358900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>87400</v>
+        <v>86600</v>
       </c>
       <c r="E52" s="3">
-        <v>74400</v>
+        <v>73700</v>
       </c>
       <c r="F52" s="3">
-        <v>15300</v>
+        <v>15100</v>
       </c>
       <c r="G52" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="H52" s="3">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="I52" s="3">
-        <v>40300</v>
+        <v>39900</v>
       </c>
       <c r="J52" s="3">
-        <v>39500</v>
+        <v>39200</v>
       </c>
       <c r="K52" s="3">
         <v>82300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8100200</v>
+        <v>8025700</v>
       </c>
       <c r="E54" s="3">
-        <v>7295400</v>
+        <v>7228300</v>
       </c>
       <c r="F54" s="3">
-        <v>6888000</v>
+        <v>6824600</v>
       </c>
       <c r="G54" s="3">
-        <v>6433000</v>
+        <v>6373900</v>
       </c>
       <c r="H54" s="3">
-        <v>6246000</v>
+        <v>6188500</v>
       </c>
       <c r="I54" s="3">
-        <v>5506700</v>
+        <v>5456000</v>
       </c>
       <c r="J54" s="3">
-        <v>4792800</v>
+        <v>4748700</v>
       </c>
       <c r="K54" s="3">
         <v>4416100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="E57" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="F57" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="G57" s="3">
-        <v>9500</v>
+        <v>9400</v>
       </c>
       <c r="H57" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I57" s="3">
-        <v>12500</v>
+        <v>12400</v>
       </c>
       <c r="J57" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="K57" s="3">
         <v>7900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45300</v>
+        <v>44800</v>
       </c>
       <c r="E59" s="3">
-        <v>64800</v>
+        <v>64200</v>
       </c>
       <c r="F59" s="3">
-        <v>60800</v>
+        <v>60200</v>
       </c>
       <c r="G59" s="3">
-        <v>23100</v>
+        <v>22900</v>
       </c>
       <c r="H59" s="3">
-        <v>21400</v>
+        <v>21200</v>
       </c>
       <c r="I59" s="3">
-        <v>36500</v>
+        <v>36200</v>
       </c>
       <c r="J59" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="K59" s="3">
         <v>19000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56400</v>
+        <v>55800</v>
       </c>
       <c r="E60" s="3">
-        <v>69400</v>
+        <v>68800</v>
       </c>
       <c r="F60" s="3">
-        <v>69700</v>
+        <v>69000</v>
       </c>
       <c r="G60" s="3">
-        <v>32600</v>
+        <v>32300</v>
       </c>
       <c r="H60" s="3">
-        <v>29500</v>
+        <v>29200</v>
       </c>
       <c r="I60" s="3">
-        <v>49000</v>
+        <v>48600</v>
       </c>
       <c r="J60" s="3">
-        <v>27100</v>
+        <v>26900</v>
       </c>
       <c r="K60" s="3">
         <v>26900</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>107700</v>
+        <v>106800</v>
       </c>
       <c r="G61" s="3">
-        <v>270800</v>
+        <v>268300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>596500</v>
+        <v>591000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>184600</v>
+        <v>182900</v>
       </c>
       <c r="E62" s="3">
-        <v>125100</v>
+        <v>123900</v>
       </c>
       <c r="F62" s="3">
-        <v>107500</v>
+        <v>106500</v>
       </c>
       <c r="G62" s="3">
-        <v>87800</v>
+        <v>87000</v>
       </c>
       <c r="H62" s="3">
-        <v>78700</v>
+        <v>77900</v>
       </c>
       <c r="I62" s="3">
-        <v>48900</v>
+        <v>48500</v>
       </c>
       <c r="J62" s="3">
-        <v>43300</v>
+        <v>42900</v>
       </c>
       <c r="K62" s="3">
         <v>51300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>240900</v>
+        <v>238700</v>
       </c>
       <c r="E66" s="3">
-        <v>194500</v>
+        <v>192700</v>
       </c>
       <c r="F66" s="3">
-        <v>284900</v>
+        <v>282300</v>
       </c>
       <c r="G66" s="3">
-        <v>391200</v>
+        <v>387600</v>
       </c>
       <c r="H66" s="3">
-        <v>108100</v>
+        <v>107100</v>
       </c>
       <c r="I66" s="3">
-        <v>98000</v>
+        <v>97100</v>
       </c>
       <c r="J66" s="3">
-        <v>666900</v>
+        <v>660800</v>
       </c>
       <c r="K66" s="3">
         <v>78200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>632500</v>
+        <v>626700</v>
       </c>
       <c r="E72" s="3">
-        <v>-44900</v>
+        <v>-44500</v>
       </c>
       <c r="F72" s="3">
-        <v>-214400</v>
+        <v>-212500</v>
       </c>
       <c r="G72" s="3">
-        <v>-419600</v>
+        <v>-415800</v>
       </c>
       <c r="H72" s="3">
-        <v>-404400</v>
+        <v>-400600</v>
       </c>
       <c r="I72" s="3">
-        <v>-439300</v>
+        <v>-435300</v>
       </c>
       <c r="J72" s="3">
-        <v>-394200</v>
+        <v>-390600</v>
       </c>
       <c r="K72" s="3">
         <v>-252000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7859300</v>
+        <v>7787000</v>
       </c>
       <c r="E76" s="3">
-        <v>7100900</v>
+        <v>7035600</v>
       </c>
       <c r="F76" s="3">
-        <v>6603100</v>
+        <v>6542400</v>
       </c>
       <c r="G76" s="3">
-        <v>6041900</v>
+        <v>5986300</v>
       </c>
       <c r="H76" s="3">
-        <v>6137900</v>
+        <v>6081400</v>
       </c>
       <c r="I76" s="3">
-        <v>5408700</v>
+        <v>5358900</v>
       </c>
       <c r="J76" s="3">
-        <v>4125800</v>
+        <v>4087900</v>
       </c>
       <c r="K76" s="3">
         <v>4337900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>957000</v>
+        <v>948200</v>
       </c>
       <c r="E81" s="3">
-        <v>425500</v>
+        <v>421600</v>
       </c>
       <c r="F81" s="3">
-        <v>448800</v>
+        <v>444700</v>
       </c>
       <c r="G81" s="3">
-        <v>181300</v>
+        <v>179600</v>
       </c>
       <c r="H81" s="3">
-        <v>254000</v>
+        <v>251600</v>
       </c>
       <c r="I81" s="3">
-        <v>159400</v>
+        <v>157900</v>
       </c>
       <c r="J81" s="3">
-        <v>32100</v>
+        <v>31800</v>
       </c>
       <c r="K81" s="3">
         <v>135900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>390800</v>
+        <v>387200</v>
       </c>
       <c r="E83" s="3">
-        <v>314400</v>
+        <v>311500</v>
       </c>
       <c r="F83" s="3">
-        <v>343300</v>
+        <v>340200</v>
       </c>
       <c r="G83" s="3">
-        <v>323100</v>
+        <v>320100</v>
       </c>
       <c r="H83" s="3">
-        <v>356100</v>
+        <v>352800</v>
       </c>
       <c r="I83" s="3">
-        <v>357100</v>
+        <v>353900</v>
       </c>
       <c r="J83" s="3">
-        <v>282100</v>
+        <v>279500</v>
       </c>
       <c r="K83" s="3">
         <v>207800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1246200</v>
+        <v>1234800</v>
       </c>
       <c r="E89" s="3">
-        <v>1048600</v>
+        <v>1039000</v>
       </c>
       <c r="F89" s="3">
-        <v>805700</v>
+        <v>798300</v>
       </c>
       <c r="G89" s="3">
-        <v>619300</v>
+        <v>613600</v>
       </c>
       <c r="H89" s="3">
-        <v>637300</v>
+        <v>631500</v>
       </c>
       <c r="I89" s="3">
-        <v>614400</v>
+        <v>608700</v>
       </c>
       <c r="J89" s="3">
-        <v>410000</v>
+        <v>406200</v>
       </c>
       <c r="K89" s="3">
         <v>340100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-992000</v>
+        <v>-982900</v>
       </c>
       <c r="E91" s="3">
-        <v>-407800</v>
+        <v>-404000</v>
       </c>
       <c r="F91" s="3">
-        <v>-580700</v>
+        <v>-575400</v>
       </c>
       <c r="G91" s="3">
-        <v>-1290800</v>
+        <v>-1279000</v>
       </c>
       <c r="H91" s="3">
-        <v>-653800</v>
+        <v>-647800</v>
       </c>
       <c r="I91" s="3">
-        <v>-974500</v>
+        <v>-965600</v>
       </c>
       <c r="J91" s="3">
-        <v>-1331000</v>
+        <v>-1318800</v>
       </c>
       <c r="K91" s="3">
         <v>-1135800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-997900</v>
+        <v>-988700</v>
       </c>
       <c r="E94" s="3">
-        <v>-403100</v>
+        <v>-399400</v>
       </c>
       <c r="F94" s="3">
-        <v>-568800</v>
+        <v>-563600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1289700</v>
+        <v>-1277800</v>
       </c>
       <c r="H94" s="3">
-        <v>-653400</v>
+        <v>-647400</v>
       </c>
       <c r="I94" s="3">
-        <v>-899800</v>
+        <v>-891500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1442800</v>
+        <v>-1429500</v>
       </c>
       <c r="K94" s="3">
         <v>-1039300</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-234300</v>
+        <v>-232100</v>
       </c>
       <c r="E96" s="3">
-        <v>-202100</v>
+        <v>-200200</v>
       </c>
       <c r="F96" s="3">
-        <v>-180300</v>
+        <v>-178600</v>
       </c>
       <c r="G96" s="3">
-        <v>-177500</v>
+        <v>-175900</v>
       </c>
       <c r="H96" s="3">
-        <v>-164100</v>
+        <v>-162600</v>
       </c>
       <c r="I96" s="3">
-        <v>-154000</v>
+        <v>-152600</v>
       </c>
       <c r="J96" s="3">
-        <v>-122700</v>
+        <v>-121600</v>
       </c>
       <c r="K96" s="3">
         <v>-115500</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-235100</v>
+        <v>-232900</v>
       </c>
       <c r="E100" s="3">
-        <v>-119700</v>
+        <v>-118600</v>
       </c>
       <c r="F100" s="3">
-        <v>-156300</v>
+        <v>-154800</v>
       </c>
       <c r="G100" s="3">
-        <v>101200</v>
+        <v>100300</v>
       </c>
       <c r="H100" s="3">
-        <v>312700</v>
+        <v>309800</v>
       </c>
       <c r="I100" s="3">
-        <v>419600</v>
+        <v>415800</v>
       </c>
       <c r="J100" s="3">
-        <v>488000</v>
+        <v>483500</v>
       </c>
       <c r="K100" s="3">
         <v>502800</v>
@@ -3215,7 +3215,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="E101" s="3">
         <v>-1300</v>
@@ -3224,16 +3224,16 @@
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-6700</v>
+        <v>-6600</v>
       </c>
       <c r="H101" s="3">
-        <v>40000</v>
+        <v>39700</v>
       </c>
       <c r="I101" s="3">
         <v>1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-33400</v>
+        <v>-33100</v>
       </c>
       <c r="K101" s="3">
         <v>-29700</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6700</v>
+        <v>6600</v>
       </c>
       <c r="E102" s="3">
-        <v>524500</v>
+        <v>519700</v>
       </c>
       <c r="F102" s="3">
-        <v>81400</v>
+        <v>80600</v>
       </c>
       <c r="G102" s="3">
-        <v>-575800</v>
+        <v>-570500</v>
       </c>
       <c r="H102" s="3">
-        <v>336700</v>
+        <v>333600</v>
       </c>
       <c r="I102" s="3">
-        <v>135400</v>
+        <v>134200</v>
       </c>
       <c r="J102" s="3">
-        <v>-578200</v>
+        <v>-572900</v>
       </c>
       <c r="K102" s="3">
         <v>-226100</v>

--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1680100</v>
+        <v>1731300</v>
       </c>
       <c r="E8" s="3">
-        <v>1318500</v>
+        <v>1358700</v>
       </c>
       <c r="F8" s="3">
-        <v>1090900</v>
+        <v>1124200</v>
       </c>
       <c r="G8" s="3">
-        <v>844200</v>
+        <v>869900</v>
       </c>
       <c r="H8" s="3">
-        <v>872400</v>
+        <v>899000</v>
       </c>
       <c r="I8" s="3">
-        <v>788600</v>
+        <v>812700</v>
       </c>
       <c r="J8" s="3">
-        <v>573300</v>
+        <v>590800</v>
       </c>
       <c r="K8" s="3">
         <v>563500</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>617600</v>
+        <v>636500</v>
       </c>
       <c r="E9" s="3">
-        <v>516700</v>
+        <v>532500</v>
       </c>
       <c r="F9" s="3">
-        <v>527300</v>
+        <v>543400</v>
       </c>
       <c r="G9" s="3">
-        <v>472900</v>
+        <v>487300</v>
       </c>
       <c r="H9" s="3">
-        <v>536300</v>
+        <v>552700</v>
       </c>
       <c r="I9" s="3">
-        <v>490600</v>
+        <v>505600</v>
       </c>
       <c r="J9" s="3">
-        <v>120300</v>
+        <v>124000</v>
       </c>
       <c r="K9" s="3">
         <v>92900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1062500</v>
+        <v>1094900</v>
       </c>
       <c r="E10" s="3">
-        <v>801800</v>
+        <v>826200</v>
       </c>
       <c r="F10" s="3">
-        <v>563600</v>
+        <v>580800</v>
       </c>
       <c r="G10" s="3">
-        <v>371300</v>
+        <v>382600</v>
       </c>
       <c r="H10" s="3">
-        <v>336000</v>
+        <v>346300</v>
       </c>
       <c r="I10" s="3">
-        <v>298000</v>
+        <v>307100</v>
       </c>
       <c r="J10" s="3">
-        <v>453000</v>
+        <v>466800</v>
       </c>
       <c r="K10" s="3">
         <v>470700</v>
@@ -830,13 +830,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="I12" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="J12" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K12" s="3">
         <v>2800</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-87900</v>
+        <v>-90600</v>
       </c>
       <c r="E14" s="3">
-        <v>338700</v>
+        <v>349100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>98200</v>
+        <v>101200</v>
       </c>
       <c r="H14" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="I14" s="3">
-        <v>69000</v>
+        <v>71100</v>
       </c>
       <c r="J14" s="3">
-        <v>83900</v>
+        <v>86400</v>
       </c>
       <c r="K14" s="3">
         <v>40100</v>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>279500</v>
+        <v>288100</v>
       </c>
       <c r="K15" s="3">
         <v>207800</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>567800</v>
+        <v>585100</v>
       </c>
       <c r="E17" s="3">
-        <v>883600</v>
+        <v>910600</v>
       </c>
       <c r="F17" s="3">
-        <v>560800</v>
+        <v>577900</v>
       </c>
       <c r="G17" s="3">
-        <v>600200</v>
+        <v>618500</v>
       </c>
       <c r="H17" s="3">
-        <v>574000</v>
+        <v>591500</v>
       </c>
       <c r="I17" s="3">
-        <v>587800</v>
+        <v>605700</v>
       </c>
       <c r="J17" s="3">
-        <v>506800</v>
+        <v>522200</v>
       </c>
       <c r="K17" s="3">
         <v>364400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1112400</v>
+        <v>1146300</v>
       </c>
       <c r="E18" s="3">
-        <v>434900</v>
+        <v>448200</v>
       </c>
       <c r="F18" s="3">
-        <v>530100</v>
+        <v>546300</v>
       </c>
       <c r="G18" s="3">
-        <v>244000</v>
+        <v>251400</v>
       </c>
       <c r="H18" s="3">
-        <v>298400</v>
+        <v>307500</v>
       </c>
       <c r="I18" s="3">
-        <v>200800</v>
+        <v>207000</v>
       </c>
       <c r="J18" s="3">
-        <v>66600</v>
+        <v>68600</v>
       </c>
       <c r="K18" s="3">
         <v>199100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1900</v>
+        <v>-2000</v>
       </c>
       <c r="E20" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F20" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="I20" s="3">
-        <v>16200</v>
+        <v>16600</v>
       </c>
       <c r="J20" s="3">
-        <v>-3900</v>
+        <v>-4000</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1498900</v>
+        <v>1549500</v>
       </c>
       <c r="E21" s="3">
-        <v>753000</v>
+        <v>780000</v>
       </c>
       <c r="F21" s="3">
-        <v>876800</v>
+        <v>907900</v>
       </c>
       <c r="G21" s="3">
-        <v>565500</v>
+        <v>586900</v>
       </c>
       <c r="H21" s="3">
-        <v>659000</v>
+        <v>683600</v>
       </c>
       <c r="I21" s="3">
-        <v>572000</v>
+        <v>594000</v>
       </c>
       <c r="J21" s="3">
-        <v>343100</v>
+        <v>357200</v>
       </c>
       <c r="K21" s="3">
         <v>408500</v>
@@ -1083,13 +1083,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F22" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1108600</v>
+        <v>1142400</v>
       </c>
       <c r="E23" s="3">
-        <v>438800</v>
+        <v>452100</v>
       </c>
       <c r="F23" s="3">
-        <v>524600</v>
+        <v>540600</v>
       </c>
       <c r="G23" s="3">
-        <v>244400</v>
+        <v>251800</v>
       </c>
       <c r="H23" s="3">
-        <v>305000</v>
+        <v>314300</v>
       </c>
       <c r="I23" s="3">
-        <v>217000</v>
+        <v>223600</v>
       </c>
       <c r="J23" s="3">
-        <v>62700</v>
+        <v>64600</v>
       </c>
       <c r="K23" s="3">
         <v>200000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>160400</v>
+        <v>165300</v>
       </c>
       <c r="E24" s="3">
-        <v>17200</v>
+        <v>17700</v>
       </c>
       <c r="F24" s="3">
-        <v>79900</v>
+        <v>82300</v>
       </c>
       <c r="G24" s="3">
-        <v>62200</v>
+        <v>64100</v>
       </c>
       <c r="H24" s="3">
-        <v>44200</v>
+        <v>45500</v>
       </c>
       <c r="I24" s="3">
-        <v>59100</v>
+        <v>60900</v>
       </c>
       <c r="J24" s="3">
-        <v>30900</v>
+        <v>31800</v>
       </c>
       <c r="K24" s="3">
         <v>64100</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>948200</v>
+        <v>977100</v>
       </c>
       <c r="E26" s="3">
-        <v>421600</v>
+        <v>434400</v>
       </c>
       <c r="F26" s="3">
-        <v>444700</v>
+        <v>458300</v>
       </c>
       <c r="G26" s="3">
-        <v>182200</v>
+        <v>187800</v>
       </c>
       <c r="H26" s="3">
-        <v>260800</v>
+        <v>268800</v>
       </c>
       <c r="I26" s="3">
-        <v>157900</v>
+        <v>162700</v>
       </c>
       <c r="J26" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="K26" s="3">
         <v>135900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>948200</v>
+        <v>977100</v>
       </c>
       <c r="E27" s="3">
-        <v>421600</v>
+        <v>434400</v>
       </c>
       <c r="F27" s="3">
-        <v>444700</v>
+        <v>458300</v>
       </c>
       <c r="G27" s="3">
-        <v>182200</v>
+        <v>187800</v>
       </c>
       <c r="H27" s="3">
-        <v>260800</v>
+        <v>268800</v>
       </c>
       <c r="I27" s="3">
-        <v>157900</v>
+        <v>162700</v>
       </c>
       <c r="J27" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="K27" s="3">
         <v>135900</v>
@@ -1302,10 +1302,10 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H29" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E32" s="3">
-        <v>-5700</v>
+        <v>-5900</v>
       </c>
       <c r="F32" s="3">
-        <v>-5400</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="I32" s="3">
-        <v>-16200</v>
+        <v>-16600</v>
       </c>
       <c r="J32" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>948200</v>
+        <v>977100</v>
       </c>
       <c r="E33" s="3">
-        <v>421600</v>
+        <v>434400</v>
       </c>
       <c r="F33" s="3">
-        <v>444700</v>
+        <v>458300</v>
       </c>
       <c r="G33" s="3">
-        <v>179600</v>
+        <v>185100</v>
       </c>
       <c r="H33" s="3">
-        <v>251600</v>
+        <v>259300</v>
       </c>
       <c r="I33" s="3">
-        <v>157900</v>
+        <v>162700</v>
       </c>
       <c r="J33" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="K33" s="3">
         <v>135900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>948200</v>
+        <v>977100</v>
       </c>
       <c r="E35" s="3">
-        <v>421600</v>
+        <v>434400</v>
       </c>
       <c r="F35" s="3">
-        <v>444700</v>
+        <v>458300</v>
       </c>
       <c r="G35" s="3">
-        <v>179600</v>
+        <v>185100</v>
       </c>
       <c r="H35" s="3">
-        <v>251600</v>
+        <v>259300</v>
       </c>
       <c r="I35" s="3">
-        <v>157900</v>
+        <v>162700</v>
       </c>
       <c r="J35" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="K35" s="3">
         <v>135900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>697000</v>
+        <v>718200</v>
       </c>
       <c r="E41" s="3">
-        <v>690400</v>
+        <v>711400</v>
       </c>
       <c r="F41" s="3">
-        <v>170700</v>
+        <v>175900</v>
       </c>
       <c r="G41" s="3">
-        <v>90100</v>
+        <v>92800</v>
       </c>
       <c r="H41" s="3">
-        <v>660500</v>
+        <v>680700</v>
       </c>
       <c r="I41" s="3">
-        <v>327000</v>
+        <v>336900</v>
       </c>
       <c r="J41" s="3">
-        <v>192800</v>
+        <v>198700</v>
       </c>
       <c r="K41" s="3">
         <v>754700</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>24300</v>
+        <v>25000</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>206100</v>
+        <v>212400</v>
       </c>
       <c r="E43" s="3">
-        <v>120700</v>
+        <v>124400</v>
       </c>
       <c r="F43" s="3">
-        <v>126400</v>
+        <v>130300</v>
       </c>
       <c r="G43" s="3">
-        <v>97600</v>
+        <v>100600</v>
       </c>
       <c r="H43" s="3">
-        <v>85200</v>
+        <v>87800</v>
       </c>
       <c r="I43" s="3">
-        <v>91900</v>
+        <v>94700</v>
       </c>
       <c r="J43" s="3">
-        <v>84100</v>
+        <v>86700</v>
       </c>
       <c r="K43" s="3">
         <v>91800</v>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="I44" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68000</v>
+        <v>70100</v>
       </c>
       <c r="E45" s="3">
-        <v>46700</v>
+        <v>48100</v>
       </c>
       <c r="F45" s="3">
-        <v>63100</v>
+        <v>65000</v>
       </c>
       <c r="G45" s="3">
+        <v>44300</v>
+      </c>
+      <c r="H45" s="3">
         <v>43000</v>
       </c>
-      <c r="H45" s="3">
-        <v>41700</v>
-      </c>
       <c r="I45" s="3">
-        <v>44500</v>
+        <v>45800</v>
       </c>
       <c r="J45" s="3">
-        <v>53800</v>
+        <v>55400</v>
       </c>
       <c r="K45" s="3">
         <v>43700</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>971100</v>
+        <v>1000700</v>
       </c>
       <c r="E46" s="3">
-        <v>857800</v>
+        <v>883900</v>
       </c>
       <c r="F46" s="3">
-        <v>360200</v>
+        <v>371200</v>
       </c>
       <c r="G46" s="3">
-        <v>230700</v>
+        <v>237700</v>
       </c>
       <c r="H46" s="3">
-        <v>796600</v>
+        <v>820900</v>
       </c>
       <c r="I46" s="3">
-        <v>466800</v>
+        <v>481000</v>
       </c>
       <c r="J46" s="3">
-        <v>355000</v>
+        <v>365800</v>
       </c>
       <c r="K46" s="3">
         <v>890300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>303800</v>
+        <v>313100</v>
       </c>
       <c r="E47" s="3">
-        <v>300700</v>
+        <v>309900</v>
       </c>
       <c r="F47" s="3">
-        <v>232900</v>
+        <v>240000</v>
       </c>
       <c r="G47" s="3">
-        <v>218400</v>
+        <v>225100</v>
       </c>
       <c r="H47" s="3">
-        <v>261500</v>
+        <v>269400</v>
       </c>
       <c r="I47" s="3">
-        <v>189300</v>
+        <v>195100</v>
       </c>
       <c r="J47" s="3">
-        <v>122400</v>
+        <v>126100</v>
       </c>
       <c r="K47" s="3">
         <v>84700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6664100</v>
+        <v>6867300</v>
       </c>
       <c r="E48" s="3">
-        <v>5996100</v>
+        <v>6178900</v>
       </c>
       <c r="F48" s="3">
-        <v>6216400</v>
+        <v>6406000</v>
       </c>
       <c r="G48" s="3">
-        <v>5901500</v>
+        <v>6081400</v>
       </c>
       <c r="H48" s="3">
-        <v>5108200</v>
+        <v>5263900</v>
       </c>
       <c r="I48" s="3">
-        <v>4759900</v>
+        <v>4905000</v>
       </c>
       <c r="J48" s="3">
-        <v>4232100</v>
+        <v>4361100</v>
       </c>
       <c r="K48" s="3">
         <v>3358900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>86600</v>
+        <v>89200</v>
       </c>
       <c r="E52" s="3">
-        <v>73700</v>
+        <v>75900</v>
       </c>
       <c r="F52" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="G52" s="3">
-        <v>23300</v>
+        <v>24000</v>
       </c>
       <c r="H52" s="3">
-        <v>22200</v>
+        <v>22900</v>
       </c>
       <c r="I52" s="3">
-        <v>39900</v>
+        <v>41200</v>
       </c>
       <c r="J52" s="3">
-        <v>39200</v>
+        <v>40400</v>
       </c>
       <c r="K52" s="3">
         <v>82300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8025700</v>
+        <v>8270300</v>
       </c>
       <c r="E54" s="3">
-        <v>7228300</v>
+        <v>7448600</v>
       </c>
       <c r="F54" s="3">
-        <v>6824600</v>
+        <v>7032700</v>
       </c>
       <c r="G54" s="3">
-        <v>6373900</v>
+        <v>6568200</v>
       </c>
       <c r="H54" s="3">
-        <v>6188500</v>
+        <v>6377200</v>
       </c>
       <c r="I54" s="3">
-        <v>5456000</v>
+        <v>5622300</v>
       </c>
       <c r="J54" s="3">
-        <v>4748700</v>
+        <v>4893400</v>
       </c>
       <c r="K54" s="3">
         <v>4416100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="E57" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="F57" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="G57" s="3">
-        <v>9400</v>
+        <v>9700</v>
       </c>
       <c r="H57" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="I57" s="3">
-        <v>12400</v>
+        <v>12800</v>
       </c>
       <c r="J57" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="K57" s="3">
         <v>7900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>44800</v>
+        <v>46200</v>
       </c>
       <c r="E59" s="3">
-        <v>64200</v>
+        <v>66200</v>
       </c>
       <c r="F59" s="3">
-        <v>60200</v>
+        <v>62100</v>
       </c>
       <c r="G59" s="3">
-        <v>22900</v>
+        <v>23600</v>
       </c>
       <c r="H59" s="3">
-        <v>21200</v>
+        <v>21800</v>
       </c>
       <c r="I59" s="3">
-        <v>36200</v>
+        <v>37300</v>
       </c>
       <c r="J59" s="3">
-        <v>18900</v>
+        <v>19400</v>
       </c>
       <c r="K59" s="3">
         <v>19000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>55800</v>
+        <v>57500</v>
       </c>
       <c r="E60" s="3">
-        <v>68800</v>
+        <v>70900</v>
       </c>
       <c r="F60" s="3">
-        <v>69000</v>
+        <v>71100</v>
       </c>
       <c r="G60" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="H60" s="3">
-        <v>29200</v>
+        <v>30100</v>
       </c>
       <c r="I60" s="3">
-        <v>48600</v>
+        <v>50100</v>
       </c>
       <c r="J60" s="3">
-        <v>26900</v>
+        <v>27700</v>
       </c>
       <c r="K60" s="3">
         <v>26900</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>106800</v>
+        <v>110000</v>
       </c>
       <c r="G61" s="3">
-        <v>268300</v>
+        <v>276500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>591000</v>
+        <v>609000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>182900</v>
+        <v>188400</v>
       </c>
       <c r="E62" s="3">
-        <v>123900</v>
+        <v>127700</v>
       </c>
       <c r="F62" s="3">
-        <v>106500</v>
+        <v>109700</v>
       </c>
       <c r="G62" s="3">
-        <v>87000</v>
+        <v>89600</v>
       </c>
       <c r="H62" s="3">
-        <v>77900</v>
+        <v>80300</v>
       </c>
       <c r="I62" s="3">
-        <v>48500</v>
+        <v>49900</v>
       </c>
       <c r="J62" s="3">
-        <v>42900</v>
+        <v>44200</v>
       </c>
       <c r="K62" s="3">
         <v>51300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>238700</v>
+        <v>246000</v>
       </c>
       <c r="E66" s="3">
-        <v>192700</v>
+        <v>198600</v>
       </c>
       <c r="F66" s="3">
-        <v>282300</v>
+        <v>290900</v>
       </c>
       <c r="G66" s="3">
-        <v>387600</v>
+        <v>399400</v>
       </c>
       <c r="H66" s="3">
-        <v>107100</v>
+        <v>110400</v>
       </c>
       <c r="I66" s="3">
-        <v>97100</v>
+        <v>100000</v>
       </c>
       <c r="J66" s="3">
-        <v>660800</v>
+        <v>680900</v>
       </c>
       <c r="K66" s="3">
         <v>78200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>626700</v>
+        <v>645800</v>
       </c>
       <c r="E72" s="3">
-        <v>-44500</v>
+        <v>-45800</v>
       </c>
       <c r="F72" s="3">
-        <v>-212500</v>
+        <v>-218900</v>
       </c>
       <c r="G72" s="3">
-        <v>-415800</v>
+        <v>-428400</v>
       </c>
       <c r="H72" s="3">
-        <v>-400600</v>
+        <v>-412900</v>
       </c>
       <c r="I72" s="3">
-        <v>-435300</v>
+        <v>-448600</v>
       </c>
       <c r="J72" s="3">
-        <v>-390600</v>
+        <v>-402500</v>
       </c>
       <c r="K72" s="3">
         <v>-252000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7787000</v>
+        <v>8024400</v>
       </c>
       <c r="E76" s="3">
-        <v>7035600</v>
+        <v>7250100</v>
       </c>
       <c r="F76" s="3">
-        <v>6542400</v>
+        <v>6741800</v>
       </c>
       <c r="G76" s="3">
-        <v>5986300</v>
+        <v>6168800</v>
       </c>
       <c r="H76" s="3">
-        <v>6081400</v>
+        <v>6266800</v>
       </c>
       <c r="I76" s="3">
-        <v>5358900</v>
+        <v>5522300</v>
       </c>
       <c r="J76" s="3">
-        <v>4087900</v>
+        <v>4212500</v>
       </c>
       <c r="K76" s="3">
         <v>4337900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>948200</v>
+        <v>977100</v>
       </c>
       <c r="E81" s="3">
-        <v>421600</v>
+        <v>434400</v>
       </c>
       <c r="F81" s="3">
-        <v>444700</v>
+        <v>458300</v>
       </c>
       <c r="G81" s="3">
-        <v>179600</v>
+        <v>185100</v>
       </c>
       <c r="H81" s="3">
-        <v>251600</v>
+        <v>259300</v>
       </c>
       <c r="I81" s="3">
-        <v>157900</v>
+        <v>162700</v>
       </c>
       <c r="J81" s="3">
-        <v>31800</v>
+        <v>32800</v>
       </c>
       <c r="K81" s="3">
         <v>135900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>387200</v>
+        <v>399000</v>
       </c>
       <c r="E83" s="3">
-        <v>311500</v>
+        <v>321000</v>
       </c>
       <c r="F83" s="3">
-        <v>340200</v>
+        <v>350500</v>
       </c>
       <c r="G83" s="3">
-        <v>320100</v>
+        <v>329900</v>
       </c>
       <c r="H83" s="3">
-        <v>352800</v>
+        <v>363600</v>
       </c>
       <c r="I83" s="3">
-        <v>353900</v>
+        <v>364600</v>
       </c>
       <c r="J83" s="3">
-        <v>279500</v>
+        <v>288100</v>
       </c>
       <c r="K83" s="3">
         <v>207800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1234800</v>
+        <v>1272400</v>
       </c>
       <c r="E89" s="3">
-        <v>1039000</v>
+        <v>1070600</v>
       </c>
       <c r="F89" s="3">
-        <v>798300</v>
+        <v>822700</v>
       </c>
       <c r="G89" s="3">
-        <v>613600</v>
+        <v>632300</v>
       </c>
       <c r="H89" s="3">
-        <v>631500</v>
+        <v>650700</v>
       </c>
       <c r="I89" s="3">
-        <v>608700</v>
+        <v>627300</v>
       </c>
       <c r="J89" s="3">
-        <v>406200</v>
+        <v>418600</v>
       </c>
       <c r="K89" s="3">
         <v>340100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-982900</v>
+        <v>-1012800</v>
       </c>
       <c r="E91" s="3">
-        <v>-404000</v>
+        <v>-416300</v>
       </c>
       <c r="F91" s="3">
-        <v>-575400</v>
+        <v>-592900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1279000</v>
+        <v>-1317900</v>
       </c>
       <c r="H91" s="3">
-        <v>-647800</v>
+        <v>-667500</v>
       </c>
       <c r="I91" s="3">
-        <v>-965600</v>
+        <v>-995000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1318800</v>
+        <v>-1359000</v>
       </c>
       <c r="K91" s="3">
         <v>-1135800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-988700</v>
+        <v>-1018800</v>
       </c>
       <c r="E94" s="3">
-        <v>-399400</v>
+        <v>-411500</v>
       </c>
       <c r="F94" s="3">
-        <v>-563600</v>
+        <v>-580800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1277800</v>
+        <v>-1316800</v>
       </c>
       <c r="H94" s="3">
-        <v>-647400</v>
+        <v>-667100</v>
       </c>
       <c r="I94" s="3">
-        <v>-891500</v>
+        <v>-918700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1429500</v>
+        <v>-1473100</v>
       </c>
       <c r="K94" s="3">
         <v>-1039300</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-232100</v>
+        <v>-239200</v>
       </c>
       <c r="E96" s="3">
-        <v>-200200</v>
+        <v>-206300</v>
       </c>
       <c r="F96" s="3">
-        <v>-178600</v>
+        <v>-184100</v>
       </c>
       <c r="G96" s="3">
-        <v>-175900</v>
+        <v>-181300</v>
       </c>
       <c r="H96" s="3">
-        <v>-162600</v>
+        <v>-167500</v>
       </c>
       <c r="I96" s="3">
-        <v>-152600</v>
+        <v>-157300</v>
       </c>
       <c r="J96" s="3">
-        <v>-121600</v>
+        <v>-125300</v>
       </c>
       <c r="K96" s="3">
         <v>-115500</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-232900</v>
+        <v>-240000</v>
       </c>
       <c r="E100" s="3">
-        <v>-118600</v>
+        <v>-122300</v>
       </c>
       <c r="F100" s="3">
-        <v>-154800</v>
+        <v>-159500</v>
       </c>
       <c r="G100" s="3">
-        <v>100300</v>
+        <v>103300</v>
       </c>
       <c r="H100" s="3">
-        <v>309800</v>
+        <v>319200</v>
       </c>
       <c r="I100" s="3">
-        <v>415800</v>
+        <v>428400</v>
       </c>
       <c r="J100" s="3">
-        <v>483500</v>
+        <v>498200</v>
       </c>
       <c r="K100" s="3">
         <v>502800</v>
@@ -3215,7 +3215,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="E101" s="3">
         <v>-1300</v>
@@ -3224,16 +3224,16 @@
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-6600</v>
+        <v>-6800</v>
       </c>
       <c r="H101" s="3">
-        <v>39700</v>
+        <v>40900</v>
       </c>
       <c r="I101" s="3">
         <v>1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-33100</v>
+        <v>-34100</v>
       </c>
       <c r="K101" s="3">
         <v>-29700</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6600</v>
+        <v>6800</v>
       </c>
       <c r="E102" s="3">
-        <v>519700</v>
+        <v>535500</v>
       </c>
       <c r="F102" s="3">
-        <v>80600</v>
+        <v>83100</v>
       </c>
       <c r="G102" s="3">
-        <v>-570500</v>
+        <v>-587900</v>
       </c>
       <c r="H102" s="3">
-        <v>333600</v>
+        <v>343700</v>
       </c>
       <c r="I102" s="3">
-        <v>134200</v>
+        <v>138200</v>
       </c>
       <c r="J102" s="3">
-        <v>-572900</v>
+        <v>-590400</v>
       </c>
       <c r="K102" s="3">
         <v>-226100</v>

--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -714,25 +714,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1731300</v>
+        <v>1797500</v>
       </c>
       <c r="E8" s="3">
-        <v>1358700</v>
+        <v>1410600</v>
       </c>
       <c r="F8" s="3">
-        <v>1124200</v>
+        <v>1167100</v>
       </c>
       <c r="G8" s="3">
-        <v>869900</v>
+        <v>903200</v>
       </c>
       <c r="H8" s="3">
-        <v>899000</v>
+        <v>933300</v>
       </c>
       <c r="I8" s="3">
-        <v>812700</v>
+        <v>843700</v>
       </c>
       <c r="J8" s="3">
-        <v>590800</v>
+        <v>613400</v>
       </c>
       <c r="K8" s="3">
         <v>563500</v>
@@ -744,25 +744,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>636500</v>
+        <v>660800</v>
       </c>
       <c r="E9" s="3">
-        <v>532500</v>
+        <v>552800</v>
       </c>
       <c r="F9" s="3">
-        <v>543400</v>
+        <v>564100</v>
       </c>
       <c r="G9" s="3">
-        <v>487300</v>
+        <v>505900</v>
       </c>
       <c r="H9" s="3">
-        <v>552700</v>
+        <v>573800</v>
       </c>
       <c r="I9" s="3">
-        <v>505600</v>
+        <v>524900</v>
       </c>
       <c r="J9" s="3">
-        <v>124000</v>
+        <v>128700</v>
       </c>
       <c r="K9" s="3">
         <v>92900</v>
@@ -774,25 +774,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1094900</v>
+        <v>1136700</v>
       </c>
       <c r="E10" s="3">
-        <v>826200</v>
+        <v>857800</v>
       </c>
       <c r="F10" s="3">
-        <v>580800</v>
+        <v>603000</v>
       </c>
       <c r="G10" s="3">
-        <v>382600</v>
+        <v>397200</v>
       </c>
       <c r="H10" s="3">
-        <v>346300</v>
+        <v>359500</v>
       </c>
       <c r="I10" s="3">
-        <v>307100</v>
+        <v>318900</v>
       </c>
       <c r="J10" s="3">
-        <v>466800</v>
+        <v>484600</v>
       </c>
       <c r="K10" s="3">
         <v>470700</v>
@@ -830,13 +830,13 @@
         <v>8</v>
       </c>
       <c r="H12" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I12" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J12" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K12" s="3">
         <v>2800</v>
@@ -878,25 +878,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-90600</v>
+        <v>-94000</v>
       </c>
       <c r="E14" s="3">
-        <v>349100</v>
+        <v>362400</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>101200</v>
+        <v>105100</v>
       </c>
       <c r="H14" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="I14" s="3">
-        <v>71100</v>
+        <v>73800</v>
       </c>
       <c r="J14" s="3">
-        <v>86400</v>
+        <v>89700</v>
       </c>
       <c r="K14" s="3">
         <v>40100</v>
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="J15" s="3">
-        <v>288100</v>
+        <v>299100</v>
       </c>
       <c r="K15" s="3">
         <v>207800</v>
@@ -949,25 +949,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>585100</v>
+        <v>607400</v>
       </c>
       <c r="E17" s="3">
-        <v>910600</v>
+        <v>945400</v>
       </c>
       <c r="F17" s="3">
-        <v>577900</v>
+        <v>600000</v>
       </c>
       <c r="G17" s="3">
-        <v>618500</v>
+        <v>642100</v>
       </c>
       <c r="H17" s="3">
-        <v>591500</v>
+        <v>614100</v>
       </c>
       <c r="I17" s="3">
-        <v>605700</v>
+        <v>628900</v>
       </c>
       <c r="J17" s="3">
-        <v>522200</v>
+        <v>542200</v>
       </c>
       <c r="K17" s="3">
         <v>364400</v>
@@ -979,25 +979,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1146300</v>
+        <v>1190100</v>
       </c>
       <c r="E18" s="3">
-        <v>448200</v>
+        <v>465300</v>
       </c>
       <c r="F18" s="3">
-        <v>546300</v>
+        <v>567200</v>
       </c>
       <c r="G18" s="3">
-        <v>251400</v>
+        <v>261100</v>
       </c>
       <c r="H18" s="3">
-        <v>307500</v>
+        <v>319300</v>
       </c>
       <c r="I18" s="3">
-        <v>207000</v>
+        <v>214900</v>
       </c>
       <c r="J18" s="3">
-        <v>68600</v>
+        <v>71200</v>
       </c>
       <c r="K18" s="3">
         <v>199100</v>
@@ -1023,25 +1023,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F20" s="3">
-        <v>5600</v>
+        <v>5800</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="I20" s="3">
-        <v>16600</v>
+        <v>17300</v>
       </c>
       <c r="J20" s="3">
-        <v>-4000</v>
+        <v>-4100</v>
       </c>
       <c r="K20" s="3">
         <v>900</v>
@@ -1053,25 +1053,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1549500</v>
+        <v>1601600</v>
       </c>
       <c r="E21" s="3">
-        <v>780000</v>
+        <v>804000</v>
       </c>
       <c r="F21" s="3">
-        <v>907900</v>
+        <v>936300</v>
       </c>
       <c r="G21" s="3">
-        <v>586900</v>
+        <v>603400</v>
       </c>
       <c r="H21" s="3">
-        <v>683600</v>
+        <v>703200</v>
       </c>
       <c r="I21" s="3">
-        <v>594000</v>
+        <v>610100</v>
       </c>
       <c r="J21" s="3">
-        <v>357200</v>
+        <v>365600</v>
       </c>
       <c r="K21" s="3">
         <v>408500</v>
@@ -1089,7 +1089,7 @@
         <v>1900</v>
       </c>
       <c r="F22" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1113,25 +1113,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1142400</v>
+        <v>1186100</v>
       </c>
       <c r="E23" s="3">
-        <v>452100</v>
+        <v>469400</v>
       </c>
       <c r="F23" s="3">
-        <v>540600</v>
+        <v>561200</v>
       </c>
       <c r="G23" s="3">
-        <v>251800</v>
+        <v>261500</v>
       </c>
       <c r="H23" s="3">
-        <v>314300</v>
+        <v>326300</v>
       </c>
       <c r="I23" s="3">
-        <v>223600</v>
+        <v>232200</v>
       </c>
       <c r="J23" s="3">
-        <v>64600</v>
+        <v>67100</v>
       </c>
       <c r="K23" s="3">
         <v>200000</v>
@@ -1143,25 +1143,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>165300</v>
+        <v>171600</v>
       </c>
       <c r="E24" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="F24" s="3">
-        <v>82300</v>
+        <v>85500</v>
       </c>
       <c r="G24" s="3">
-        <v>64100</v>
+        <v>66500</v>
       </c>
       <c r="H24" s="3">
-        <v>45500</v>
+        <v>47300</v>
       </c>
       <c r="I24" s="3">
-        <v>60900</v>
+        <v>63200</v>
       </c>
       <c r="J24" s="3">
-        <v>31800</v>
+        <v>33000</v>
       </c>
       <c r="K24" s="3">
         <v>64100</v>
@@ -1203,25 +1203,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>977100</v>
+        <v>1014500</v>
       </c>
       <c r="E26" s="3">
-        <v>434400</v>
+        <v>451000</v>
       </c>
       <c r="F26" s="3">
-        <v>458300</v>
+        <v>475800</v>
       </c>
       <c r="G26" s="3">
-        <v>187800</v>
+        <v>195000</v>
       </c>
       <c r="H26" s="3">
-        <v>268800</v>
+        <v>279000</v>
       </c>
       <c r="I26" s="3">
-        <v>162700</v>
+        <v>169000</v>
       </c>
       <c r="J26" s="3">
-        <v>32800</v>
+        <v>34000</v>
       </c>
       <c r="K26" s="3">
         <v>135900</v>
@@ -1233,25 +1233,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>977100</v>
+        <v>1014500</v>
       </c>
       <c r="E27" s="3">
-        <v>434400</v>
+        <v>451000</v>
       </c>
       <c r="F27" s="3">
-        <v>458300</v>
+        <v>475800</v>
       </c>
       <c r="G27" s="3">
-        <v>187800</v>
+        <v>195000</v>
       </c>
       <c r="H27" s="3">
-        <v>268800</v>
+        <v>279000</v>
       </c>
       <c r="I27" s="3">
-        <v>162700</v>
+        <v>169000</v>
       </c>
       <c r="J27" s="3">
-        <v>32800</v>
+        <v>34000</v>
       </c>
       <c r="K27" s="3">
         <v>135900</v>
@@ -1302,10 +1302,10 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="H29" s="3">
-        <v>-9500</v>
+        <v>-9800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1383,25 +1383,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5600</v>
+        <v>-5800</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="I32" s="3">
-        <v>-16600</v>
+        <v>-17300</v>
       </c>
       <c r="J32" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="K32" s="3">
         <v>-900</v>
@@ -1413,25 +1413,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>977100</v>
+        <v>1014500</v>
       </c>
       <c r="E33" s="3">
-        <v>434400</v>
+        <v>451000</v>
       </c>
       <c r="F33" s="3">
-        <v>458300</v>
+        <v>475800</v>
       </c>
       <c r="G33" s="3">
-        <v>185100</v>
+        <v>192200</v>
       </c>
       <c r="H33" s="3">
-        <v>259300</v>
+        <v>269200</v>
       </c>
       <c r="I33" s="3">
-        <v>162700</v>
+        <v>169000</v>
       </c>
       <c r="J33" s="3">
-        <v>32800</v>
+        <v>34000</v>
       </c>
       <c r="K33" s="3">
         <v>135900</v>
@@ -1473,25 +1473,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>977100</v>
+        <v>1014500</v>
       </c>
       <c r="E35" s="3">
-        <v>434400</v>
+        <v>451000</v>
       </c>
       <c r="F35" s="3">
-        <v>458300</v>
+        <v>475800</v>
       </c>
       <c r="G35" s="3">
-        <v>185100</v>
+        <v>192200</v>
       </c>
       <c r="H35" s="3">
-        <v>259300</v>
+        <v>269200</v>
       </c>
       <c r="I35" s="3">
-        <v>162700</v>
+        <v>169000</v>
       </c>
       <c r="J35" s="3">
-        <v>32800</v>
+        <v>34000</v>
       </c>
       <c r="K35" s="3">
         <v>135900</v>
@@ -1566,25 +1566,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>718200</v>
+        <v>745700</v>
       </c>
       <c r="E41" s="3">
-        <v>711400</v>
+        <v>738600</v>
       </c>
       <c r="F41" s="3">
-        <v>175900</v>
+        <v>182700</v>
       </c>
       <c r="G41" s="3">
-        <v>92800</v>
+        <v>96400</v>
       </c>
       <c r="H41" s="3">
-        <v>680700</v>
+        <v>706700</v>
       </c>
       <c r="I41" s="3">
-        <v>336900</v>
+        <v>349800</v>
       </c>
       <c r="J41" s="3">
-        <v>198700</v>
+        <v>206300</v>
       </c>
       <c r="K41" s="3">
         <v>754700</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>212400</v>
+        <v>220500</v>
       </c>
       <c r="E43" s="3">
-        <v>124400</v>
+        <v>129100</v>
       </c>
       <c r="F43" s="3">
-        <v>130300</v>
+        <v>135200</v>
       </c>
       <c r="G43" s="3">
-        <v>100600</v>
+        <v>104400</v>
       </c>
       <c r="H43" s="3">
-        <v>87800</v>
+        <v>91100</v>
       </c>
       <c r="I43" s="3">
-        <v>94700</v>
+        <v>98300</v>
       </c>
       <c r="J43" s="3">
-        <v>86700</v>
+        <v>90000</v>
       </c>
       <c r="K43" s="3">
         <v>91800</v>
@@ -1668,10 +1668,10 @@
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="I44" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
@@ -1686,25 +1686,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>70100</v>
+        <v>72700</v>
       </c>
       <c r="E45" s="3">
-        <v>48100</v>
+        <v>49900</v>
       </c>
       <c r="F45" s="3">
-        <v>65000</v>
+        <v>67500</v>
       </c>
       <c r="G45" s="3">
-        <v>44300</v>
+        <v>46000</v>
       </c>
       <c r="H45" s="3">
-        <v>43000</v>
+        <v>44700</v>
       </c>
       <c r="I45" s="3">
-        <v>45800</v>
+        <v>47600</v>
       </c>
       <c r="J45" s="3">
-        <v>55400</v>
+        <v>57500</v>
       </c>
       <c r="K45" s="3">
         <v>43700</v>
@@ -1716,25 +1716,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000700</v>
+        <v>1039000</v>
       </c>
       <c r="E46" s="3">
-        <v>883900</v>
+        <v>917700</v>
       </c>
       <c r="F46" s="3">
-        <v>371200</v>
+        <v>385400</v>
       </c>
       <c r="G46" s="3">
-        <v>237700</v>
+        <v>246800</v>
       </c>
       <c r="H46" s="3">
-        <v>820900</v>
+        <v>852300</v>
       </c>
       <c r="I46" s="3">
-        <v>481000</v>
+        <v>499400</v>
       </c>
       <c r="J46" s="3">
-        <v>365800</v>
+        <v>379800</v>
       </c>
       <c r="K46" s="3">
         <v>890300</v>
@@ -1746,25 +1746,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>313100</v>
+        <v>325100</v>
       </c>
       <c r="E47" s="3">
-        <v>309900</v>
+        <v>321800</v>
       </c>
       <c r="F47" s="3">
-        <v>240000</v>
+        <v>249200</v>
       </c>
       <c r="G47" s="3">
-        <v>225100</v>
+        <v>233700</v>
       </c>
       <c r="H47" s="3">
-        <v>269400</v>
+        <v>279700</v>
       </c>
       <c r="I47" s="3">
-        <v>195100</v>
+        <v>202600</v>
       </c>
       <c r="J47" s="3">
-        <v>126100</v>
+        <v>130900</v>
       </c>
       <c r="K47" s="3">
         <v>84700</v>
@@ -1776,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6867300</v>
+        <v>7129800</v>
       </c>
       <c r="E48" s="3">
-        <v>6178900</v>
+        <v>6415000</v>
       </c>
       <c r="F48" s="3">
-        <v>6406000</v>
+        <v>6650800</v>
       </c>
       <c r="G48" s="3">
-        <v>6081400</v>
+        <v>6313800</v>
       </c>
       <c r="H48" s="3">
-        <v>5263900</v>
+        <v>5465100</v>
       </c>
       <c r="I48" s="3">
-        <v>4905000</v>
+        <v>5092500</v>
       </c>
       <c r="J48" s="3">
-        <v>4361100</v>
+        <v>4527800</v>
       </c>
       <c r="K48" s="3">
         <v>3358900</v>
@@ -1896,25 +1896,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>89200</v>
+        <v>92600</v>
       </c>
       <c r="E52" s="3">
-        <v>75900</v>
+        <v>78800</v>
       </c>
       <c r="F52" s="3">
-        <v>15600</v>
+        <v>16200</v>
       </c>
       <c r="G52" s="3">
-        <v>24000</v>
+        <v>24900</v>
       </c>
       <c r="H52" s="3">
-        <v>22900</v>
+        <v>23800</v>
       </c>
       <c r="I52" s="3">
-        <v>41200</v>
+        <v>42700</v>
       </c>
       <c r="J52" s="3">
-        <v>40400</v>
+        <v>41900</v>
       </c>
       <c r="K52" s="3">
         <v>82300</v>
@@ -1956,25 +1956,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8270300</v>
+        <v>8586400</v>
       </c>
       <c r="E54" s="3">
-        <v>7448600</v>
+        <v>7733300</v>
       </c>
       <c r="F54" s="3">
-        <v>7032700</v>
+        <v>7301500</v>
       </c>
       <c r="G54" s="3">
-        <v>6568200</v>
+        <v>6819200</v>
       </c>
       <c r="H54" s="3">
-        <v>6377200</v>
+        <v>6620900</v>
       </c>
       <c r="I54" s="3">
-        <v>5622300</v>
+        <v>5837200</v>
       </c>
       <c r="J54" s="3">
-        <v>4893400</v>
+        <v>5080500</v>
       </c>
       <c r="K54" s="3">
         <v>4416100</v>
@@ -2014,25 +2014,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11300</v>
+        <v>11800</v>
       </c>
       <c r="E57" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="F57" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="G57" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="H57" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="I57" s="3">
-        <v>12800</v>
+        <v>13300</v>
       </c>
       <c r="J57" s="3">
-        <v>8300</v>
+        <v>8600</v>
       </c>
       <c r="K57" s="3">
         <v>7900</v>
@@ -2074,25 +2074,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46200</v>
+        <v>48000</v>
       </c>
       <c r="E59" s="3">
-        <v>66200</v>
+        <v>68700</v>
       </c>
       <c r="F59" s="3">
-        <v>62100</v>
+        <v>64400</v>
       </c>
       <c r="G59" s="3">
-        <v>23600</v>
+        <v>24500</v>
       </c>
       <c r="H59" s="3">
-        <v>21800</v>
+        <v>22700</v>
       </c>
       <c r="I59" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="J59" s="3">
-        <v>19400</v>
+        <v>20200</v>
       </c>
       <c r="K59" s="3">
         <v>19000</v>
@@ -2104,25 +2104,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57500</v>
+        <v>59700</v>
       </c>
       <c r="E60" s="3">
-        <v>70900</v>
+        <v>73600</v>
       </c>
       <c r="F60" s="3">
-        <v>71100</v>
+        <v>73800</v>
       </c>
       <c r="G60" s="3">
-        <v>33300</v>
+        <v>34600</v>
       </c>
       <c r="H60" s="3">
-        <v>30100</v>
+        <v>31200</v>
       </c>
       <c r="I60" s="3">
-        <v>50100</v>
+        <v>52000</v>
       </c>
       <c r="J60" s="3">
-        <v>27700</v>
+        <v>28800</v>
       </c>
       <c r="K60" s="3">
         <v>26900</v>
@@ -2140,10 +2140,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>110000</v>
+        <v>114200</v>
       </c>
       <c r="G61" s="3">
-        <v>276500</v>
+        <v>287000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>609000</v>
+        <v>632300</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2164,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>188400</v>
+        <v>195700</v>
       </c>
       <c r="E62" s="3">
-        <v>127700</v>
+        <v>132600</v>
       </c>
       <c r="F62" s="3">
-        <v>109700</v>
+        <v>113900</v>
       </c>
       <c r="G62" s="3">
-        <v>89600</v>
+        <v>93100</v>
       </c>
       <c r="H62" s="3">
-        <v>80300</v>
+        <v>83400</v>
       </c>
       <c r="I62" s="3">
-        <v>49900</v>
+        <v>51900</v>
       </c>
       <c r="J62" s="3">
-        <v>44200</v>
+        <v>45900</v>
       </c>
       <c r="K62" s="3">
         <v>51300</v>
@@ -2284,25 +2284,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>246000</v>
+        <v>255400</v>
       </c>
       <c r="E66" s="3">
-        <v>198600</v>
+        <v>206200</v>
       </c>
       <c r="F66" s="3">
-        <v>290900</v>
+        <v>302000</v>
       </c>
       <c r="G66" s="3">
-        <v>399400</v>
+        <v>414700</v>
       </c>
       <c r="H66" s="3">
-        <v>110400</v>
+        <v>114600</v>
       </c>
       <c r="I66" s="3">
-        <v>100000</v>
+        <v>103800</v>
       </c>
       <c r="J66" s="3">
-        <v>680900</v>
+        <v>707000</v>
       </c>
       <c r="K66" s="3">
         <v>78200</v>
@@ -2448,25 +2448,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>645800</v>
+        <v>670500</v>
       </c>
       <c r="E72" s="3">
-        <v>-45800</v>
+        <v>-47600</v>
       </c>
       <c r="F72" s="3">
-        <v>-218900</v>
+        <v>-227300</v>
       </c>
       <c r="G72" s="3">
-        <v>-428400</v>
+        <v>-444800</v>
       </c>
       <c r="H72" s="3">
-        <v>-412900</v>
+        <v>-428600</v>
       </c>
       <c r="I72" s="3">
-        <v>-448600</v>
+        <v>-465700</v>
       </c>
       <c r="J72" s="3">
-        <v>-402500</v>
+        <v>-417900</v>
       </c>
       <c r="K72" s="3">
         <v>-252000</v>
@@ -2568,25 +2568,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8024400</v>
+        <v>8331000</v>
       </c>
       <c r="E76" s="3">
-        <v>7250100</v>
+        <v>7527100</v>
       </c>
       <c r="F76" s="3">
-        <v>6741800</v>
+        <v>6999500</v>
       </c>
       <c r="G76" s="3">
-        <v>6168800</v>
+        <v>6404500</v>
       </c>
       <c r="H76" s="3">
-        <v>6266800</v>
+        <v>6506300</v>
       </c>
       <c r="I76" s="3">
-        <v>5522300</v>
+        <v>5733400</v>
       </c>
       <c r="J76" s="3">
-        <v>4212500</v>
+        <v>4373500</v>
       </c>
       <c r="K76" s="3">
         <v>4337900</v>
@@ -2663,25 +2663,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>977100</v>
+        <v>1014500</v>
       </c>
       <c r="E81" s="3">
-        <v>434400</v>
+        <v>451000</v>
       </c>
       <c r="F81" s="3">
-        <v>458300</v>
+        <v>475800</v>
       </c>
       <c r="G81" s="3">
-        <v>185100</v>
+        <v>192200</v>
       </c>
       <c r="H81" s="3">
-        <v>259300</v>
+        <v>269200</v>
       </c>
       <c r="I81" s="3">
-        <v>162700</v>
+        <v>169000</v>
       </c>
       <c r="J81" s="3">
-        <v>32800</v>
+        <v>34000</v>
       </c>
       <c r="K81" s="3">
         <v>135900</v>
@@ -2707,25 +2707,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>399000</v>
+        <v>414300</v>
       </c>
       <c r="E83" s="3">
-        <v>321000</v>
+        <v>333200</v>
       </c>
       <c r="F83" s="3">
-        <v>350500</v>
+        <v>363900</v>
       </c>
       <c r="G83" s="3">
-        <v>329900</v>
+        <v>342500</v>
       </c>
       <c r="H83" s="3">
-        <v>363600</v>
+        <v>377500</v>
       </c>
       <c r="I83" s="3">
-        <v>364600</v>
+        <v>378600</v>
       </c>
       <c r="J83" s="3">
-        <v>288100</v>
+        <v>299100</v>
       </c>
       <c r="K83" s="3">
         <v>207800</v>
@@ -2887,25 +2887,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1272400</v>
+        <v>1321000</v>
       </c>
       <c r="E89" s="3">
-        <v>1070600</v>
+        <v>1111600</v>
       </c>
       <c r="F89" s="3">
-        <v>822700</v>
+        <v>854100</v>
       </c>
       <c r="G89" s="3">
-        <v>632300</v>
+        <v>656500</v>
       </c>
       <c r="H89" s="3">
-        <v>650700</v>
+        <v>675600</v>
       </c>
       <c r="I89" s="3">
-        <v>627300</v>
+        <v>651300</v>
       </c>
       <c r="J89" s="3">
-        <v>418600</v>
+        <v>434600</v>
       </c>
       <c r="K89" s="3">
         <v>340100</v>
@@ -2931,25 +2931,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1012800</v>
+        <v>-1051500</v>
       </c>
       <c r="E91" s="3">
-        <v>-416300</v>
+        <v>-432200</v>
       </c>
       <c r="F91" s="3">
-        <v>-592900</v>
+        <v>-615600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1317900</v>
+        <v>-1368300</v>
       </c>
       <c r="H91" s="3">
-        <v>-667500</v>
+        <v>-693000</v>
       </c>
       <c r="I91" s="3">
-        <v>-995000</v>
+        <v>-1033000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1359000</v>
+        <v>-1410900</v>
       </c>
       <c r="K91" s="3">
         <v>-1135800</v>
@@ -3021,25 +3021,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1018800</v>
+        <v>-1057800</v>
       </c>
       <c r="E94" s="3">
-        <v>-411500</v>
+        <v>-427300</v>
       </c>
       <c r="F94" s="3">
-        <v>-580800</v>
+        <v>-603000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1316800</v>
+        <v>-1367100</v>
       </c>
       <c r="H94" s="3">
-        <v>-667100</v>
+        <v>-692600</v>
       </c>
       <c r="I94" s="3">
-        <v>-918700</v>
+        <v>-953800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1473100</v>
+        <v>-1529400</v>
       </c>
       <c r="K94" s="3">
         <v>-1039300</v>
@@ -3065,25 +3065,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-239200</v>
+        <v>-248300</v>
       </c>
       <c r="E96" s="3">
-        <v>-206300</v>
+        <v>-214200</v>
       </c>
       <c r="F96" s="3">
-        <v>-184100</v>
+        <v>-191100</v>
       </c>
       <c r="G96" s="3">
-        <v>-181300</v>
+        <v>-188200</v>
       </c>
       <c r="H96" s="3">
-        <v>-167500</v>
+        <v>-173900</v>
       </c>
       <c r="I96" s="3">
-        <v>-157300</v>
+        <v>-163300</v>
       </c>
       <c r="J96" s="3">
-        <v>-125300</v>
+        <v>-130100</v>
       </c>
       <c r="K96" s="3">
         <v>-115500</v>
@@ -3185,25 +3185,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-240000</v>
+        <v>-249200</v>
       </c>
       <c r="E100" s="3">
-        <v>-122300</v>
+        <v>-126900</v>
       </c>
       <c r="F100" s="3">
-        <v>-159500</v>
+        <v>-165600</v>
       </c>
       <c r="G100" s="3">
-        <v>103300</v>
+        <v>107300</v>
       </c>
       <c r="H100" s="3">
-        <v>319200</v>
+        <v>331400</v>
       </c>
       <c r="I100" s="3">
-        <v>428400</v>
+        <v>444800</v>
       </c>
       <c r="J100" s="3">
-        <v>498200</v>
+        <v>517300</v>
       </c>
       <c r="K100" s="3">
         <v>502800</v>
@@ -3215,25 +3215,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="E101" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F101" s="3">
         <v>800</v>
       </c>
       <c r="G101" s="3">
-        <v>-6800</v>
+        <v>-7100</v>
       </c>
       <c r="H101" s="3">
-        <v>40900</v>
+        <v>42400</v>
       </c>
       <c r="I101" s="3">
         <v>1200</v>
       </c>
       <c r="J101" s="3">
-        <v>-34100</v>
+        <v>-35400</v>
       </c>
       <c r="K101" s="3">
         <v>-29700</v>
@@ -3245,25 +3245,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="E102" s="3">
-        <v>535500</v>
+        <v>556000</v>
       </c>
       <c r="F102" s="3">
-        <v>83100</v>
+        <v>86300</v>
       </c>
       <c r="G102" s="3">
-        <v>-587900</v>
+        <v>-610300</v>
       </c>
       <c r="H102" s="3">
-        <v>343700</v>
+        <v>356900</v>
       </c>
       <c r="I102" s="3">
-        <v>138200</v>
+        <v>143500</v>
       </c>
       <c r="J102" s="3">
-        <v>-590400</v>
+        <v>-613000</v>
       </c>
       <c r="K102" s="3">
         <v>-226100</v>

--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>FNV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1797500</v>
+        <v>1776200</v>
       </c>
       <c r="E8" s="3">
-        <v>1410600</v>
+        <v>1755000</v>
       </c>
       <c r="F8" s="3">
-        <v>1167100</v>
+        <v>1377300</v>
       </c>
       <c r="G8" s="3">
-        <v>903200</v>
+        <v>1139500</v>
       </c>
       <c r="H8" s="3">
-        <v>933300</v>
+        <v>881800</v>
       </c>
       <c r="I8" s="3">
-        <v>843700</v>
+        <v>911300</v>
       </c>
       <c r="J8" s="3">
+        <v>823800</v>
+      </c>
+      <c r="K8" s="3">
         <v>613400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>563500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>660800</v>
+        <v>625200</v>
       </c>
       <c r="E9" s="3">
-        <v>552800</v>
+        <v>645200</v>
       </c>
       <c r="F9" s="3">
-        <v>564100</v>
+        <v>539700</v>
       </c>
       <c r="G9" s="3">
-        <v>505900</v>
+        <v>550800</v>
       </c>
       <c r="H9" s="3">
-        <v>573800</v>
+        <v>494000</v>
       </c>
       <c r="I9" s="3">
-        <v>524900</v>
+        <v>560300</v>
       </c>
       <c r="J9" s="3">
+        <v>512500</v>
+      </c>
+      <c r="K9" s="3">
         <v>128700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>92900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1136700</v>
+        <v>1151000</v>
       </c>
       <c r="E10" s="3">
-        <v>857800</v>
+        <v>1109800</v>
       </c>
       <c r="F10" s="3">
-        <v>603000</v>
+        <v>837500</v>
       </c>
       <c r="G10" s="3">
-        <v>397200</v>
+        <v>588700</v>
       </c>
       <c r="H10" s="3">
-        <v>359500</v>
+        <v>387900</v>
       </c>
       <c r="I10" s="3">
-        <v>318900</v>
+        <v>351000</v>
       </c>
       <c r="J10" s="3">
+        <v>311300</v>
+      </c>
+      <c r="K10" s="3">
         <v>484600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>470700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -829,21 +842,24 @@
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="3">
-        <v>5000</v>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="J12" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2800</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-94000</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>362400</v>
+        <v>-91800</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>353800</v>
       </c>
       <c r="G14" s="3">
-        <v>105100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>6200</v>
+        <v>102600</v>
       </c>
       <c r="I14" s="3">
-        <v>73800</v>
+        <v>6100</v>
       </c>
       <c r="J14" s="3">
+        <v>72100</v>
+      </c>
+      <c r="K14" s="3">
         <v>89700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40100</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,15 +947,18 @@
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>299100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>207800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>607400</v>
+        <v>668300</v>
       </c>
       <c r="E17" s="3">
-        <v>945400</v>
+        <v>593100</v>
       </c>
       <c r="F17" s="3">
-        <v>600000</v>
+        <v>923000</v>
       </c>
       <c r="G17" s="3">
-        <v>642100</v>
+        <v>585800</v>
       </c>
       <c r="H17" s="3">
-        <v>614100</v>
+        <v>626900</v>
       </c>
       <c r="I17" s="3">
-        <v>628900</v>
+        <v>599500</v>
       </c>
       <c r="J17" s="3">
+        <v>614000</v>
+      </c>
+      <c r="K17" s="3">
         <v>542200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>364400</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1190100</v>
+        <v>1107900</v>
       </c>
       <c r="E18" s="3">
-        <v>465300</v>
+        <v>1161900</v>
       </c>
       <c r="F18" s="3">
-        <v>567200</v>
+        <v>454300</v>
       </c>
       <c r="G18" s="3">
-        <v>261100</v>
+        <v>553800</v>
       </c>
       <c r="H18" s="3">
-        <v>319300</v>
+        <v>254900</v>
       </c>
       <c r="I18" s="3">
-        <v>214900</v>
+        <v>311700</v>
       </c>
       <c r="J18" s="3">
+        <v>209800</v>
+      </c>
+      <c r="K18" s="3">
         <v>71200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>199100</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,82 +1049,89 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2100</v>
+        <v>18900</v>
       </c>
       <c r="E20" s="3">
-        <v>6100</v>
+        <v>-2000</v>
       </c>
       <c r="F20" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="G20" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>7100</v>
-      </c>
       <c r="I20" s="3">
-        <v>17300</v>
+        <v>6900</v>
       </c>
       <c r="J20" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1601600</v>
+        <v>1511800</v>
       </c>
       <c r="E21" s="3">
-        <v>804000</v>
+        <v>1562900</v>
       </c>
       <c r="F21" s="3">
-        <v>936300</v>
+        <v>784400</v>
       </c>
       <c r="G21" s="3">
-        <v>603400</v>
+        <v>913500</v>
       </c>
       <c r="H21" s="3">
-        <v>703200</v>
+        <v>588500</v>
       </c>
       <c r="I21" s="3">
-        <v>610100</v>
+        <v>685800</v>
       </c>
       <c r="J21" s="3">
+        <v>595000</v>
+      </c>
+      <c r="K21" s="3">
         <v>365600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>408500</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>1900</v>
       </c>
       <c r="F22" s="3">
-        <v>11800</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
+        <v>1900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>11500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1186100</v>
+        <v>1125500</v>
       </c>
       <c r="E23" s="3">
-        <v>469400</v>
+        <v>1158000</v>
       </c>
       <c r="F23" s="3">
-        <v>561200</v>
+        <v>458300</v>
       </c>
       <c r="G23" s="3">
-        <v>261500</v>
+        <v>548000</v>
       </c>
       <c r="H23" s="3">
-        <v>326300</v>
+        <v>255300</v>
       </c>
       <c r="I23" s="3">
-        <v>232200</v>
+        <v>318600</v>
       </c>
       <c r="J23" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K23" s="3">
         <v>67100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>171600</v>
+        <v>179700</v>
       </c>
       <c r="E24" s="3">
-        <v>18400</v>
+        <v>167500</v>
       </c>
       <c r="F24" s="3">
-        <v>85500</v>
+        <v>18000</v>
       </c>
       <c r="G24" s="3">
-        <v>66500</v>
+        <v>83400</v>
       </c>
       <c r="H24" s="3">
-        <v>47300</v>
+        <v>64900</v>
       </c>
       <c r="I24" s="3">
-        <v>63200</v>
+        <v>46200</v>
       </c>
       <c r="J24" s="3">
+        <v>61700</v>
+      </c>
+      <c r="K24" s="3">
         <v>33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>64100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1014500</v>
+        <v>945800</v>
       </c>
       <c r="E26" s="3">
-        <v>451000</v>
+        <v>990500</v>
       </c>
       <c r="F26" s="3">
-        <v>475800</v>
+        <v>440400</v>
       </c>
       <c r="G26" s="3">
-        <v>195000</v>
+        <v>464500</v>
       </c>
       <c r="H26" s="3">
-        <v>279000</v>
+        <v>190400</v>
       </c>
       <c r="I26" s="3">
-        <v>169000</v>
+        <v>272400</v>
       </c>
       <c r="J26" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K26" s="3">
         <v>34000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>135900</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1014500</v>
+        <v>945800</v>
       </c>
       <c r="E27" s="3">
-        <v>451000</v>
+        <v>990500</v>
       </c>
       <c r="F27" s="3">
-        <v>475800</v>
+        <v>440400</v>
       </c>
       <c r="G27" s="3">
-        <v>195000</v>
+        <v>464500</v>
       </c>
       <c r="H27" s="3">
-        <v>279000</v>
+        <v>190400</v>
       </c>
       <c r="I27" s="3">
-        <v>169000</v>
+        <v>272400</v>
       </c>
       <c r="J27" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K27" s="3">
         <v>34000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>135900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1301,14 +1361,14 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>-2800</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-9800</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>-2700</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-9600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2100</v>
+        <v>-18900</v>
       </c>
       <c r="E32" s="3">
-        <v>-6100</v>
+        <v>2000</v>
       </c>
       <c r="F32" s="3">
-        <v>-5800</v>
+        <v>-5900</v>
       </c>
       <c r="G32" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7100</v>
-      </c>
       <c r="I32" s="3">
-        <v>-17300</v>
+        <v>-6900</v>
       </c>
       <c r="J32" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="K32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1014500</v>
+        <v>945800</v>
       </c>
       <c r="E33" s="3">
-        <v>451000</v>
+        <v>990500</v>
       </c>
       <c r="F33" s="3">
-        <v>475800</v>
+        <v>440400</v>
       </c>
       <c r="G33" s="3">
-        <v>192200</v>
+        <v>464500</v>
       </c>
       <c r="H33" s="3">
-        <v>269200</v>
+        <v>187700</v>
       </c>
       <c r="I33" s="3">
-        <v>169000</v>
+        <v>262800</v>
       </c>
       <c r="J33" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K33" s="3">
         <v>34000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>135900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1014500</v>
+        <v>945800</v>
       </c>
       <c r="E35" s="3">
-        <v>451000</v>
+        <v>990500</v>
       </c>
       <c r="F35" s="3">
-        <v>475800</v>
+        <v>440400</v>
       </c>
       <c r="G35" s="3">
-        <v>192200</v>
+        <v>464500</v>
       </c>
       <c r="H35" s="3">
-        <v>269200</v>
+        <v>187700</v>
       </c>
       <c r="I35" s="3">
-        <v>169000</v>
+        <v>262800</v>
       </c>
       <c r="J35" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K35" s="3">
         <v>34000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>135900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,98 +1645,108 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>745700</v>
+        <v>1615300</v>
       </c>
       <c r="E41" s="3">
-        <v>738600</v>
+        <v>728100</v>
       </c>
       <c r="F41" s="3">
-        <v>182700</v>
+        <v>721200</v>
       </c>
       <c r="G41" s="3">
-        <v>96400</v>
+        <v>178300</v>
       </c>
       <c r="H41" s="3">
-        <v>706700</v>
+        <v>94100</v>
       </c>
       <c r="I41" s="3">
-        <v>349800</v>
+        <v>690000</v>
       </c>
       <c r="J41" s="3">
+        <v>341600</v>
+      </c>
+      <c r="K41" s="3">
         <v>206300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>754700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>26000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>220500</v>
+        <v>183200</v>
       </c>
       <c r="E43" s="3">
-        <v>129100</v>
+        <v>215300</v>
       </c>
       <c r="F43" s="3">
-        <v>135200</v>
+        <v>126100</v>
       </c>
       <c r="G43" s="3">
-        <v>104400</v>
+        <v>132000</v>
       </c>
       <c r="H43" s="3">
-        <v>91100</v>
+        <v>101900</v>
       </c>
       <c r="I43" s="3">
-        <v>98300</v>
+        <v>89000</v>
       </c>
       <c r="J43" s="3">
+        <v>96000</v>
+      </c>
+      <c r="K43" s="3">
         <v>90000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>91800</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1664,144 +1759,159 @@
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H44" s="3">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>8</v>
+        <v>9600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3600</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72700</v>
+        <v>68700</v>
       </c>
       <c r="E45" s="3">
-        <v>49900</v>
+        <v>71000</v>
       </c>
       <c r="F45" s="3">
-        <v>67500</v>
+        <v>48700</v>
       </c>
       <c r="G45" s="3">
-        <v>46000</v>
+        <v>65900</v>
       </c>
       <c r="H45" s="3">
-        <v>44700</v>
+        <v>45000</v>
       </c>
       <c r="I45" s="3">
-        <v>47600</v>
+        <v>43600</v>
       </c>
       <c r="J45" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K45" s="3">
         <v>57500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>43700</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1039000</v>
+        <v>1867200</v>
       </c>
       <c r="E46" s="3">
-        <v>917700</v>
+        <v>1014400</v>
       </c>
       <c r="F46" s="3">
-        <v>385400</v>
+        <v>896000</v>
       </c>
       <c r="G46" s="3">
-        <v>246800</v>
+        <v>376200</v>
       </c>
       <c r="H46" s="3">
-        <v>852300</v>
+        <v>241000</v>
       </c>
       <c r="I46" s="3">
-        <v>499400</v>
+        <v>832100</v>
       </c>
       <c r="J46" s="3">
+        <v>487600</v>
+      </c>
+      <c r="K46" s="3">
         <v>379800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>890300</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>325100</v>
+        <v>303200</v>
       </c>
       <c r="E47" s="3">
-        <v>321800</v>
+        <v>317400</v>
       </c>
       <c r="F47" s="3">
-        <v>249200</v>
+        <v>314100</v>
       </c>
       <c r="G47" s="3">
-        <v>233700</v>
+        <v>243300</v>
       </c>
       <c r="H47" s="3">
-        <v>279700</v>
+        <v>228200</v>
       </c>
       <c r="I47" s="3">
-        <v>202600</v>
+        <v>273100</v>
       </c>
       <c r="J47" s="3">
+        <v>197800</v>
+      </c>
+      <c r="K47" s="3">
         <v>130900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>84700</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7129800</v>
+        <v>6661200</v>
       </c>
       <c r="E48" s="3">
-        <v>6415000</v>
+        <v>6961100</v>
       </c>
       <c r="F48" s="3">
-        <v>6650800</v>
+        <v>6263300</v>
       </c>
       <c r="G48" s="3">
-        <v>6313800</v>
+        <v>6493500</v>
       </c>
       <c r="H48" s="3">
-        <v>5465100</v>
+        <v>6164500</v>
       </c>
       <c r="I48" s="3">
-        <v>5092500</v>
+        <v>5335900</v>
       </c>
       <c r="J48" s="3">
+        <v>4972100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4527800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3358900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1829,9 +1939,12 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>92600</v>
+        <v>114600</v>
       </c>
       <c r="E52" s="3">
-        <v>78800</v>
+        <v>90500</v>
       </c>
       <c r="F52" s="3">
-        <v>16200</v>
+        <v>77000</v>
       </c>
       <c r="G52" s="3">
-        <v>24900</v>
+        <v>15800</v>
       </c>
       <c r="H52" s="3">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="I52" s="3">
-        <v>42700</v>
+        <v>23200</v>
       </c>
       <c r="J52" s="3">
+        <v>41700</v>
+      </c>
+      <c r="K52" s="3">
         <v>41900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>82300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8586400</v>
+        <v>8946200</v>
       </c>
       <c r="E54" s="3">
-        <v>7733300</v>
+        <v>8383400</v>
       </c>
       <c r="F54" s="3">
-        <v>7301500</v>
+        <v>7550400</v>
       </c>
       <c r="G54" s="3">
-        <v>6819200</v>
+        <v>7128800</v>
       </c>
       <c r="H54" s="3">
-        <v>6620900</v>
+        <v>6657900</v>
       </c>
       <c r="I54" s="3">
-        <v>5837200</v>
+        <v>6464300</v>
       </c>
       <c r="J54" s="3">
+        <v>5699200</v>
+      </c>
+      <c r="K54" s="3">
         <v>5080500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>4416100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,38 +2137,42 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>11800</v>
+        <v>9500</v>
       </c>
       <c r="E57" s="3">
-        <v>4800</v>
+        <v>11500</v>
       </c>
       <c r="F57" s="3">
-        <v>9400</v>
+        <v>4700</v>
       </c>
       <c r="G57" s="3">
-        <v>10100</v>
+        <v>9200</v>
       </c>
       <c r="H57" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K57" s="3">
         <v>8600</v>
       </c>
-      <c r="I57" s="3">
-        <v>13300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>8600</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7900</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2067,69 +2200,78 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48000</v>
+        <v>58300</v>
       </c>
       <c r="E59" s="3">
-        <v>68700</v>
+        <v>46800</v>
       </c>
       <c r="F59" s="3">
-        <v>64400</v>
+        <v>67100</v>
       </c>
       <c r="G59" s="3">
-        <v>24500</v>
+        <v>62900</v>
       </c>
       <c r="H59" s="3">
-        <v>22700</v>
+        <v>23900</v>
       </c>
       <c r="I59" s="3">
-        <v>38700</v>
+        <v>22100</v>
       </c>
       <c r="J59" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K59" s="3">
         <v>20200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>19000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59700</v>
+        <v>67800</v>
       </c>
       <c r="E60" s="3">
-        <v>73600</v>
+        <v>58300</v>
       </c>
       <c r="F60" s="3">
-        <v>73800</v>
+        <v>71800</v>
       </c>
       <c r="G60" s="3">
-        <v>34600</v>
+        <v>72100</v>
       </c>
       <c r="H60" s="3">
-        <v>31200</v>
+        <v>33800</v>
       </c>
       <c r="I60" s="3">
-        <v>52000</v>
+        <v>30500</v>
       </c>
       <c r="J60" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K60" s="3">
         <v>28800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2140,56 +2282,62 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>114200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>287000</v>
+        <v>111500</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>280300</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>632300</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>195700</v>
+        <v>214700</v>
       </c>
       <c r="E62" s="3">
-        <v>132600</v>
+        <v>191000</v>
       </c>
       <c r="F62" s="3">
-        <v>113900</v>
+        <v>129500</v>
       </c>
       <c r="G62" s="3">
-        <v>93100</v>
+        <v>111200</v>
       </c>
       <c r="H62" s="3">
-        <v>83400</v>
+        <v>90900</v>
       </c>
       <c r="I62" s="3">
-        <v>51900</v>
+        <v>81400</v>
       </c>
       <c r="J62" s="3">
+        <v>50600</v>
+      </c>
+      <c r="K62" s="3">
         <v>45900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>51300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>255400</v>
+        <v>282400</v>
       </c>
       <c r="E66" s="3">
-        <v>206200</v>
+        <v>249300</v>
       </c>
       <c r="F66" s="3">
-        <v>302000</v>
+        <v>201300</v>
       </c>
       <c r="G66" s="3">
-        <v>414700</v>
+        <v>294800</v>
       </c>
       <c r="H66" s="3">
-        <v>114600</v>
+        <v>404900</v>
       </c>
       <c r="I66" s="3">
-        <v>103800</v>
+        <v>111900</v>
       </c>
       <c r="J66" s="3">
+        <v>101400</v>
+      </c>
+      <c r="K66" s="3">
         <v>707000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>78200</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>670500</v>
+        <v>1269500</v>
       </c>
       <c r="E72" s="3">
-        <v>-47600</v>
+        <v>654600</v>
       </c>
       <c r="F72" s="3">
-        <v>-227300</v>
+        <v>-46400</v>
       </c>
       <c r="G72" s="3">
-        <v>-444800</v>
+        <v>-221900</v>
       </c>
       <c r="H72" s="3">
-        <v>-428600</v>
+        <v>-434300</v>
       </c>
       <c r="I72" s="3">
-        <v>-465700</v>
+        <v>-418500</v>
       </c>
       <c r="J72" s="3">
+        <v>-454700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-417900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-252000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8331000</v>
+        <v>8663800</v>
       </c>
       <c r="E76" s="3">
-        <v>7527100</v>
+        <v>8134000</v>
       </c>
       <c r="F76" s="3">
-        <v>6999500</v>
+        <v>7349100</v>
       </c>
       <c r="G76" s="3">
-        <v>6404500</v>
+        <v>6834000</v>
       </c>
       <c r="H76" s="3">
-        <v>6506300</v>
+        <v>6253100</v>
       </c>
       <c r="I76" s="3">
-        <v>5733400</v>
+        <v>6352400</v>
       </c>
       <c r="J76" s="3">
+        <v>5597800</v>
+      </c>
+      <c r="K76" s="3">
         <v>4373500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4337900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1014500</v>
+        <v>945800</v>
       </c>
       <c r="E81" s="3">
-        <v>451000</v>
+        <v>990500</v>
       </c>
       <c r="F81" s="3">
-        <v>475800</v>
+        <v>440400</v>
       </c>
       <c r="G81" s="3">
-        <v>192200</v>
+        <v>464500</v>
       </c>
       <c r="H81" s="3">
-        <v>269200</v>
+        <v>187700</v>
       </c>
       <c r="I81" s="3">
-        <v>169000</v>
+        <v>262800</v>
       </c>
       <c r="J81" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K81" s="3">
         <v>34000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>135900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>414300</v>
+        <v>386400</v>
       </c>
       <c r="E83" s="3">
-        <v>333200</v>
+        <v>404500</v>
       </c>
       <c r="F83" s="3">
-        <v>363900</v>
+        <v>325400</v>
       </c>
       <c r="G83" s="3">
-        <v>342500</v>
+        <v>355300</v>
       </c>
       <c r="H83" s="3">
-        <v>377500</v>
+        <v>334400</v>
       </c>
       <c r="I83" s="3">
-        <v>378600</v>
+        <v>368600</v>
       </c>
       <c r="J83" s="3">
+        <v>369600</v>
+      </c>
+      <c r="K83" s="3">
         <v>299100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>207800</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1321000</v>
+        <v>1349300</v>
       </c>
       <c r="E89" s="3">
-        <v>1111600</v>
+        <v>1289800</v>
       </c>
       <c r="F89" s="3">
-        <v>854100</v>
+        <v>1085300</v>
       </c>
       <c r="G89" s="3">
-        <v>656500</v>
+        <v>833900</v>
       </c>
       <c r="H89" s="3">
-        <v>675600</v>
+        <v>641000</v>
       </c>
       <c r="I89" s="3">
-        <v>651300</v>
+        <v>659600</v>
       </c>
       <c r="J89" s="3">
+        <v>635900</v>
+      </c>
+      <c r="K89" s="3">
         <v>434600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>340100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1051500</v>
+        <v>-191000</v>
       </c>
       <c r="E91" s="3">
-        <v>-432200</v>
+        <v>-1026700</v>
       </c>
       <c r="F91" s="3">
-        <v>-615600</v>
+        <v>-422000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1368300</v>
+        <v>-601000</v>
       </c>
       <c r="H91" s="3">
-        <v>-693000</v>
+        <v>-1336000</v>
       </c>
       <c r="I91" s="3">
-        <v>-1033000</v>
+        <v>-676600</v>
       </c>
       <c r="J91" s="3">
+        <v>-1008600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1410900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1135800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1057800</v>
+        <v>-196400</v>
       </c>
       <c r="E94" s="3">
-        <v>-427300</v>
+        <v>-1032800</v>
       </c>
       <c r="F94" s="3">
-        <v>-603000</v>
+        <v>-417200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1367100</v>
+        <v>-588700</v>
       </c>
       <c r="H94" s="3">
-        <v>-692600</v>
+        <v>-1334700</v>
       </c>
       <c r="I94" s="3">
-        <v>-953800</v>
+        <v>-676200</v>
       </c>
       <c r="J94" s="3">
+        <v>-931200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1529400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1039300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-248300</v>
+        <v>-266800</v>
       </c>
       <c r="E96" s="3">
-        <v>-214200</v>
+        <v>-242500</v>
       </c>
       <c r="F96" s="3">
-        <v>-191100</v>
+        <v>-209100</v>
       </c>
       <c r="G96" s="3">
-        <v>-188200</v>
+        <v>-186600</v>
       </c>
       <c r="H96" s="3">
-        <v>-173900</v>
+        <v>-183700</v>
       </c>
       <c r="I96" s="3">
-        <v>-163300</v>
+        <v>-169800</v>
       </c>
       <c r="J96" s="3">
+        <v>-159400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-130100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-115500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-249200</v>
+        <v>-255200</v>
       </c>
       <c r="E100" s="3">
-        <v>-126900</v>
+        <v>-243300</v>
       </c>
       <c r="F100" s="3">
-        <v>-165600</v>
+        <v>-123900</v>
       </c>
       <c r="G100" s="3">
-        <v>107300</v>
+        <v>-161700</v>
       </c>
       <c r="H100" s="3">
-        <v>331400</v>
+        <v>104800</v>
       </c>
       <c r="I100" s="3">
-        <v>444800</v>
+        <v>323600</v>
       </c>
       <c r="J100" s="3">
+        <v>434300</v>
+      </c>
+      <c r="K100" s="3">
         <v>517300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>502800</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-7100</v>
+        <v>-10500</v>
       </c>
       <c r="E101" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
-        <v>-7100</v>
-      </c>
       <c r="H101" s="3">
-        <v>42400</v>
+        <v>-6900</v>
       </c>
       <c r="I101" s="3">
+        <v>41400</v>
+      </c>
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-35400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-29700</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>7100</v>
+        <v>887200</v>
       </c>
       <c r="E102" s="3">
-        <v>556000</v>
+        <v>6900</v>
       </c>
       <c r="F102" s="3">
-        <v>86300</v>
+        <v>542800</v>
       </c>
       <c r="G102" s="3">
-        <v>-610300</v>
+        <v>84200</v>
       </c>
       <c r="H102" s="3">
-        <v>356900</v>
+        <v>-595900</v>
       </c>
       <c r="I102" s="3">
-        <v>143500</v>
+        <v>348400</v>
       </c>
       <c r="J102" s="3">
+        <v>140100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-613000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-226100</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1776200</v>
+        <v>1777100</v>
       </c>
       <c r="E8" s="3">
-        <v>1755000</v>
+        <v>1755900</v>
       </c>
       <c r="F8" s="3">
-        <v>1377300</v>
+        <v>1378000</v>
       </c>
       <c r="G8" s="3">
-        <v>1139500</v>
+        <v>1140100</v>
       </c>
       <c r="H8" s="3">
-        <v>881800</v>
+        <v>882300</v>
       </c>
       <c r="I8" s="3">
-        <v>911300</v>
+        <v>911700</v>
       </c>
       <c r="J8" s="3">
-        <v>823800</v>
+        <v>824200</v>
       </c>
       <c r="K8" s="3">
         <v>613400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>625200</v>
+        <v>625500</v>
       </c>
       <c r="E9" s="3">
-        <v>645200</v>
+        <v>645500</v>
       </c>
       <c r="F9" s="3">
-        <v>539700</v>
+        <v>540000</v>
       </c>
       <c r="G9" s="3">
-        <v>550800</v>
+        <v>551100</v>
       </c>
       <c r="H9" s="3">
-        <v>494000</v>
+        <v>494200</v>
       </c>
       <c r="I9" s="3">
-        <v>560300</v>
+        <v>560500</v>
       </c>
       <c r="J9" s="3">
-        <v>512500</v>
+        <v>512700</v>
       </c>
       <c r="K9" s="3">
         <v>128700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1151000</v>
+        <v>1151600</v>
       </c>
       <c r="E10" s="3">
-        <v>1109800</v>
+        <v>1110400</v>
       </c>
       <c r="F10" s="3">
-        <v>837500</v>
+        <v>838000</v>
       </c>
       <c r="G10" s="3">
-        <v>588700</v>
+        <v>589000</v>
       </c>
       <c r="H10" s="3">
-        <v>387900</v>
+        <v>388100</v>
       </c>
       <c r="I10" s="3">
-        <v>351000</v>
+        <v>351200</v>
       </c>
       <c r="J10" s="3">
-        <v>311300</v>
+        <v>311500</v>
       </c>
       <c r="K10" s="3">
         <v>484600</v>
@@ -903,13 +903,13 @@
         <v>-91800</v>
       </c>
       <c r="F14" s="3">
-        <v>353800</v>
+        <v>354000</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>102600</v>
+        <v>102700</v>
       </c>
       <c r="I14" s="3">
         <v>6100</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>668300</v>
+        <v>668600</v>
       </c>
       <c r="E17" s="3">
-        <v>593100</v>
+        <v>593400</v>
       </c>
       <c r="F17" s="3">
-        <v>923000</v>
+        <v>923500</v>
       </c>
       <c r="G17" s="3">
-        <v>585800</v>
+        <v>586100</v>
       </c>
       <c r="H17" s="3">
-        <v>626900</v>
+        <v>627300</v>
       </c>
       <c r="I17" s="3">
-        <v>599500</v>
+        <v>599800</v>
       </c>
       <c r="J17" s="3">
-        <v>614000</v>
+        <v>614300</v>
       </c>
       <c r="K17" s="3">
         <v>542200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1107900</v>
+        <v>1108500</v>
       </c>
       <c r="E18" s="3">
-        <v>1161900</v>
+        <v>1162500</v>
       </c>
       <c r="F18" s="3">
-        <v>454300</v>
+        <v>454500</v>
       </c>
       <c r="G18" s="3">
-        <v>553800</v>
+        <v>554100</v>
       </c>
       <c r="H18" s="3">
-        <v>254900</v>
+        <v>255000</v>
       </c>
       <c r="I18" s="3">
-        <v>311700</v>
+        <v>311900</v>
       </c>
       <c r="J18" s="3">
-        <v>209800</v>
+        <v>209900</v>
       </c>
       <c r="K18" s="3">
         <v>71200</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1511800</v>
+        <v>1514000</v>
       </c>
       <c r="E21" s="3">
-        <v>1562900</v>
+        <v>1565200</v>
       </c>
       <c r="F21" s="3">
-        <v>784400</v>
+        <v>786000</v>
       </c>
       <c r="G21" s="3">
-        <v>913500</v>
+        <v>915200</v>
       </c>
       <c r="H21" s="3">
-        <v>588500</v>
+        <v>590000</v>
       </c>
       <c r="I21" s="3">
-        <v>685800</v>
+        <v>687500</v>
       </c>
       <c r="J21" s="3">
-        <v>595000</v>
+        <v>596600</v>
       </c>
       <c r="K21" s="3">
         <v>365600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1125500</v>
+        <v>1126100</v>
       </c>
       <c r="E23" s="3">
-        <v>1158000</v>
+        <v>1158600</v>
       </c>
       <c r="F23" s="3">
-        <v>458300</v>
+        <v>458600</v>
       </c>
       <c r="G23" s="3">
-        <v>548000</v>
+        <v>548200</v>
       </c>
       <c r="H23" s="3">
-        <v>255300</v>
+        <v>255400</v>
       </c>
       <c r="I23" s="3">
-        <v>318600</v>
+        <v>318800</v>
       </c>
       <c r="J23" s="3">
-        <v>226700</v>
+        <v>226800</v>
       </c>
       <c r="K23" s="3">
         <v>67100</v>
@@ -1188,19 +1188,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>179700</v>
+        <v>179800</v>
       </c>
       <c r="E24" s="3">
-        <v>167500</v>
+        <v>167600</v>
       </c>
       <c r="F24" s="3">
         <v>18000</v>
       </c>
       <c r="G24" s="3">
-        <v>83400</v>
+        <v>83500</v>
       </c>
       <c r="H24" s="3">
-        <v>64900</v>
+        <v>65000</v>
       </c>
       <c r="I24" s="3">
         <v>46200</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>945800</v>
+        <v>946300</v>
       </c>
       <c r="E26" s="3">
-        <v>990500</v>
+        <v>991000</v>
       </c>
       <c r="F26" s="3">
-        <v>440400</v>
+        <v>440600</v>
       </c>
       <c r="G26" s="3">
-        <v>464500</v>
+        <v>464800</v>
       </c>
       <c r="H26" s="3">
         <v>190400</v>
       </c>
       <c r="I26" s="3">
-        <v>272400</v>
+        <v>272600</v>
       </c>
       <c r="J26" s="3">
-        <v>165000</v>
+        <v>165100</v>
       </c>
       <c r="K26" s="3">
         <v>34000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>945800</v>
+        <v>946300</v>
       </c>
       <c r="E27" s="3">
-        <v>990500</v>
+        <v>991000</v>
       </c>
       <c r="F27" s="3">
-        <v>440400</v>
+        <v>440600</v>
       </c>
       <c r="G27" s="3">
-        <v>464500</v>
+        <v>464800</v>
       </c>
       <c r="H27" s="3">
         <v>190400</v>
       </c>
       <c r="I27" s="3">
-        <v>272400</v>
+        <v>272600</v>
       </c>
       <c r="J27" s="3">
-        <v>165000</v>
+        <v>165100</v>
       </c>
       <c r="K27" s="3">
         <v>34000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>945800</v>
+        <v>946300</v>
       </c>
       <c r="E33" s="3">
-        <v>990500</v>
+        <v>991000</v>
       </c>
       <c r="F33" s="3">
-        <v>440400</v>
+        <v>440600</v>
       </c>
       <c r="G33" s="3">
-        <v>464500</v>
+        <v>464800</v>
       </c>
       <c r="H33" s="3">
         <v>187700</v>
       </c>
       <c r="I33" s="3">
-        <v>262800</v>
+        <v>263000</v>
       </c>
       <c r="J33" s="3">
-        <v>165000</v>
+        <v>165100</v>
       </c>
       <c r="K33" s="3">
         <v>34000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>945800</v>
+        <v>946300</v>
       </c>
       <c r="E35" s="3">
-        <v>990500</v>
+        <v>991000</v>
       </c>
       <c r="F35" s="3">
-        <v>440400</v>
+        <v>440600</v>
       </c>
       <c r="G35" s="3">
-        <v>464500</v>
+        <v>464800</v>
       </c>
       <c r="H35" s="3">
         <v>187700</v>
       </c>
       <c r="I35" s="3">
-        <v>262800</v>
+        <v>263000</v>
       </c>
       <c r="J35" s="3">
-        <v>165000</v>
+        <v>165100</v>
       </c>
       <c r="K35" s="3">
         <v>34000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1615300</v>
+        <v>1616100</v>
       </c>
       <c r="E41" s="3">
-        <v>728100</v>
+        <v>728400</v>
       </c>
       <c r="F41" s="3">
-        <v>721200</v>
+        <v>721500</v>
       </c>
       <c r="G41" s="3">
-        <v>178300</v>
+        <v>178400</v>
       </c>
       <c r="H41" s="3">
         <v>94100</v>
       </c>
       <c r="I41" s="3">
-        <v>690000</v>
+        <v>690300</v>
       </c>
       <c r="J41" s="3">
-        <v>341600</v>
+        <v>341700</v>
       </c>
       <c r="K41" s="3">
         <v>206300</v>
@@ -1718,19 +1718,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>183200</v>
+        <v>183300</v>
       </c>
       <c r="E43" s="3">
-        <v>215300</v>
+        <v>215400</v>
       </c>
       <c r="F43" s="3">
-        <v>126100</v>
+        <v>126200</v>
       </c>
       <c r="G43" s="3">
-        <v>132000</v>
+        <v>132100</v>
       </c>
       <c r="H43" s="3">
-        <v>101900</v>
+        <v>102000</v>
       </c>
       <c r="I43" s="3">
         <v>89000</v>
@@ -1784,13 +1784,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68700</v>
+        <v>68800</v>
       </c>
       <c r="E45" s="3">
         <v>71000</v>
       </c>
       <c r="F45" s="3">
-        <v>48700</v>
+        <v>48800</v>
       </c>
       <c r="G45" s="3">
         <v>65900</v>
@@ -1802,7 +1802,7 @@
         <v>43600</v>
       </c>
       <c r="J45" s="3">
-        <v>46400</v>
+        <v>46500</v>
       </c>
       <c r="K45" s="3">
         <v>57500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1867200</v>
+        <v>1868200</v>
       </c>
       <c r="E46" s="3">
-        <v>1014400</v>
+        <v>1014900</v>
       </c>
       <c r="F46" s="3">
-        <v>896000</v>
+        <v>896500</v>
       </c>
       <c r="G46" s="3">
-        <v>376200</v>
+        <v>376400</v>
       </c>
       <c r="H46" s="3">
-        <v>241000</v>
+        <v>241100</v>
       </c>
       <c r="I46" s="3">
-        <v>832100</v>
+        <v>832600</v>
       </c>
       <c r="J46" s="3">
-        <v>487600</v>
+        <v>487900</v>
       </c>
       <c r="K46" s="3">
         <v>379800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>303200</v>
+        <v>303400</v>
       </c>
       <c r="E47" s="3">
-        <v>317400</v>
+        <v>317500</v>
       </c>
       <c r="F47" s="3">
-        <v>314100</v>
+        <v>314300</v>
       </c>
       <c r="G47" s="3">
-        <v>243300</v>
+        <v>243400</v>
       </c>
       <c r="H47" s="3">
-        <v>228200</v>
+        <v>228300</v>
       </c>
       <c r="I47" s="3">
-        <v>273100</v>
+        <v>273200</v>
       </c>
       <c r="J47" s="3">
-        <v>197800</v>
+        <v>197900</v>
       </c>
       <c r="K47" s="3">
         <v>130900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6661200</v>
+        <v>6664600</v>
       </c>
       <c r="E48" s="3">
-        <v>6961100</v>
+        <v>6964700</v>
       </c>
       <c r="F48" s="3">
-        <v>6263300</v>
+        <v>6266600</v>
       </c>
       <c r="G48" s="3">
-        <v>6493500</v>
+        <v>6496900</v>
       </c>
       <c r="H48" s="3">
-        <v>6164500</v>
+        <v>6167700</v>
       </c>
       <c r="I48" s="3">
-        <v>5335900</v>
+        <v>5338600</v>
       </c>
       <c r="J48" s="3">
-        <v>4972100</v>
+        <v>4974600</v>
       </c>
       <c r="K48" s="3">
         <v>4527800</v>
@@ -2015,7 +2015,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>114600</v>
+        <v>114700</v>
       </c>
       <c r="E52" s="3">
         <v>90500</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8946200</v>
+        <v>8950800</v>
       </c>
       <c r="E54" s="3">
-        <v>8383400</v>
+        <v>8387700</v>
       </c>
       <c r="F54" s="3">
-        <v>7550400</v>
+        <v>7554300</v>
       </c>
       <c r="G54" s="3">
-        <v>7128800</v>
+        <v>7132500</v>
       </c>
       <c r="H54" s="3">
-        <v>6657900</v>
+        <v>6661400</v>
       </c>
       <c r="I54" s="3">
-        <v>6464300</v>
+        <v>6467700</v>
       </c>
       <c r="J54" s="3">
-        <v>5699200</v>
+        <v>5702100</v>
       </c>
       <c r="K54" s="3">
         <v>5080500</v>
@@ -2210,10 +2210,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58300</v>
+        <v>58400</v>
       </c>
       <c r="E59" s="3">
-        <v>46800</v>
+        <v>46900</v>
       </c>
       <c r="F59" s="3">
         <v>67100</v>
@@ -2225,7 +2225,7 @@
         <v>23900</v>
       </c>
       <c r="I59" s="3">
-        <v>22100</v>
+        <v>22200</v>
       </c>
       <c r="J59" s="3">
         <v>37800</v>
@@ -2246,10 +2246,10 @@
         <v>67800</v>
       </c>
       <c r="E60" s="3">
-        <v>58300</v>
+        <v>58400</v>
       </c>
       <c r="F60" s="3">
-        <v>71800</v>
+        <v>71900</v>
       </c>
       <c r="G60" s="3">
         <v>72100</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>111500</v>
+        <v>111600</v>
       </c>
       <c r="H61" s="3">
-        <v>280300</v>
+        <v>280400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2309,16 +2309,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>214700</v>
+        <v>214800</v>
       </c>
       <c r="E62" s="3">
-        <v>191000</v>
+        <v>191100</v>
       </c>
       <c r="F62" s="3">
         <v>129500</v>
       </c>
       <c r="G62" s="3">
-        <v>111200</v>
+        <v>111300</v>
       </c>
       <c r="H62" s="3">
         <v>90900</v>
@@ -2327,7 +2327,7 @@
         <v>81400</v>
       </c>
       <c r="J62" s="3">
-        <v>50600</v>
+        <v>50700</v>
       </c>
       <c r="K62" s="3">
         <v>45900</v>
@@ -2441,22 +2441,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>282400</v>
+        <v>282600</v>
       </c>
       <c r="E66" s="3">
-        <v>249300</v>
+        <v>249500</v>
       </c>
       <c r="F66" s="3">
-        <v>201300</v>
+        <v>201400</v>
       </c>
       <c r="G66" s="3">
-        <v>294800</v>
+        <v>295000</v>
       </c>
       <c r="H66" s="3">
-        <v>404900</v>
+        <v>405100</v>
       </c>
       <c r="I66" s="3">
-        <v>111900</v>
+        <v>112000</v>
       </c>
       <c r="J66" s="3">
         <v>101400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1269500</v>
+        <v>1270200</v>
       </c>
       <c r="E72" s="3">
-        <v>654600</v>
+        <v>655000</v>
       </c>
       <c r="F72" s="3">
-        <v>-46400</v>
+        <v>-46500</v>
       </c>
       <c r="G72" s="3">
-        <v>-221900</v>
+        <v>-222100</v>
       </c>
       <c r="H72" s="3">
-        <v>-434300</v>
+        <v>-434500</v>
       </c>
       <c r="I72" s="3">
-        <v>-418500</v>
+        <v>-418700</v>
       </c>
       <c r="J72" s="3">
-        <v>-454700</v>
+        <v>-454900</v>
       </c>
       <c r="K72" s="3">
         <v>-417900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8663800</v>
+        <v>8668300</v>
       </c>
       <c r="E76" s="3">
-        <v>8134000</v>
+        <v>8138200</v>
       </c>
       <c r="F76" s="3">
-        <v>7349100</v>
+        <v>7352900</v>
       </c>
       <c r="G76" s="3">
-        <v>6834000</v>
+        <v>6837500</v>
       </c>
       <c r="H76" s="3">
-        <v>6253100</v>
+        <v>6256300</v>
       </c>
       <c r="I76" s="3">
-        <v>6352400</v>
+        <v>6355700</v>
       </c>
       <c r="J76" s="3">
-        <v>5597800</v>
+        <v>5600700</v>
       </c>
       <c r="K76" s="3">
         <v>4373500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>945800</v>
+        <v>946300</v>
       </c>
       <c r="E81" s="3">
-        <v>990500</v>
+        <v>991000</v>
       </c>
       <c r="F81" s="3">
-        <v>440400</v>
+        <v>440600</v>
       </c>
       <c r="G81" s="3">
-        <v>464500</v>
+        <v>464800</v>
       </c>
       <c r="H81" s="3">
         <v>187700</v>
       </c>
       <c r="I81" s="3">
-        <v>262800</v>
+        <v>263000</v>
       </c>
       <c r="J81" s="3">
-        <v>165000</v>
+        <v>165100</v>
       </c>
       <c r="K81" s="3">
         <v>34000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>386400</v>
+        <v>386600</v>
       </c>
       <c r="E83" s="3">
-        <v>404500</v>
+        <v>404700</v>
       </c>
       <c r="F83" s="3">
-        <v>325400</v>
+        <v>325500</v>
       </c>
       <c r="G83" s="3">
-        <v>355300</v>
+        <v>355500</v>
       </c>
       <c r="H83" s="3">
-        <v>334400</v>
+        <v>334600</v>
       </c>
       <c r="I83" s="3">
-        <v>368600</v>
+        <v>368700</v>
       </c>
       <c r="J83" s="3">
-        <v>369600</v>
+        <v>369800</v>
       </c>
       <c r="K83" s="3">
         <v>299100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1349300</v>
+        <v>1350000</v>
       </c>
       <c r="E89" s="3">
-        <v>1289800</v>
+        <v>1290500</v>
       </c>
       <c r="F89" s="3">
-        <v>1085300</v>
+        <v>1085800</v>
       </c>
       <c r="G89" s="3">
-        <v>833900</v>
+        <v>834300</v>
       </c>
       <c r="H89" s="3">
-        <v>641000</v>
+        <v>641300</v>
       </c>
       <c r="I89" s="3">
-        <v>659600</v>
+        <v>660000</v>
       </c>
       <c r="J89" s="3">
-        <v>635900</v>
+        <v>636200</v>
       </c>
       <c r="K89" s="3">
         <v>434600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-191000</v>
+        <v>-191100</v>
       </c>
       <c r="E91" s="3">
-        <v>-1026700</v>
+        <v>-1027200</v>
       </c>
       <c r="F91" s="3">
-        <v>-422000</v>
+        <v>-422200</v>
       </c>
       <c r="G91" s="3">
-        <v>-601000</v>
+        <v>-601300</v>
       </c>
       <c r="H91" s="3">
-        <v>-1336000</v>
+        <v>-1336700</v>
       </c>
       <c r="I91" s="3">
-        <v>-676600</v>
+        <v>-677000</v>
       </c>
       <c r="J91" s="3">
-        <v>-1008600</v>
+        <v>-1009100</v>
       </c>
       <c r="K91" s="3">
         <v>-1410900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-196400</v>
+        <v>-196500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1032800</v>
+        <v>-1033300</v>
       </c>
       <c r="F94" s="3">
-        <v>-417200</v>
+        <v>-417400</v>
       </c>
       <c r="G94" s="3">
-        <v>-588700</v>
+        <v>-589000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1334700</v>
+        <v>-1335400</v>
       </c>
       <c r="I94" s="3">
-        <v>-676200</v>
+        <v>-676600</v>
       </c>
       <c r="J94" s="3">
-        <v>-931200</v>
+        <v>-931700</v>
       </c>
       <c r="K94" s="3">
         <v>-1529400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-266800</v>
+        <v>-266900</v>
       </c>
       <c r="E96" s="3">
-        <v>-242500</v>
+        <v>-242600</v>
       </c>
       <c r="F96" s="3">
-        <v>-209100</v>
+        <v>-209200</v>
       </c>
       <c r="G96" s="3">
-        <v>-186600</v>
+        <v>-186700</v>
       </c>
       <c r="H96" s="3">
-        <v>-183700</v>
+        <v>-183800</v>
       </c>
       <c r="I96" s="3">
-        <v>-169800</v>
+        <v>-169900</v>
       </c>
       <c r="J96" s="3">
-        <v>-159400</v>
+        <v>-159500</v>
       </c>
       <c r="K96" s="3">
         <v>-130100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-255200</v>
+        <v>-255300</v>
       </c>
       <c r="E100" s="3">
-        <v>-243300</v>
+        <v>-243400</v>
       </c>
       <c r="F100" s="3">
-        <v>-123900</v>
+        <v>-124000</v>
       </c>
       <c r="G100" s="3">
-        <v>-161700</v>
+        <v>-161800</v>
       </c>
       <c r="H100" s="3">
         <v>104800</v>
       </c>
       <c r="I100" s="3">
-        <v>323600</v>
+        <v>323800</v>
       </c>
       <c r="J100" s="3">
-        <v>434300</v>
+        <v>434500</v>
       </c>
       <c r="K100" s="3">
         <v>517300</v>
@@ -3478,7 +3478,7 @@
         <v>-6900</v>
       </c>
       <c r="I101" s="3">
-        <v>41400</v>
+        <v>41500</v>
       </c>
       <c r="J101" s="3">
         <v>1200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>887200</v>
+        <v>887700</v>
       </c>
       <c r="E102" s="3">
         <v>6900</v>
       </c>
       <c r="F102" s="3">
-        <v>542800</v>
+        <v>543100</v>
       </c>
       <c r="G102" s="3">
-        <v>84200</v>
+        <v>84300</v>
       </c>
       <c r="H102" s="3">
-        <v>-595900</v>
+        <v>-596200</v>
       </c>
       <c r="I102" s="3">
-        <v>348400</v>
+        <v>348600</v>
       </c>
       <c r="J102" s="3">
-        <v>140100</v>
+        <v>140200</v>
       </c>
       <c r="K102" s="3">
         <v>-613000</v>

--- a/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FNV_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1777100</v>
+        <v>1809700</v>
       </c>
       <c r="E8" s="3">
-        <v>1755900</v>
+        <v>1788200</v>
       </c>
       <c r="F8" s="3">
-        <v>1378000</v>
+        <v>1403300</v>
       </c>
       <c r="G8" s="3">
-        <v>1140100</v>
+        <v>1161100</v>
       </c>
       <c r="H8" s="3">
-        <v>882300</v>
+        <v>898500</v>
       </c>
       <c r="I8" s="3">
-        <v>911700</v>
+        <v>928500</v>
       </c>
       <c r="J8" s="3">
-        <v>824200</v>
+        <v>839300</v>
       </c>
       <c r="K8" s="3">
         <v>613400</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>625500</v>
+        <v>637000</v>
       </c>
       <c r="E9" s="3">
-        <v>645500</v>
+        <v>657400</v>
       </c>
       <c r="F9" s="3">
-        <v>540000</v>
+        <v>549900</v>
       </c>
       <c r="G9" s="3">
-        <v>551100</v>
+        <v>561200</v>
       </c>
       <c r="H9" s="3">
-        <v>494200</v>
+        <v>503300</v>
       </c>
       <c r="I9" s="3">
-        <v>560500</v>
+        <v>570800</v>
       </c>
       <c r="J9" s="3">
-        <v>512700</v>
+        <v>522100</v>
       </c>
       <c r="K9" s="3">
         <v>128700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1151600</v>
+        <v>1172800</v>
       </c>
       <c r="E10" s="3">
-        <v>1110400</v>
+        <v>1130800</v>
       </c>
       <c r="F10" s="3">
-        <v>838000</v>
+        <v>853400</v>
       </c>
       <c r="G10" s="3">
-        <v>589000</v>
+        <v>599900</v>
       </c>
       <c r="H10" s="3">
-        <v>388100</v>
+        <v>395200</v>
       </c>
       <c r="I10" s="3">
-        <v>351200</v>
+        <v>357600</v>
       </c>
       <c r="J10" s="3">
-        <v>311500</v>
+        <v>317200</v>
       </c>
       <c r="K10" s="3">
         <v>484600</v>
@@ -846,10 +846,10 @@
         <v>8</v>
       </c>
       <c r="I12" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="J12" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K12" s="3">
         <v>3700</v>
@@ -900,22 +900,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-91800</v>
+        <v>-93500</v>
       </c>
       <c r="F14" s="3">
-        <v>354000</v>
+        <v>360500</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>102700</v>
+        <v>104500</v>
       </c>
       <c r="I14" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="J14" s="3">
-        <v>72100</v>
+        <v>73500</v>
       </c>
       <c r="K14" s="3">
         <v>89700</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>668600</v>
+        <v>680900</v>
       </c>
       <c r="E17" s="3">
-        <v>593400</v>
+        <v>604300</v>
       </c>
       <c r="F17" s="3">
-        <v>923500</v>
+        <v>940400</v>
       </c>
       <c r="G17" s="3">
-        <v>586100</v>
+        <v>596800</v>
       </c>
       <c r="H17" s="3">
-        <v>627300</v>
+        <v>638800</v>
       </c>
       <c r="I17" s="3">
-        <v>599800</v>
+        <v>610900</v>
       </c>
       <c r="J17" s="3">
-        <v>614300</v>
+        <v>625600</v>
       </c>
       <c r="K17" s="3">
         <v>542200</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1108500</v>
+        <v>1128900</v>
       </c>
       <c r="E18" s="3">
-        <v>1162500</v>
+        <v>1183900</v>
       </c>
       <c r="F18" s="3">
-        <v>454500</v>
+        <v>462900</v>
       </c>
       <c r="G18" s="3">
-        <v>554100</v>
+        <v>564200</v>
       </c>
       <c r="H18" s="3">
-        <v>255000</v>
+        <v>259700</v>
       </c>
       <c r="I18" s="3">
-        <v>311900</v>
+        <v>317600</v>
       </c>
       <c r="J18" s="3">
-        <v>209900</v>
+        <v>213800</v>
       </c>
       <c r="K18" s="3">
         <v>71200</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="F20" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="G20" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="J20" s="3">
-        <v>16900</v>
+        <v>17200</v>
       </c>
       <c r="K20" s="3">
         <v>-4100</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1514000</v>
+        <v>1539600</v>
       </c>
       <c r="E21" s="3">
-        <v>1565200</v>
+        <v>1591600</v>
       </c>
       <c r="F21" s="3">
-        <v>786000</v>
+        <v>798500</v>
       </c>
       <c r="G21" s="3">
-        <v>915200</v>
+        <v>930000</v>
       </c>
       <c r="H21" s="3">
-        <v>590000</v>
+        <v>598900</v>
       </c>
       <c r="I21" s="3">
-        <v>687500</v>
+        <v>698000</v>
       </c>
       <c r="J21" s="3">
-        <v>596600</v>
+        <v>605500</v>
       </c>
       <c r="K21" s="3">
         <v>365600</v>
@@ -1131,7 +1131,7 @@
         <v>1900</v>
       </c>
       <c r="G22" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1126100</v>
+        <v>1146800</v>
       </c>
       <c r="E23" s="3">
-        <v>1158600</v>
+        <v>1179900</v>
       </c>
       <c r="F23" s="3">
-        <v>458600</v>
+        <v>467000</v>
       </c>
       <c r="G23" s="3">
-        <v>548200</v>
+        <v>558300</v>
       </c>
       <c r="H23" s="3">
-        <v>255400</v>
+        <v>260100</v>
       </c>
       <c r="I23" s="3">
-        <v>318800</v>
+        <v>324600</v>
       </c>
       <c r="J23" s="3">
-        <v>226800</v>
+        <v>230900</v>
       </c>
       <c r="K23" s="3">
         <v>67100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>179800</v>
+        <v>183100</v>
       </c>
       <c r="E24" s="3">
-        <v>167600</v>
+        <v>170700</v>
       </c>
       <c r="F24" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="G24" s="3">
-        <v>83500</v>
+        <v>85000</v>
       </c>
       <c r="H24" s="3">
-        <v>65000</v>
+        <v>66200</v>
       </c>
       <c r="I24" s="3">
-        <v>46200</v>
+        <v>47000</v>
       </c>
       <c r="J24" s="3">
-        <v>61700</v>
+        <v>62900</v>
       </c>
       <c r="K24" s="3">
         <v>33000</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>946300</v>
+        <v>963700</v>
       </c>
       <c r="E26" s="3">
-        <v>991000</v>
+        <v>1009200</v>
       </c>
       <c r="F26" s="3">
-        <v>440600</v>
+        <v>448700</v>
       </c>
       <c r="G26" s="3">
-        <v>464800</v>
+        <v>473300</v>
       </c>
       <c r="H26" s="3">
-        <v>190400</v>
+        <v>193900</v>
       </c>
       <c r="I26" s="3">
-        <v>272600</v>
+        <v>277600</v>
       </c>
       <c r="J26" s="3">
-        <v>165100</v>
+        <v>168100</v>
       </c>
       <c r="K26" s="3">
         <v>34000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>946300</v>
+        <v>963700</v>
       </c>
       <c r="E27" s="3">
-        <v>991000</v>
+        <v>1009200</v>
       </c>
       <c r="F27" s="3">
-        <v>440600</v>
+        <v>448700</v>
       </c>
       <c r="G27" s="3">
-        <v>464800</v>
+        <v>473300</v>
       </c>
       <c r="H27" s="3">
-        <v>190400</v>
+        <v>193900</v>
       </c>
       <c r="I27" s="3">
-        <v>272600</v>
+        <v>277600</v>
       </c>
       <c r="J27" s="3">
-        <v>165100</v>
+        <v>168100</v>
       </c>
       <c r="K27" s="3">
         <v>34000</v>
@@ -1365,10 +1365,10 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="I29" s="3">
-        <v>-9600</v>
+        <v>-9800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18900</v>
+        <v>-19300</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F32" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="G32" s="3">
-        <v>-5700</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="J32" s="3">
-        <v>-16900</v>
+        <v>-17200</v>
       </c>
       <c r="K32" s="3">
         <v>4100</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>946300</v>
+        <v>963700</v>
       </c>
       <c r="E33" s="3">
-        <v>991000</v>
+        <v>1009200</v>
       </c>
       <c r="F33" s="3">
-        <v>440600</v>
+        <v>448700</v>
       </c>
       <c r="G33" s="3">
-        <v>464800</v>
+        <v>473300</v>
       </c>
       <c r="H33" s="3">
-        <v>187700</v>
+        <v>191200</v>
       </c>
       <c r="I33" s="3">
-        <v>263000</v>
+        <v>267800</v>
       </c>
       <c r="J33" s="3">
-        <v>165100</v>
+        <v>168100</v>
       </c>
       <c r="K33" s="3">
         <v>34000</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>946300</v>
+        <v>963700</v>
       </c>
       <c r="E35" s="3">
-        <v>991000</v>
+        <v>1009200</v>
       </c>
       <c r="F35" s="3">
-        <v>440600</v>
+        <v>448700</v>
       </c>
       <c r="G35" s="3">
-        <v>464800</v>
+        <v>473300</v>
       </c>
       <c r="H35" s="3">
-        <v>187700</v>
+        <v>191200</v>
       </c>
       <c r="I35" s="3">
-        <v>263000</v>
+        <v>267800</v>
       </c>
       <c r="J35" s="3">
-        <v>165100</v>
+        <v>168100</v>
       </c>
       <c r="K35" s="3">
         <v>34000</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1616100</v>
+        <v>1645800</v>
       </c>
       <c r="E41" s="3">
-        <v>728400</v>
+        <v>741800</v>
       </c>
       <c r="F41" s="3">
-        <v>721500</v>
+        <v>734800</v>
       </c>
       <c r="G41" s="3">
-        <v>178400</v>
+        <v>181700</v>
       </c>
       <c r="H41" s="3">
-        <v>94100</v>
+        <v>95900</v>
       </c>
       <c r="I41" s="3">
-        <v>690300</v>
+        <v>703000</v>
       </c>
       <c r="J41" s="3">
-        <v>341700</v>
+        <v>348000</v>
       </c>
       <c r="K41" s="3">
         <v>206300</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>183300</v>
+        <v>186700</v>
       </c>
       <c r="E43" s="3">
-        <v>215400</v>
+        <v>219400</v>
       </c>
       <c r="F43" s="3">
-        <v>126200</v>
+        <v>128500</v>
       </c>
       <c r="G43" s="3">
-        <v>132100</v>
+        <v>134500</v>
       </c>
       <c r="H43" s="3">
-        <v>102000</v>
+        <v>103900</v>
       </c>
       <c r="I43" s="3">
-        <v>89000</v>
+        <v>90600</v>
       </c>
       <c r="J43" s="3">
-        <v>96000</v>
+        <v>97800</v>
       </c>
       <c r="K43" s="3">
         <v>90000</v>
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>9600</v>
+        <v>9800</v>
       </c>
       <c r="J44" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>8</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="E45" s="3">
-        <v>71000</v>
+        <v>72400</v>
       </c>
       <c r="F45" s="3">
-        <v>48800</v>
+        <v>49700</v>
       </c>
       <c r="G45" s="3">
-        <v>65900</v>
+        <v>67100</v>
       </c>
       <c r="H45" s="3">
-        <v>45000</v>
+        <v>45800</v>
       </c>
       <c r="I45" s="3">
-        <v>43600</v>
+        <v>44400</v>
       </c>
       <c r="J45" s="3">
-        <v>46500</v>
+        <v>47300</v>
       </c>
       <c r="K45" s="3">
         <v>57500</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1868200</v>
+        <v>1902500</v>
       </c>
       <c r="E46" s="3">
-        <v>1014900</v>
+        <v>1033600</v>
       </c>
       <c r="F46" s="3">
-        <v>896500</v>
+        <v>912900</v>
       </c>
       <c r="G46" s="3">
-        <v>376400</v>
+        <v>383400</v>
       </c>
       <c r="H46" s="3">
-        <v>241100</v>
+        <v>245500</v>
       </c>
       <c r="I46" s="3">
-        <v>832600</v>
+        <v>847900</v>
       </c>
       <c r="J46" s="3">
-        <v>487900</v>
+        <v>496800</v>
       </c>
       <c r="K46" s="3">
         <v>379800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>303400</v>
+        <v>308900</v>
       </c>
       <c r="E47" s="3">
-        <v>317500</v>
+        <v>323400</v>
       </c>
       <c r="F47" s="3">
-        <v>314300</v>
+        <v>320100</v>
       </c>
       <c r="G47" s="3">
-        <v>243400</v>
+        <v>247900</v>
       </c>
       <c r="H47" s="3">
-        <v>228300</v>
+        <v>232500</v>
       </c>
       <c r="I47" s="3">
-        <v>273200</v>
+        <v>278300</v>
       </c>
       <c r="J47" s="3">
-        <v>197900</v>
+        <v>201500</v>
       </c>
       <c r="K47" s="3">
         <v>130900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6664600</v>
+        <v>6787000</v>
       </c>
       <c r="E48" s="3">
-        <v>6964700</v>
+        <v>7092600</v>
       </c>
       <c r="F48" s="3">
-        <v>6266600</v>
+        <v>6381600</v>
       </c>
       <c r="G48" s="3">
-        <v>6496900</v>
+        <v>6616200</v>
       </c>
       <c r="H48" s="3">
-        <v>6167700</v>
+        <v>6280900</v>
       </c>
       <c r="I48" s="3">
-        <v>5338600</v>
+        <v>5436700</v>
       </c>
       <c r="J48" s="3">
-        <v>4974600</v>
+        <v>5066000</v>
       </c>
       <c r="K48" s="3">
         <v>4527800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>114700</v>
+        <v>116800</v>
       </c>
       <c r="E52" s="3">
-        <v>90500</v>
+        <v>92200</v>
       </c>
       <c r="F52" s="3">
-        <v>77000</v>
+        <v>78400</v>
       </c>
       <c r="G52" s="3">
-        <v>15800</v>
+        <v>16100</v>
       </c>
       <c r="H52" s="3">
-        <v>24300</v>
+        <v>24800</v>
       </c>
       <c r="I52" s="3">
-        <v>23200</v>
+        <v>23700</v>
       </c>
       <c r="J52" s="3">
-        <v>41700</v>
+        <v>42500</v>
       </c>
       <c r="K52" s="3">
         <v>41900</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8950800</v>
+        <v>9115200</v>
       </c>
       <c r="E54" s="3">
-        <v>8387700</v>
+        <v>8541700</v>
       </c>
       <c r="F54" s="3">
-        <v>7554300</v>
+        <v>7693000</v>
       </c>
       <c r="G54" s="3">
-        <v>7132500</v>
+        <v>7263500</v>
       </c>
       <c r="H54" s="3">
-        <v>6661400</v>
+        <v>6783700</v>
       </c>
       <c r="I54" s="3">
-        <v>6467700</v>
+        <v>6586400</v>
       </c>
       <c r="J54" s="3">
-        <v>5702100</v>
+        <v>5806800</v>
       </c>
       <c r="K54" s="3">
         <v>5080500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="E57" s="3">
-        <v>11500</v>
+        <v>11700</v>
       </c>
       <c r="F57" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="G57" s="3">
-        <v>9200</v>
+        <v>9400</v>
       </c>
       <c r="H57" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="I57" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="J57" s="3">
-        <v>13000</v>
+        <v>13200</v>
       </c>
       <c r="K57" s="3">
         <v>8600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>58400</v>
+        <v>59400</v>
       </c>
       <c r="E59" s="3">
-        <v>46900</v>
+        <v>47700</v>
       </c>
       <c r="F59" s="3">
-        <v>67100</v>
+        <v>68400</v>
       </c>
       <c r="G59" s="3">
-        <v>62900</v>
+        <v>64100</v>
       </c>
       <c r="H59" s="3">
-        <v>23900</v>
+        <v>24300</v>
       </c>
       <c r="I59" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="J59" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="K59" s="3">
         <v>20200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>67800</v>
+        <v>69100</v>
       </c>
       <c r="E60" s="3">
-        <v>58400</v>
+        <v>59400</v>
       </c>
       <c r="F60" s="3">
-        <v>71900</v>
+        <v>73200</v>
       </c>
       <c r="G60" s="3">
-        <v>72100</v>
+        <v>73500</v>
       </c>
       <c r="H60" s="3">
-        <v>33800</v>
+        <v>34400</v>
       </c>
       <c r="I60" s="3">
-        <v>30500</v>
+        <v>31100</v>
       </c>
       <c r="J60" s="3">
-        <v>50800</v>
+        <v>51700</v>
       </c>
       <c r="K60" s="3">
         <v>28800</v>
@@ -2285,10 +2285,10 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>111600</v>
+        <v>113600</v>
       </c>
       <c r="H61" s="3">
-        <v>280400</v>
+        <v>285600</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>214800</v>
+        <v>218700</v>
       </c>
       <c r="E62" s="3">
-        <v>191100</v>
+        <v>194600</v>
       </c>
       <c r="F62" s="3">
-        <v>129500</v>
+        <v>131900</v>
       </c>
       <c r="G62" s="3">
-        <v>111300</v>
+        <v>113300</v>
       </c>
       <c r="H62" s="3">
-        <v>90900</v>
+        <v>92600</v>
       </c>
       <c r="I62" s="3">
-        <v>81400</v>
+        <v>82900</v>
       </c>
       <c r="J62" s="3">
-        <v>50700</v>
+        <v>51600</v>
       </c>
       <c r="K62" s="3">
         <v>45900</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>282600</v>
+        <v>287800</v>
       </c>
       <c r="E66" s="3">
-        <v>249500</v>
+        <v>254100</v>
       </c>
       <c r="F66" s="3">
-        <v>201400</v>
+        <v>205100</v>
       </c>
       <c r="G66" s="3">
-        <v>295000</v>
+        <v>300400</v>
       </c>
       <c r="H66" s="3">
-        <v>405100</v>
+        <v>412500</v>
       </c>
       <c r="I66" s="3">
-        <v>112000</v>
+        <v>114000</v>
       </c>
       <c r="J66" s="3">
-        <v>101400</v>
+        <v>103300</v>
       </c>
       <c r="K66" s="3">
         <v>707000</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1270200</v>
+        <v>1293500</v>
       </c>
       <c r="E72" s="3">
-        <v>655000</v>
+        <v>667000</v>
       </c>
       <c r="F72" s="3">
-        <v>-46500</v>
+        <v>-47300</v>
       </c>
       <c r="G72" s="3">
-        <v>-222100</v>
+        <v>-226100</v>
       </c>
       <c r="H72" s="3">
-        <v>-434500</v>
+        <v>-442500</v>
       </c>
       <c r="I72" s="3">
-        <v>-418700</v>
+        <v>-426400</v>
       </c>
       <c r="J72" s="3">
-        <v>-454900</v>
+        <v>-463300</v>
       </c>
       <c r="K72" s="3">
         <v>-417900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8668300</v>
+        <v>8827400</v>
       </c>
       <c r="E76" s="3">
-        <v>8138200</v>
+        <v>8287700</v>
       </c>
       <c r="F76" s="3">
-        <v>7352900</v>
+        <v>7487900</v>
       </c>
       <c r="G76" s="3">
-        <v>6837500</v>
+        <v>6963100</v>
       </c>
       <c r="H76" s="3">
-        <v>6256300</v>
+        <v>6371200</v>
       </c>
       <c r="I76" s="3">
-        <v>6355700</v>
+        <v>6472400</v>
       </c>
       <c r="J76" s="3">
-        <v>5600700</v>
+        <v>5703500</v>
       </c>
       <c r="K76" s="3">
         <v>4373500</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>946300</v>
+        <v>963700</v>
       </c>
       <c r="E81" s="3">
-        <v>991000</v>
+        <v>1009200</v>
       </c>
       <c r="F81" s="3">
-        <v>440600</v>
+        <v>448700</v>
       </c>
       <c r="G81" s="3">
-        <v>464800</v>
+        <v>473300</v>
       </c>
       <c r="H81" s="3">
-        <v>187700</v>
+        <v>191200</v>
       </c>
       <c r="I81" s="3">
-        <v>263000</v>
+        <v>267800</v>
       </c>
       <c r="J81" s="3">
-        <v>165100</v>
+        <v>168100</v>
       </c>
       <c r="K81" s="3">
         <v>34000</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>386600</v>
+        <v>393700</v>
       </c>
       <c r="E83" s="3">
-        <v>404700</v>
+        <v>412100</v>
       </c>
       <c r="F83" s="3">
-        <v>325500</v>
+        <v>331500</v>
       </c>
       <c r="G83" s="3">
-        <v>355500</v>
+        <v>362000</v>
       </c>
       <c r="H83" s="3">
-        <v>334600</v>
+        <v>340700</v>
       </c>
       <c r="I83" s="3">
-        <v>368700</v>
+        <v>375500</v>
       </c>
       <c r="J83" s="3">
-        <v>369800</v>
+        <v>376600</v>
       </c>
       <c r="K83" s="3">
         <v>299100</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1350000</v>
+        <v>1374800</v>
       </c>
       <c r="E89" s="3">
-        <v>1290500</v>
+        <v>1314200</v>
       </c>
       <c r="F89" s="3">
-        <v>1085800</v>
+        <v>1105800</v>
       </c>
       <c r="G89" s="3">
-        <v>834300</v>
+        <v>849600</v>
       </c>
       <c r="H89" s="3">
-        <v>641300</v>
+        <v>653100</v>
       </c>
       <c r="I89" s="3">
-        <v>660000</v>
+        <v>672100</v>
       </c>
       <c r="J89" s="3">
-        <v>636200</v>
+        <v>647900</v>
       </c>
       <c r="K89" s="3">
         <v>434600</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-191100</v>
+        <v>-194600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1027200</v>
+        <v>-1046100</v>
       </c>
       <c r="F91" s="3">
-        <v>-422200</v>
+        <v>-430000</v>
       </c>
       <c r="G91" s="3">
-        <v>-601300</v>
+        <v>-612400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1336700</v>
+        <v>-1361200</v>
       </c>
       <c r="I91" s="3">
-        <v>-677000</v>
+        <v>-689400</v>
       </c>
       <c r="J91" s="3">
-        <v>-1009100</v>
+        <v>-1027600</v>
       </c>
       <c r="K91" s="3">
         <v>-1410900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-196500</v>
+        <v>-200100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1033300</v>
+        <v>-1052300</v>
       </c>
       <c r="F94" s="3">
-        <v>-417400</v>
+        <v>-425000</v>
       </c>
       <c r="G94" s="3">
-        <v>-589000</v>
+        <v>-599900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1335400</v>
+        <v>-1360000</v>
       </c>
       <c r="I94" s="3">
-        <v>-676600</v>
+        <v>-689000</v>
       </c>
       <c r="J94" s="3">
-        <v>-931700</v>
+        <v>-948800</v>
       </c>
       <c r="K94" s="3">
         <v>-1529400</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-266900</v>
+        <v>-271800</v>
       </c>
       <c r="E96" s="3">
-        <v>-242600</v>
+        <v>-247000</v>
       </c>
       <c r="F96" s="3">
-        <v>-209200</v>
+        <v>-213100</v>
       </c>
       <c r="G96" s="3">
-        <v>-186700</v>
+        <v>-190100</v>
       </c>
       <c r="H96" s="3">
-        <v>-183800</v>
+        <v>-187200</v>
       </c>
       <c r="I96" s="3">
-        <v>-169900</v>
+        <v>-173000</v>
       </c>
       <c r="J96" s="3">
-        <v>-159500</v>
+        <v>-162400</v>
       </c>
       <c r="K96" s="3">
         <v>-130100</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-255300</v>
+        <v>-260000</v>
       </c>
       <c r="E100" s="3">
-        <v>-243400</v>
+        <v>-247900</v>
       </c>
       <c r="F100" s="3">
-        <v>-124000</v>
+        <v>-126300</v>
       </c>
       <c r="G100" s="3">
-        <v>-161800</v>
+        <v>-164800</v>
       </c>
       <c r="H100" s="3">
-        <v>104800</v>
+        <v>106700</v>
       </c>
       <c r="I100" s="3">
-        <v>323800</v>
+        <v>329700</v>
       </c>
       <c r="J100" s="3">
-        <v>434500</v>
+        <v>442500</v>
       </c>
       <c r="K100" s="3">
         <v>517300</v>
@@ -3463,10 +3463,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10500</v>
+        <v>-10700</v>
       </c>
       <c r="E101" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="F101" s="3">
         <v>-1400</v>
@@ -3475,10 +3475,10 @@
         <v>800</v>
       </c>
       <c r="H101" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="I101" s="3">
-        <v>41500</v>
+        <v>42200</v>
       </c>
       <c r="J101" s="3">
         <v>1200</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>887700</v>
+        <v>904000</v>
       </c>
       <c r="E102" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="F102" s="3">
-        <v>543100</v>
+        <v>553100</v>
       </c>
       <c r="G102" s="3">
-        <v>84300</v>
+        <v>85800</v>
       </c>
       <c r="H102" s="3">
-        <v>-596200</v>
+        <v>-607100</v>
       </c>
       <c r="I102" s="3">
-        <v>348600</v>
+        <v>355000</v>
       </c>
       <c r="J102" s="3">
-        <v>140200</v>
+        <v>142800</v>
       </c>
       <c r="K102" s="3">
         <v>-613000</v>
